--- a/项目进度表.xlsx
+++ b/项目进度表.xlsx
@@ -267,7 +267,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -536,11 +536,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -551,6 +588,67 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -558,33 +656,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -600,52 +685,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -931,8 +977,8 @@
   <dimension ref="A1:AO17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M4" sqref="M4"/>
+      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AG12" sqref="AG12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -940,187 +986,187 @@
     <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="15" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:41" s="9" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="33">
+      <c r="B1" s="19">
         <v>43556</v>
       </c>
-      <c r="C1" s="33">
+      <c r="C1" s="19">
         <v>43557</v>
       </c>
-      <c r="D1" s="33">
+      <c r="D1" s="19">
         <v>43558</v>
       </c>
-      <c r="E1" s="33">
+      <c r="E1" s="19">
         <v>43559</v>
       </c>
-      <c r="F1" s="33">
+      <c r="F1" s="19">
         <v>43560</v>
       </c>
-      <c r="G1" s="33">
+      <c r="G1" s="19">
         <v>43561</v>
       </c>
-      <c r="H1" s="33">
+      <c r="H1" s="19">
         <v>43562</v>
       </c>
-      <c r="I1" s="33">
+      <c r="I1" s="19">
         <v>43563</v>
       </c>
-      <c r="J1" s="33">
+      <c r="J1" s="19">
         <v>43564</v>
       </c>
-      <c r="K1" s="33">
+      <c r="K1" s="19">
         <v>43565</v>
       </c>
-      <c r="L1" s="33">
+      <c r="L1" s="19">
         <v>43566</v>
       </c>
-      <c r="M1" s="33">
+      <c r="M1" s="19">
         <v>43567</v>
       </c>
-      <c r="N1" s="33">
+      <c r="N1" s="19">
         <v>43568</v>
       </c>
-      <c r="O1" s="33">
+      <c r="O1" s="19">
         <v>43569</v>
       </c>
-      <c r="P1" s="33">
+      <c r="P1" s="19">
         <v>43570</v>
       </c>
-      <c r="Q1" s="33">
+      <c r="Q1" s="19">
         <v>43571</v>
       </c>
-      <c r="R1" s="33">
+      <c r="R1" s="19">
         <v>43572</v>
       </c>
-      <c r="S1" s="33">
+      <c r="S1" s="19">
         <v>43573</v>
       </c>
-      <c r="T1" s="33">
+      <c r="T1" s="19">
         <v>43574</v>
       </c>
-      <c r="U1" s="33">
+      <c r="U1" s="19">
         <v>43575</v>
       </c>
-      <c r="V1" s="33">
+      <c r="V1" s="19">
         <v>43576</v>
       </c>
-      <c r="W1" s="33">
+      <c r="W1" s="19">
         <v>43577</v>
       </c>
-      <c r="X1" s="33">
+      <c r="X1" s="19">
         <v>43578</v>
       </c>
-      <c r="Y1" s="33">
+      <c r="Y1" s="19">
         <v>43579</v>
       </c>
-      <c r="Z1" s="33">
+      <c r="Z1" s="19">
         <v>43580</v>
       </c>
-      <c r="AA1" s="33">
+      <c r="AA1" s="19">
         <v>43581</v>
       </c>
-      <c r="AB1" s="33">
+      <c r="AB1" s="19">
         <v>43582</v>
       </c>
-      <c r="AC1" s="33">
+      <c r="AC1" s="19">
         <v>43583</v>
       </c>
-      <c r="AD1" s="33">
+      <c r="AD1" s="19">
         <v>43584</v>
       </c>
-      <c r="AE1" s="33">
+      <c r="AE1" s="19">
         <v>43585</v>
       </c>
-      <c r="AF1" s="33">
+      <c r="AF1" s="19">
         <v>43586</v>
       </c>
-      <c r="AG1" s="33">
+      <c r="AG1" s="19">
         <v>43587</v>
       </c>
-      <c r="AH1" s="33">
+      <c r="AH1" s="19">
         <v>43588</v>
       </c>
-      <c r="AI1" s="33">
+      <c r="AI1" s="19">
         <v>43589</v>
       </c>
-      <c r="AJ1" s="33">
+      <c r="AJ1" s="19">
         <v>43590</v>
       </c>
-      <c r="AK1" s="33">
+      <c r="AK1" s="19">
         <v>43591</v>
       </c>
-      <c r="AL1" s="33">
+      <c r="AL1" s="19">
         <v>43592</v>
       </c>
-      <c r="AM1" s="33">
+      <c r="AM1" s="19">
         <v>43593</v>
       </c>
-      <c r="AN1" s="33">
+      <c r="AN1" s="19">
         <v>43594</v>
       </c>
-      <c r="AO1" s="34">
+      <c r="AO1" s="20">
         <v>43595</v>
       </c>
     </row>
     <row r="2" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="17" t="s">
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="22"/>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22"/>
-      <c r="AO2" s="23"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="11"/>
+      <c r="AK2" s="11"/>
+      <c r="AL2" s="11"/>
+      <c r="AM2" s="11"/>
+      <c r="AN2" s="11"/>
+      <c r="AO2" s="12"/>
     </row>
     <row r="3" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1129,53 +1175,53 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="11" t="s">
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="3"/>
+      <c r="T3" s="28"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
-      <c r="AA3" s="3" t="s">
+      <c r="AA3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
+      <c r="AB3" s="28"/>
+      <c r="AC3" s="28"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
-      <c r="AF3" s="9"/>
-      <c r="AG3" s="9"/>
-      <c r="AH3" s="9"/>
-      <c r="AI3" s="9"/>
-      <c r="AJ3" s="9"/>
-      <c r="AK3" s="8" t="s">
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AL3" s="9"/>
-      <c r="AM3" s="9"/>
-      <c r="AN3" s="9"/>
-      <c r="AO3" s="25"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="14"/>
     </row>
     <row r="4" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1200,29 +1246,29 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
-      <c r="AA4" s="10" t="s">
+      <c r="AA4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
-      <c r="AF4" s="9"/>
-      <c r="AG4" s="9"/>
-      <c r="AH4" s="9"/>
-      <c r="AI4" s="9"/>
-      <c r="AJ4" s="9"/>
-      <c r="AK4" s="9"/>
-      <c r="AL4" s="9"/>
-      <c r="AM4" s="9"/>
-      <c r="AN4" s="9"/>
-      <c r="AO4" s="25"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="14"/>
     </row>
     <row r="5" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="24"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1243,35 +1289,35 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
-      <c r="W5" s="10" t="s">
+      <c r="W5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="X5" s="1"/>
-      <c r="Y5" s="13" t="s">
+      <c r="Y5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
+      <c r="Z5" s="31"/>
+      <c r="AA5" s="31"/>
+      <c r="AB5" s="31"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
-      <c r="AF5" s="9"/>
-      <c r="AG5" s="9"/>
-      <c r="AH5" s="9"/>
-      <c r="AI5" s="9"/>
-      <c r="AJ5" s="9"/>
-      <c r="AK5" s="9"/>
-      <c r="AL5" s="9"/>
-      <c r="AM5" s="9"/>
-      <c r="AN5" s="9"/>
-      <c r="AO5" s="25"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="14"/>
     </row>
     <row r="6" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="24"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1295,7 +1341,7 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
-      <c r="Z6" s="10" t="s">
+      <c r="Z6" s="5" t="s">
         <v>17</v>
       </c>
       <c r="AA6" s="1"/>
@@ -1303,22 +1349,22 @@
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="9"/>
-      <c r="AI6" s="9"/>
-      <c r="AJ6" s="9"/>
-      <c r="AK6" s="9"/>
-      <c r="AL6" s="9"/>
-      <c r="AM6" s="9"/>
-      <c r="AN6" s="9"/>
-      <c r="AO6" s="25"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="14"/>
     </row>
     <row r="7" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="24"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1343,29 +1389,29 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
-      <c r="AA7" s="10" t="s">
+      <c r="AA7" s="5" t="s">
         <v>18</v>
       </c>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
-      <c r="AF7" s="9"/>
-      <c r="AG7" s="9"/>
-      <c r="AH7" s="9"/>
-      <c r="AI7" s="9"/>
-      <c r="AJ7" s="9"/>
-      <c r="AK7" s="9"/>
-      <c r="AL7" s="9"/>
-      <c r="AM7" s="9"/>
-      <c r="AN7" s="9"/>
-      <c r="AO7" s="25"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="14"/>
     </row>
     <row r="8" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="24"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1389,30 +1435,30 @@
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
-      <c r="Z8" s="10" t="s">
+      <c r="Z8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AA8" s="12"/>
+      <c r="AA8" s="7"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
-      <c r="AF8" s="9"/>
-      <c r="AG8" s="9"/>
-      <c r="AH8" s="9"/>
-      <c r="AI8" s="9"/>
-      <c r="AJ8" s="9"/>
-      <c r="AK8" s="9"/>
-      <c r="AL8" s="9"/>
-      <c r="AM8" s="9"/>
-      <c r="AN8" s="9"/>
-      <c r="AO8" s="25"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="14"/>
     </row>
     <row r="9" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="24"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1433,35 +1479,35 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
-      <c r="W9" s="10" t="s">
+      <c r="W9" s="5" t="s">
         <v>14</v>
       </c>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
-      <c r="AA9" s="12"/>
+      <c r="AA9" s="7"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
-      <c r="AD9" s="13" t="s">
+      <c r="AD9" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="13"/>
-      <c r="AG9" s="13"/>
-      <c r="AH9" s="13"/>
-      <c r="AI9" s="13"/>
-      <c r="AJ9" s="13"/>
-      <c r="AK9" s="9"/>
-      <c r="AL9" s="9"/>
-      <c r="AM9" s="9"/>
-      <c r="AN9" s="9"/>
-      <c r="AO9" s="25"/>
+      <c r="AE9" s="31"/>
+      <c r="AF9" s="31"/>
+      <c r="AG9" s="31"/>
+      <c r="AH9" s="31"/>
+      <c r="AI9" s="31"/>
+      <c r="AJ9" s="31"/>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="14"/>
     </row>
     <row r="10" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="24"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1470,53 +1516,53 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="2" t="s">
         <v>33</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="7" t="s">
+      <c r="O10" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P10" s="1"/>
-      <c r="Q10" s="13" t="s">
+      <c r="Q10" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="31"/>
       <c r="V10" s="1"/>
-      <c r="W10" s="4" t="s">
+      <c r="W10" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="X10" s="6"/>
+      <c r="X10" s="27"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
-      <c r="AD10" s="13" t="s">
+      <c r="AD10" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="AE10" s="13"/>
-      <c r="AF10" s="13"/>
-      <c r="AG10" s="13"/>
-      <c r="AH10" s="13"/>
-      <c r="AI10" s="13"/>
-      <c r="AJ10" s="13"/>
-      <c r="AK10" s="13"/>
-      <c r="AL10" s="13"/>
-      <c r="AM10" s="9"/>
-      <c r="AN10" s="9"/>
-      <c r="AO10" s="25"/>
+      <c r="AE10" s="31"/>
+      <c r="AF10" s="31"/>
+      <c r="AG10" s="31"/>
+      <c r="AH10" s="31"/>
+      <c r="AI10" s="31"/>
+      <c r="AJ10" s="31"/>
+      <c r="AK10" s="31"/>
+      <c r="AL10" s="31"/>
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="4"/>
+      <c r="AO10" s="14"/>
     </row>
     <row r="11" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="24"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1546,312 +1592,311 @@
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
-      <c r="AF11" s="9"/>
-      <c r="AG11" s="9"/>
-      <c r="AH11" s="9"/>
-      <c r="AI11" s="9"/>
-      <c r="AJ11" s="9"/>
-      <c r="AK11" s="9"/>
-      <c r="AL11" s="9"/>
-      <c r="AM11" s="9"/>
-      <c r="AN11" s="9"/>
-      <c r="AO11" s="25"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="4"/>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="4"/>
+      <c r="AO11" s="14"/>
     </row>
     <row r="12" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="9"/>
-      <c r="AA12" s="9"/>
-      <c r="AB12" s="9"/>
-      <c r="AC12" s="9"/>
-      <c r="AD12" s="9"/>
-      <c r="AE12" s="9"/>
-      <c r="AF12" s="9"/>
-      <c r="AG12" s="9"/>
-      <c r="AH12" s="9"/>
-      <c r="AI12" s="9"/>
-      <c r="AJ12" s="9"/>
-      <c r="AK12" s="9"/>
-      <c r="AL12" s="9"/>
-      <c r="AM12" s="9"/>
-      <c r="AN12" s="9"/>
-      <c r="AO12" s="25"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="4"/>
+      <c r="AO12" s="14"/>
     </row>
     <row r="13" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="9"/>
-      <c r="AB13" s="9"/>
-      <c r="AC13" s="9"/>
-      <c r="AD13" s="9"/>
-      <c r="AE13" s="9"/>
-      <c r="AF13" s="9"/>
-      <c r="AG13" s="9"/>
-      <c r="AH13" s="9"/>
-      <c r="AI13" s="9"/>
-      <c r="AJ13" s="9"/>
-      <c r="AK13" s="9"/>
-      <c r="AL13" s="9"/>
-      <c r="AM13" s="9"/>
-      <c r="AN13" s="9"/>
-      <c r="AO13" s="25"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="4"/>
+      <c r="AO13" s="14"/>
     </row>
     <row r="14" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="9"/>
-      <c r="AE14" s="9"/>
-      <c r="AF14" s="9"/>
-      <c r="AG14" s="9"/>
-      <c r="AH14" s="9"/>
-      <c r="AI14" s="9"/>
-      <c r="AJ14" s="3" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="AK14" s="3"/>
-      <c r="AL14" s="3"/>
-      <c r="AM14" s="9"/>
-      <c r="AN14" s="9"/>
-      <c r="AO14" s="25"/>
+      <c r="AK14" s="28"/>
+      <c r="AL14" s="28"/>
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="4"/>
+      <c r="AO14" s="14"/>
     </row>
     <row r="15" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="4" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="4" t="s">
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="6"/>
-      <c r="AE15" s="9"/>
-      <c r="AF15" s="9"/>
-      <c r="AG15" s="9"/>
-      <c r="AH15" s="9"/>
-      <c r="AI15" s="9"/>
-      <c r="AJ15" s="14"/>
-      <c r="AK15" s="14"/>
-      <c r="AL15" s="14"/>
-      <c r="AM15" s="9"/>
-      <c r="AN15" s="9"/>
-      <c r="AO15" s="25"/>
+      <c r="AC15" s="26"/>
+      <c r="AD15" s="27"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="8"/>
+      <c r="AK15" s="8"/>
+      <c r="AL15" s="8"/>
+      <c r="AM15" s="4"/>
+      <c r="AN15" s="4"/>
+      <c r="AO15" s="14"/>
     </row>
     <row r="16" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="3" t="s">
+      <c r="C16" s="28"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
-      <c r="AD16" s="3" t="s">
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="28"/>
+      <c r="AD16" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="AE16" s="3"/>
-      <c r="AF16" s="9"/>
-      <c r="AG16" s="9"/>
-      <c r="AH16" s="9"/>
-      <c r="AI16" s="9"/>
-      <c r="AJ16" s="9"/>
-      <c r="AK16" s="9"/>
-      <c r="AL16" s="9"/>
-      <c r="AM16" s="9"/>
-      <c r="AN16" s="9"/>
-      <c r="AO16" s="25"/>
+      <c r="AE16" s="28"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="4"/>
+      <c r="AO16" s="14"/>
     </row>
     <row r="17" spans="1:41" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="29" t="s">
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="V17" s="29"/>
-      <c r="W17" s="29"/>
-      <c r="X17" s="29"/>
-      <c r="Y17" s="29"/>
-      <c r="Z17" s="30"/>
-      <c r="AA17" s="30"/>
-      <c r="AB17" s="30"/>
-      <c r="AC17" s="30"/>
-      <c r="AD17" s="30"/>
-      <c r="AE17" s="30"/>
-      <c r="AF17" s="30"/>
-      <c r="AG17" s="30"/>
-      <c r="AH17" s="30"/>
-      <c r="AI17" s="30"/>
-      <c r="AJ17" s="29" t="s">
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="16"/>
+      <c r="AD17" s="16"/>
+      <c r="AE17" s="16"/>
+      <c r="AF17" s="16"/>
+      <c r="AG17" s="16"/>
+      <c r="AH17" s="16"/>
+      <c r="AI17" s="16"/>
+      <c r="AJ17" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="AK17" s="29"/>
-      <c r="AL17" s="30"/>
-      <c r="AM17" s="30"/>
-      <c r="AN17" s="30"/>
-      <c r="AO17" s="31"/>
+      <c r="AK17" s="38"/>
+      <c r="AL17" s="39"/>
+      <c r="AM17" s="16"/>
+      <c r="AN17" s="16"/>
+      <c r="AO17" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B17:T17"/>
-    <mergeCell ref="U17:Y17"/>
-    <mergeCell ref="AJ17:AK17"/>
-    <mergeCell ref="W15:AA15"/>
-    <mergeCell ref="AB15:AD15"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="L2:U2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="AJ17:AL17"/>
     <mergeCell ref="AJ14:AL14"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="Z16:AC16"/>
@@ -1864,9 +1909,10 @@
     <mergeCell ref="AD10:AL10"/>
     <mergeCell ref="AD9:AJ9"/>
     <mergeCell ref="W10:X10"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="L2:U2"/>
-    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B17:T17"/>
+    <mergeCell ref="U17:Y17"/>
+    <mergeCell ref="W15:AA15"/>
+    <mergeCell ref="AB15:AD15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/项目进度表.xlsx
+++ b/项目进度表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
   <si>
     <t>顺丰项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,10 +54,6 @@
   </si>
   <si>
     <t>项目/日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B103第二轮测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -143,10 +139,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>P023 ADAS对比测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>安装平台项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -176,9 +168,6 @@
   </si>
   <si>
     <t>运营平台测试</t>
-  </si>
-  <si>
-    <t>运营平台测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -203,6 +192,87 @@
   </si>
   <si>
     <t>烟感效果对比测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P023/P200 ADAS对比测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B108第二轮测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B103第二轮测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优必飞项目实车简单测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P200/P023 USB DSM测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P023 AHD DSM测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P023工装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P200工装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1R1B107提测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2R1B109提测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1R1B101提测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1R1B110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B106SP03提测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B106SP03测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2R3B100SP02
+提测</t>
+  </si>
+  <si>
+    <t>V2R3B100SP02
+提测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营平台V1.0.0-ALPHA版本测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V4R1B001提测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1R1B111提测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1R2B004提测</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -235,7 +305,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,8 +336,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -327,275 +403,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -603,50 +421,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="2" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -659,40 +458,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -974,199 +746,282 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO17"/>
+  <dimension ref="A1:BH19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AG12" sqref="AG12"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AR3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AS20" sqref="AS20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="9" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:60" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="19">
+      <c r="B1" s="8">
         <v>43556</v>
       </c>
-      <c r="C1" s="19">
+      <c r="C1" s="8">
         <v>43557</v>
       </c>
-      <c r="D1" s="19">
+      <c r="D1" s="8">
         <v>43558</v>
       </c>
-      <c r="E1" s="19">
+      <c r="E1" s="8">
         <v>43559</v>
       </c>
-      <c r="F1" s="19">
+      <c r="F1" s="8">
         <v>43560</v>
       </c>
-      <c r="G1" s="19">
+      <c r="G1" s="8">
         <v>43561</v>
       </c>
-      <c r="H1" s="19">
+      <c r="H1" s="8">
         <v>43562</v>
       </c>
-      <c r="I1" s="19">
+      <c r="I1" s="8">
         <v>43563</v>
       </c>
-      <c r="J1" s="19">
+      <c r="J1" s="8">
         <v>43564</v>
       </c>
-      <c r="K1" s="19">
+      <c r="K1" s="8">
         <v>43565</v>
       </c>
-      <c r="L1" s="19">
+      <c r="L1" s="8">
         <v>43566</v>
       </c>
-      <c r="M1" s="19">
+      <c r="M1" s="8">
         <v>43567</v>
       </c>
-      <c r="N1" s="19">
+      <c r="N1" s="8">
         <v>43568</v>
       </c>
-      <c r="O1" s="19">
+      <c r="O1" s="8">
         <v>43569</v>
       </c>
-      <c r="P1" s="19">
+      <c r="P1" s="8">
         <v>43570</v>
       </c>
-      <c r="Q1" s="19">
+      <c r="Q1" s="8">
         <v>43571</v>
       </c>
-      <c r="R1" s="19">
+      <c r="R1" s="8">
         <v>43572</v>
       </c>
-      <c r="S1" s="19">
+      <c r="S1" s="8">
         <v>43573</v>
       </c>
-      <c r="T1" s="19">
+      <c r="T1" s="8">
         <v>43574</v>
       </c>
-      <c r="U1" s="19">
+      <c r="U1" s="8">
         <v>43575</v>
       </c>
-      <c r="V1" s="19">
+      <c r="V1" s="8">
         <v>43576</v>
       </c>
-      <c r="W1" s="19">
+      <c r="W1" s="8">
         <v>43577</v>
       </c>
-      <c r="X1" s="19">
+      <c r="X1" s="8">
         <v>43578</v>
       </c>
-      <c r="Y1" s="19">
+      <c r="Y1" s="8">
         <v>43579</v>
       </c>
-      <c r="Z1" s="19">
+      <c r="Z1" s="8">
         <v>43580</v>
       </c>
-      <c r="AA1" s="19">
+      <c r="AA1" s="8">
         <v>43581</v>
       </c>
-      <c r="AB1" s="19">
+      <c r="AB1" s="8">
         <v>43582</v>
       </c>
-      <c r="AC1" s="19">
+      <c r="AC1" s="8">
         <v>43583</v>
       </c>
-      <c r="AD1" s="19">
+      <c r="AD1" s="8">
         <v>43584</v>
       </c>
-      <c r="AE1" s="19">
+      <c r="AE1" s="8">
         <v>43585</v>
       </c>
-      <c r="AF1" s="19">
+      <c r="AF1" s="8">
         <v>43586</v>
       </c>
-      <c r="AG1" s="19">
+      <c r="AG1" s="8">
         <v>43587</v>
       </c>
-      <c r="AH1" s="19">
+      <c r="AH1" s="8">
         <v>43588</v>
       </c>
-      <c r="AI1" s="19">
+      <c r="AI1" s="8">
         <v>43589</v>
       </c>
-      <c r="AJ1" s="19">
+      <c r="AJ1" s="8">
         <v>43590</v>
       </c>
-      <c r="AK1" s="19">
+      <c r="AK1" s="8">
         <v>43591</v>
       </c>
-      <c r="AL1" s="19">
+      <c r="AL1" s="8">
         <v>43592</v>
       </c>
-      <c r="AM1" s="19">
+      <c r="AM1" s="8">
         <v>43593</v>
       </c>
-      <c r="AN1" s="19">
+      <c r="AN1" s="8">
         <v>43594</v>
       </c>
-      <c r="AO1" s="20">
+      <c r="AO1" s="8">
         <v>43595</v>
       </c>
+      <c r="AP1" s="8">
+        <v>43596</v>
+      </c>
+      <c r="AQ1" s="8">
+        <v>43597</v>
+      </c>
+      <c r="AR1" s="8">
+        <v>43598</v>
+      </c>
+      <c r="AS1" s="8">
+        <v>43599</v>
+      </c>
+      <c r="AT1" s="8">
+        <v>43600</v>
+      </c>
+      <c r="AU1" s="8">
+        <v>43601</v>
+      </c>
+      <c r="AV1" s="8">
+        <v>43602</v>
+      </c>
+      <c r="AW1" s="8">
+        <v>43603</v>
+      </c>
+      <c r="AX1" s="8">
+        <v>43604</v>
+      </c>
+      <c r="AY1" s="8">
+        <v>43605</v>
+      </c>
+      <c r="AZ1" s="8">
+        <v>43606</v>
+      </c>
+      <c r="BA1" s="8">
+        <v>43607</v>
+      </c>
+      <c r="BB1" s="8">
+        <v>43608</v>
+      </c>
+      <c r="BC1" s="8">
+        <v>43609</v>
+      </c>
+      <c r="BD1" s="8">
+        <v>43610</v>
+      </c>
+      <c r="BE1" s="8">
+        <v>43611</v>
+      </c>
+      <c r="BF1" s="8">
+        <v>43612</v>
+      </c>
+      <c r="BG1" s="8">
+        <v>43613</v>
+      </c>
+      <c r="BH1" s="8">
+        <v>43614</v>
+      </c>
     </row>
-    <row r="2" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:60" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="11"/>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="11"/>
-      <c r="AL2" s="11"/>
-      <c r="AM2" s="11"/>
-      <c r="AN2" s="11"/>
-      <c r="AO2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AT2" s="15"/>
+      <c r="AU2" s="16"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
+      <c r="AX2" s="1"/>
+      <c r="AY2" s="1"/>
+      <c r="AZ2" s="1"/>
+      <c r="BA2" s="1"/>
+      <c r="BB2" s="1"/>
+      <c r="BC2" s="1"/>
+      <c r="BD2" s="1"/>
+      <c r="BE2" s="1"/>
+      <c r="BF2" s="1"/>
+      <c r="BG2" s="1"/>
+      <c r="BH2" s="1"/>
     </row>
-    <row r="3" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:60" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13"/>
+      <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1175,53 +1030,72 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="30" t="s">
+      <c r="K3" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="6" t="s">
+      <c r="S3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="T3" s="28"/>
+      <c r="T3" s="13"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
-      <c r="AA3" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB3" s="28"/>
-      <c r="AC3" s="28"/>
+      <c r="AA3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="4"/>
-      <c r="AH3" s="4"/>
-      <c r="AI3" s="4"/>
-      <c r="AJ3" s="4"/>
-      <c r="AK3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL3" s="4"/>
-      <c r="AM3" s="4"/>
-      <c r="AN3" s="4"/>
-      <c r="AO3" s="14"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="1"/>
+      <c r="BB3" s="1"/>
+      <c r="BC3" s="1"/>
+      <c r="BD3" s="1"/>
+      <c r="BE3" s="1"/>
+      <c r="BF3" s="1"/>
+      <c r="BG3" s="1"/>
+      <c r="BH3" s="1"/>
     </row>
-    <row r="4" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+    <row r="4" spans="1:60" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="13"/>
+      <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1246,29 +1120,50 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
-      <c r="AA4" s="5" t="s">
-        <v>14</v>
+      <c r="AA4" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4"/>
-      <c r="AK4" s="4"/>
-      <c r="AL4" s="4"/>
-      <c r="AM4" s="4"/>
-      <c r="AN4" s="4"/>
-      <c r="AO4" s="14"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
+      <c r="AX4" s="1"/>
+      <c r="AY4" s="1"/>
+      <c r="AZ4" s="1"/>
+      <c r="BA4" s="1"/>
+      <c r="BB4" s="1"/>
+      <c r="BC4" s="1"/>
+      <c r="BD4" s="1"/>
+      <c r="BE4" s="1"/>
+      <c r="BF4" s="1"/>
+      <c r="BG4" s="1"/>
+      <c r="BH4" s="1"/>
     </row>
-    <row r="5" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:60" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="13"/>
+      <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1289,35 +1184,56 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
-      <c r="W5" s="5" t="s">
-        <v>16</v>
+      <c r="W5" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="X5" s="1"/>
-      <c r="Y5" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z5" s="31"/>
-      <c r="AA5" s="31"/>
-      <c r="AB5" s="31"/>
+      <c r="Y5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="4"/>
-      <c r="AH5" s="4"/>
-      <c r="AI5" s="4"/>
-      <c r="AJ5" s="4"/>
-      <c r="AK5" s="4"/>
-      <c r="AL5" s="4"/>
-      <c r="AM5" s="4"/>
-      <c r="AN5" s="4"/>
-      <c r="AO5" s="14"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP5" s="13"/>
+      <c r="AQ5" s="13"/>
+      <c r="AR5" s="1"/>
+      <c r="AS5" s="1"/>
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="1"/>
+      <c r="AV5" s="1"/>
+      <c r="AW5" s="1"/>
+      <c r="AX5" s="1"/>
+      <c r="AY5" s="1"/>
+      <c r="AZ5" s="1"/>
+      <c r="BA5" s="1"/>
+      <c r="BB5" s="1"/>
+      <c r="BC5" s="1"/>
+      <c r="BD5" s="1"/>
+      <c r="BE5" s="1"/>
+      <c r="BF5" s="1"/>
+      <c r="BG5" s="1"/>
+      <c r="BH5" s="1"/>
     </row>
-    <row r="6" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+    <row r="6" spans="1:60" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="13"/>
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1341,30 +1257,51 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
-      <c r="Z6" s="5" t="s">
-        <v>17</v>
+      <c r="Z6" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
-      <c r="AF6" s="4"/>
-      <c r="AG6" s="4"/>
-      <c r="AH6" s="4"/>
-      <c r="AI6" s="4"/>
-      <c r="AJ6" s="4"/>
-      <c r="AK6" s="4"/>
-      <c r="AL6" s="4"/>
-      <c r="AM6" s="4"/>
-      <c r="AN6" s="4"/>
-      <c r="AO6" s="14"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="1"/>
+      <c r="AS6" s="1"/>
+      <c r="AT6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU6" s="1"/>
+      <c r="AV6" s="1"/>
+      <c r="AW6" s="1"/>
+      <c r="AX6" s="1"/>
+      <c r="AY6" s="1"/>
+      <c r="AZ6" s="1"/>
+      <c r="BA6" s="1"/>
+      <c r="BB6" s="1"/>
+      <c r="BC6" s="1"/>
+      <c r="BD6" s="1"/>
+      <c r="BE6" s="1"/>
+      <c r="BF6" s="1"/>
+      <c r="BG6" s="1"/>
+      <c r="BH6" s="1"/>
     </row>
-    <row r="7" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
+    <row r="7" spans="1:60" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1389,29 +1326,50 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
-      <c r="AA7" s="5" t="s">
-        <v>18</v>
+      <c r="AA7" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="4"/>
-      <c r="AJ7" s="4"/>
-      <c r="AK7" s="4"/>
-      <c r="AL7" s="4"/>
-      <c r="AM7" s="4"/>
-      <c r="AN7" s="4"/>
-      <c r="AO7" s="14"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="1"/>
+      <c r="AS7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT7" s="1"/>
+      <c r="AU7" s="1"/>
+      <c r="AV7" s="1"/>
+      <c r="AW7" s="1"/>
+      <c r="AX7" s="1"/>
+      <c r="AY7" s="1"/>
+      <c r="AZ7" s="1"/>
+      <c r="BA7" s="1"/>
+      <c r="BB7" s="1"/>
+      <c r="BC7" s="1"/>
+      <c r="BD7" s="1"/>
+      <c r="BE7" s="1"/>
+      <c r="BF7" s="1"/>
+      <c r="BG7" s="1"/>
+      <c r="BH7" s="1"/>
     </row>
-    <row r="8" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="13"/>
+    <row r="8" spans="1:60" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1435,30 +1393,49 @@
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
-      <c r="Z8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA8" s="7"/>
+      <c r="Z8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA8" s="3"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="4"/>
-      <c r="AJ8" s="4"/>
-      <c r="AK8" s="4"/>
-      <c r="AL8" s="4"/>
-      <c r="AM8" s="4"/>
-      <c r="AN8" s="4"/>
-      <c r="AO8" s="14"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="1"/>
+      <c r="AO8" s="1"/>
+      <c r="AP8" s="1"/>
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="1"/>
+      <c r="AS8" s="4"/>
+      <c r="AT8" s="1"/>
+      <c r="AU8" s="1"/>
+      <c r="AV8" s="1"/>
+      <c r="AW8" s="1"/>
+      <c r="AX8" s="1"/>
+      <c r="AY8" s="1"/>
+      <c r="AZ8" s="1"/>
+      <c r="BA8" s="1"/>
+      <c r="BB8" s="1"/>
+      <c r="BC8" s="1"/>
+      <c r="BD8" s="1"/>
+      <c r="BE8" s="1"/>
+      <c r="BF8" s="1"/>
+      <c r="BG8" s="1"/>
+      <c r="BH8" s="1"/>
     </row>
-    <row r="9" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="13"/>
+    <row r="9" spans="1:60" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1479,35 +1456,58 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
-      <c r="W9" s="5" t="s">
-        <v>14</v>
+      <c r="W9" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
-      <c r="AA9" s="7"/>
+      <c r="AA9" s="3"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
-      <c r="AD9" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE9" s="31"/>
-      <c r="AF9" s="31"/>
-      <c r="AG9" s="31"/>
-      <c r="AH9" s="31"/>
-      <c r="AI9" s="31"/>
-      <c r="AJ9" s="31"/>
-      <c r="AK9" s="4"/>
-      <c r="AL9" s="4"/>
-      <c r="AM9" s="4"/>
-      <c r="AN9" s="4"/>
-      <c r="AO9" s="14"/>
+      <c r="AD9" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="18"/>
+      <c r="AG9" s="18"/>
+      <c r="AH9" s="18"/>
+      <c r="AI9" s="18"/>
+      <c r="AJ9" s="18"/>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="1"/>
+      <c r="AO9" s="1"/>
+      <c r="AP9" s="1"/>
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS9" s="1"/>
+      <c r="AT9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU9" s="16"/>
+      <c r="AV9" s="1"/>
+      <c r="AW9" s="1"/>
+      <c r="AX9" s="1"/>
+      <c r="AY9" s="1"/>
+      <c r="AZ9" s="1"/>
+      <c r="BA9" s="1"/>
+      <c r="BB9" s="1"/>
+      <c r="BC9" s="1"/>
+      <c r="BD9" s="1"/>
+      <c r="BE9" s="1"/>
+      <c r="BF9" s="1"/>
+      <c r="BG9" s="1"/>
+      <c r="BH9" s="1"/>
     </row>
-    <row r="10" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+    <row r="10" spans="1:60" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1516,53 +1516,74 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="2" t="s">
-        <v>33</v>
+      <c r="K10" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="2" t="s">
-        <v>33</v>
+      <c r="O10" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="P10" s="1"/>
-      <c r="Q10" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="31"/>
+      <c r="Q10" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
       <c r="V10" s="1"/>
-      <c r="W10" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="X10" s="27"/>
+      <c r="W10" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="X10" s="13"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
-      <c r="AD10" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE10" s="31"/>
-      <c r="AF10" s="31"/>
-      <c r="AG10" s="31"/>
-      <c r="AH10" s="31"/>
-      <c r="AI10" s="31"/>
-      <c r="AJ10" s="31"/>
-      <c r="AK10" s="31"/>
-      <c r="AL10" s="31"/>
-      <c r="AM10" s="4"/>
-      <c r="AN10" s="4"/>
-      <c r="AO10" s="14"/>
+      <c r="AD10" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE10" s="18"/>
+      <c r="AF10" s="18"/>
+      <c r="AG10" s="18"/>
+      <c r="AH10" s="18"/>
+      <c r="AI10" s="18"/>
+      <c r="AJ10" s="18"/>
+      <c r="AK10" s="18"/>
+      <c r="AL10" s="18"/>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="1"/>
+      <c r="AO10" s="1"/>
+      <c r="AP10" s="1"/>
+      <c r="AQ10" s="1"/>
+      <c r="AR10" s="1"/>
+      <c r="AS10" s="1"/>
+      <c r="AT10" s="1"/>
+      <c r="AU10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV10" s="1"/>
+      <c r="AW10" s="1"/>
+      <c r="AX10" s="1"/>
+      <c r="AY10" s="1"/>
+      <c r="AZ10" s="1"/>
+      <c r="BA10" s="1"/>
+      <c r="BB10" s="1"/>
+      <c r="BC10" s="1"/>
+      <c r="BD10" s="1"/>
+      <c r="BE10" s="1"/>
+      <c r="BF10" s="1"/>
+      <c r="BG10" s="1"/>
+      <c r="BH10" s="1"/>
     </row>
-    <row r="11" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
+    <row r="11" spans="1:60" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1592,327 +1613,607 @@
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
-      <c r="AF11" s="4"/>
-      <c r="AG11" s="4"/>
-      <c r="AH11" s="4"/>
-      <c r="AI11" s="4"/>
-      <c r="AJ11" s="4"/>
-      <c r="AK11" s="4"/>
-      <c r="AL11" s="4"/>
-      <c r="AM11" s="4"/>
-      <c r="AN11" s="4"/>
-      <c r="AO11" s="14"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM11" s="19"/>
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="1"/>
+      <c r="AP11" s="1"/>
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="1"/>
+      <c r="AS11" s="1"/>
+      <c r="AT11" s="1"/>
+      <c r="AU11" s="1"/>
+      <c r="AV11" s="1"/>
+      <c r="AW11" s="1"/>
+      <c r="AX11" s="1"/>
+      <c r="AY11" s="1"/>
+      <c r="AZ11" s="1"/>
+      <c r="BA11" s="1"/>
+      <c r="BB11" s="1"/>
+      <c r="BC11" s="1"/>
+      <c r="BD11" s="1"/>
+      <c r="BE11" s="1"/>
+      <c r="BF11" s="1"/>
+      <c r="BG11" s="1"/>
+      <c r="BH11" s="1"/>
     </row>
-    <row r="12" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
+    <row r="12" spans="1:60" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="1"/>
+      <c r="AO12" s="1"/>
+      <c r="AP12" s="1"/>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="1"/>
+      <c r="AS12" s="1"/>
+      <c r="AT12" s="1"/>
+      <c r="AU12" s="1"/>
+      <c r="AV12" s="1"/>
+      <c r="AW12" s="1"/>
+      <c r="AX12" s="1"/>
+      <c r="AY12" s="1"/>
+      <c r="AZ12" s="1"/>
+      <c r="BA12" s="1"/>
+      <c r="BB12" s="1"/>
+      <c r="BC12" s="1"/>
+      <c r="BD12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE12" s="1"/>
+      <c r="BF12" s="1"/>
+      <c r="BG12" s="1"/>
+      <c r="BH12" s="1"/>
+    </row>
+    <row r="13" spans="1:60" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="4"/>
-      <c r="AH12" s="4"/>
-      <c r="AI12" s="4"/>
-      <c r="AJ12" s="4"/>
-      <c r="AK12" s="4"/>
-      <c r="AL12" s="4"/>
-      <c r="AM12" s="4"/>
-      <c r="AN12" s="4"/>
-      <c r="AO12" s="14"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="1"/>
+      <c r="AP13" s="1"/>
+      <c r="AQ13" s="1"/>
+      <c r="AR13" s="1"/>
+      <c r="AS13" s="1"/>
+      <c r="AT13" s="1"/>
+      <c r="AU13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV13" s="1"/>
+      <c r="AW13" s="1"/>
+      <c r="AX13" s="1"/>
+      <c r="AY13" s="1"/>
+      <c r="AZ13" s="1"/>
+      <c r="BA13" s="1"/>
+      <c r="BB13" s="1"/>
+      <c r="BC13" s="1"/>
+      <c r="BD13" s="1"/>
+      <c r="BE13" s="1"/>
+      <c r="BF13" s="1"/>
+      <c r="BG13" s="1"/>
+      <c r="BH13" s="1"/>
     </row>
-    <row r="13" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
+    <row r="14" spans="1:60" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK14" s="13"/>
+      <c r="AL14" s="13"/>
+      <c r="AM14" s="13"/>
+      <c r="AN14" s="13"/>
+      <c r="AO14" s="13"/>
+      <c r="AP14" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ14" s="17"/>
+      <c r="AR14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AS14" s="1"/>
+      <c r="AT14" s="1"/>
+      <c r="AU14" s="1"/>
+      <c r="AV14" s="1"/>
+      <c r="AW14" s="1"/>
+      <c r="AX14" s="1"/>
+      <c r="AY14" s="1"/>
+      <c r="AZ14" s="1"/>
+      <c r="BA14" s="1"/>
+      <c r="BB14" s="1"/>
+      <c r="BC14" s="1"/>
+      <c r="BD14" s="1"/>
+      <c r="BE14" s="1"/>
+      <c r="BF14" s="1"/>
+      <c r="BG14" s="1"/>
+      <c r="BH14" s="1"/>
+    </row>
+    <row r="15" spans="1:60" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="4"/>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="1"/>
+      <c r="AO15" s="1"/>
+      <c r="AP15" s="1"/>
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="1"/>
+      <c r="AS15" s="1"/>
+      <c r="AT15" s="1"/>
+      <c r="AU15" s="1"/>
+      <c r="AV15" s="1"/>
+      <c r="AW15" s="1"/>
+      <c r="AX15" s="1"/>
+      <c r="AY15" s="1"/>
+      <c r="AZ15" s="1"/>
+      <c r="BA15" s="1"/>
+      <c r="BB15" s="1"/>
+      <c r="BC15" s="1"/>
+      <c r="BD15" s="1"/>
+      <c r="BE15" s="1"/>
+      <c r="BF15" s="1"/>
+      <c r="BG15" s="1"/>
+      <c r="BH15" s="1"/>
+    </row>
+    <row r="16" spans="1:60" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
-      <c r="AG13" s="4"/>
-      <c r="AH13" s="4"/>
-      <c r="AI13" s="4"/>
-      <c r="AJ13" s="4"/>
-      <c r="AK13" s="4"/>
-      <c r="AL13" s="4"/>
-      <c r="AM13" s="4"/>
-      <c r="AN13" s="4"/>
-      <c r="AO13" s="14"/>
+      <c r="B16" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="1"/>
+      <c r="AO16" s="1"/>
+      <c r="AP16" s="1"/>
+      <c r="AQ16" s="1"/>
+      <c r="AR16" s="1"/>
+      <c r="AS16" s="1"/>
+      <c r="AT16" s="1"/>
+      <c r="AU16" s="1"/>
+      <c r="AV16" s="1"/>
+      <c r="AW16" s="1"/>
+      <c r="AX16" s="1"/>
+      <c r="AY16" s="1"/>
+      <c r="AZ16" s="1"/>
+      <c r="BA16" s="1"/>
+      <c r="BB16" s="1"/>
+      <c r="BC16" s="1"/>
+      <c r="BD16" s="1"/>
+      <c r="BE16" s="1"/>
+      <c r="BF16" s="1"/>
+      <c r="BG16" s="1"/>
+      <c r="BH16" s="1"/>
     </row>
-    <row r="14" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="4"/>
-      <c r="AG14" s="4"/>
-      <c r="AH14" s="4"/>
-      <c r="AI14" s="4"/>
-      <c r="AJ14" s="28" t="s">
+    <row r="17" spans="1:60" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="AK14" s="28"/>
-      <c r="AL14" s="28"/>
-      <c r="AM14" s="4"/>
-      <c r="AN14" s="4"/>
-      <c r="AO14" s="14"/>
+      <c r="B17" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK17" s="13"/>
+      <c r="AL17" s="13"/>
+      <c r="AM17" s="13"/>
+      <c r="AN17" s="13"/>
+      <c r="AO17" s="13"/>
+      <c r="AP17" s="1"/>
+      <c r="AQ17" s="1"/>
+      <c r="AR17" s="1"/>
+      <c r="AS17" s="1"/>
+      <c r="AT17" s="1"/>
+      <c r="AU17" s="1"/>
+      <c r="AV17" s="1"/>
+      <c r="AW17" s="1"/>
+      <c r="AX17" s="1"/>
+      <c r="AY17" s="1"/>
+      <c r="AZ17" s="1"/>
+      <c r="BA17" s="1"/>
+      <c r="BB17" s="1"/>
+      <c r="BC17" s="1"/>
+      <c r="BD17" s="1"/>
+      <c r="BE17" s="1"/>
+      <c r="BF17" s="1"/>
+      <c r="BG17" s="1"/>
+      <c r="BH17" s="1"/>
     </row>
-    <row r="15" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="X15" s="26"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="26"/>
-      <c r="AA15" s="27"/>
-      <c r="AB15" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC15" s="26"/>
-      <c r="AD15" s="27"/>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="4"/>
-      <c r="AG15" s="4"/>
-      <c r="AH15" s="4"/>
-      <c r="AI15" s="4"/>
-      <c r="AJ15" s="8"/>
-      <c r="AK15" s="8"/>
-      <c r="AL15" s="8"/>
-      <c r="AM15" s="4"/>
-      <c r="AN15" s="4"/>
-      <c r="AO15" s="14"/>
+    <row r="18" spans="1:60" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="1"/>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="1"/>
+      <c r="AO18" s="1"/>
+      <c r="AP18" s="1"/>
+      <c r="AQ18" s="1"/>
+      <c r="AR18" s="1"/>
+      <c r="AS18" s="1"/>
+      <c r="AT18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU18" s="1"/>
+      <c r="AV18" s="1"/>
+      <c r="AW18" s="1"/>
+      <c r="AX18" s="1"/>
+      <c r="AY18" s="1"/>
+      <c r="AZ18" s="1"/>
+      <c r="BA18" s="1"/>
+      <c r="BB18" s="1"/>
+      <c r="BC18" s="1"/>
+      <c r="BD18" s="1"/>
+      <c r="BE18" s="1"/>
+      <c r="BF18" s="1"/>
+      <c r="BG18" s="1"/>
+      <c r="BH18" s="1"/>
     </row>
-    <row r="16" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA16" s="28"/>
-      <c r="AB16" s="28"/>
-      <c r="AC16" s="28"/>
-      <c r="AD16" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE16" s="28"/>
-      <c r="AF16" s="4"/>
-      <c r="AG16" s="4"/>
-      <c r="AH16" s="4"/>
-      <c r="AI16" s="4"/>
-      <c r="AJ16" s="4"/>
-      <c r="AK16" s="4"/>
-      <c r="AL16" s="4"/>
-      <c r="AM16" s="4"/>
-      <c r="AN16" s="4"/>
-      <c r="AO16" s="14"/>
-    </row>
-    <row r="17" spans="1:41" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="24"/>
-      <c r="Z17" s="16"/>
-      <c r="AA17" s="16"/>
-      <c r="AB17" s="16"/>
-      <c r="AC17" s="16"/>
-      <c r="AD17" s="16"/>
-      <c r="AE17" s="16"/>
-      <c r="AF17" s="16"/>
-      <c r="AG17" s="16"/>
-      <c r="AH17" s="16"/>
-      <c r="AI17" s="16"/>
-      <c r="AJ17" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK17" s="38"/>
-      <c r="AL17" s="39"/>
-      <c r="AM17" s="16"/>
-      <c r="AN17" s="16"/>
-      <c r="AO17" s="17"/>
+    <row r="19" spans="1:60" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1"/>
+      <c r="AM19" s="1"/>
+      <c r="AN19" s="1"/>
+      <c r="AO19" s="1"/>
+      <c r="AP19" s="1"/>
+      <c r="AQ19" s="1"/>
+      <c r="AR19" s="1"/>
+      <c r="AS19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT19" s="1"/>
+      <c r="AU19" s="1"/>
+      <c r="AV19" s="1"/>
+      <c r="AW19" s="1"/>
+      <c r="AX19" s="1"/>
+      <c r="AY19" s="1"/>
+      <c r="AZ19" s="1"/>
+      <c r="BA19" s="1"/>
+      <c r="BB19" s="1"/>
+      <c r="BC19" s="1"/>
+      <c r="BD19" s="1"/>
+      <c r="BE19" s="1"/>
+      <c r="BF19" s="1"/>
+      <c r="BG19" s="1"/>
+      <c r="BH19" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="25">
+    <mergeCell ref="B17:T17"/>
+    <mergeCell ref="U17:Y17"/>
+    <mergeCell ref="W15:AA15"/>
+    <mergeCell ref="AB15:AD15"/>
+    <mergeCell ref="AJ17:AO17"/>
+    <mergeCell ref="AD16:AE16"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="Z16:AC16"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="AO5:AQ5"/>
+    <mergeCell ref="AP14:AQ14"/>
+    <mergeCell ref="AJ14:AO14"/>
+    <mergeCell ref="AL11:AM11"/>
+    <mergeCell ref="AD10:AL10"/>
+    <mergeCell ref="AD9:AJ9"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="L2:U2"/>
     <mergeCell ref="F2:I2"/>
-    <mergeCell ref="AJ17:AL17"/>
-    <mergeCell ref="AJ14:AL14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="Z16:AC16"/>
-    <mergeCell ref="AD16:AE16"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="AT9:AU9"/>
     <mergeCell ref="K3:Q3"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="Y5:AB5"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="AD10:AL10"/>
-    <mergeCell ref="AD9:AJ9"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="B17:T17"/>
-    <mergeCell ref="U17:Y17"/>
-    <mergeCell ref="W15:AA15"/>
-    <mergeCell ref="AB15:AD15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/项目进度表.xlsx
+++ b/项目进度表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="107">
   <si>
     <t>顺丰项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,10 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>双AHD项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>P200外设项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -65,10 +61,6 @@
   </si>
   <si>
     <t>B103第五轮测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本发布</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -114,10 +106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>有为项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>B008
 提测日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -231,36 +219,41 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>V2R1B109提测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1R1B101提测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1R1B110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B106SP03提测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B106SP03测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>V2R3B100SP02
 提测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营平台V1.0.0-ALPHA版本测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1R2B004提测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>V2R3B100SP02
-提测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运营平台V1.0.0-ALPHA版本测试</t>
+测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B108版本发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B103版本发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P200 ADAS（0237）方案测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营平台V1.0.1-ALPHA版本测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -268,11 +261,201 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>V1R1B111提测</t>
+    <t>V1R1B101测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B106SP03第一轮测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1R1B107第一轮测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华宝双AHD项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有为USB项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延期一天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>V1R2B004提测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1R2B004测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B106SP03第二轮测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSM、ADAS摄像头测试用例、关注点整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2R1B109第一轮测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2R1B109第一轮提测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2R1B109第二轮提测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1R1B101第二轮提测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心板配置项项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分体机配置项项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2R1B200第一轮提测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1R1B200第一轮提测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2R3B100SP02
+版本发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1R1B101第二轮测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1R1B111第一轮测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1R1B111第一轮提测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1R1B111第二轮提测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.1.0-alpha
+TTS功能测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1R1B101第一轮提测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1R1B107提测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B106SP03第一轮提测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B106SP03第二轮提测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2R1B109第二轮测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1R1B111第二轮测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景补录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试报告整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯云测试环境部署</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1R1B101版本发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1R1B111版本发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1R1B110推迟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2R1B109第三轮测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2R1B109第三轮提测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试APP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.5.0版本提测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.5.0版本测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web功能Bug回归</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1R1B101第一轮测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1R1B101SP01第一轮提测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2R1B109版本发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B106SP03版本发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B107SP01版本发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1R1B110第一轮提测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1R1B110第一轮测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -332,13 +515,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,7 +590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -420,12 +603,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -445,8 +622,26 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -456,15 +651,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -746,233 +932,271 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BH19"/>
+  <dimension ref="A1:BT22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AR3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AW2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AS20" sqref="AS20"/>
+      <selection pane="bottomRight" activeCell="BN4" sqref="BN4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="31" width="9" style="9" hidden="1" customWidth="1"/>
+    <col min="32" max="43" width="9" style="9" customWidth="1"/>
+    <col min="44" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="8">
+    <row r="1" spans="1:72" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="6">
         <v>43556</v>
       </c>
-      <c r="C1" s="8">
+      <c r="C1" s="6">
         <v>43557</v>
       </c>
-      <c r="D1" s="8">
+      <c r="D1" s="6">
         <v>43558</v>
       </c>
-      <c r="E1" s="8">
+      <c r="E1" s="6">
         <v>43559</v>
       </c>
-      <c r="F1" s="8">
+      <c r="F1" s="6">
         <v>43560</v>
       </c>
-      <c r="G1" s="8">
+      <c r="G1" s="6">
         <v>43561</v>
       </c>
-      <c r="H1" s="8">
+      <c r="H1" s="6">
         <v>43562</v>
       </c>
-      <c r="I1" s="8">
+      <c r="I1" s="6">
         <v>43563</v>
       </c>
-      <c r="J1" s="8">
+      <c r="J1" s="6">
         <v>43564</v>
       </c>
-      <c r="K1" s="8">
+      <c r="K1" s="6">
         <v>43565</v>
       </c>
-      <c r="L1" s="8">
+      <c r="L1" s="6">
         <v>43566</v>
       </c>
-      <c r="M1" s="8">
+      <c r="M1" s="6">
         <v>43567</v>
       </c>
-      <c r="N1" s="8">
+      <c r="N1" s="6">
         <v>43568</v>
       </c>
-      <c r="O1" s="8">
+      <c r="O1" s="6">
         <v>43569</v>
       </c>
-      <c r="P1" s="8">
+      <c r="P1" s="6">
         <v>43570</v>
       </c>
-      <c r="Q1" s="8">
+      <c r="Q1" s="6">
         <v>43571</v>
       </c>
-      <c r="R1" s="8">
+      <c r="R1" s="6">
         <v>43572</v>
       </c>
-      <c r="S1" s="8">
+      <c r="S1" s="6">
         <v>43573</v>
       </c>
-      <c r="T1" s="8">
+      <c r="T1" s="6">
         <v>43574</v>
       </c>
-      <c r="U1" s="8">
+      <c r="U1" s="6">
         <v>43575</v>
       </c>
-      <c r="V1" s="8">
+      <c r="V1" s="6">
         <v>43576</v>
       </c>
-      <c r="W1" s="8">
+      <c r="W1" s="6">
         <v>43577</v>
       </c>
-      <c r="X1" s="8">
+      <c r="X1" s="6">
         <v>43578</v>
       </c>
-      <c r="Y1" s="8">
+      <c r="Y1" s="6">
         <v>43579</v>
       </c>
-      <c r="Z1" s="8">
+      <c r="Z1" s="6">
         <v>43580</v>
       </c>
-      <c r="AA1" s="8">
+      <c r="AA1" s="6">
         <v>43581</v>
       </c>
-      <c r="AB1" s="8">
+      <c r="AB1" s="6">
         <v>43582</v>
       </c>
-      <c r="AC1" s="8">
+      <c r="AC1" s="6">
         <v>43583</v>
       </c>
-      <c r="AD1" s="8">
+      <c r="AD1" s="6">
         <v>43584</v>
       </c>
-      <c r="AE1" s="8">
+      <c r="AE1" s="6">
         <v>43585</v>
       </c>
-      <c r="AF1" s="8">
+      <c r="AF1" s="6">
         <v>43586</v>
       </c>
-      <c r="AG1" s="8">
+      <c r="AG1" s="6">
         <v>43587</v>
       </c>
-      <c r="AH1" s="8">
+      <c r="AH1" s="6">
         <v>43588</v>
       </c>
-      <c r="AI1" s="8">
+      <c r="AI1" s="6">
         <v>43589</v>
       </c>
-      <c r="AJ1" s="8">
+      <c r="AJ1" s="6">
         <v>43590</v>
       </c>
-      <c r="AK1" s="8">
+      <c r="AK1" s="6">
         <v>43591</v>
       </c>
-      <c r="AL1" s="8">
+      <c r="AL1" s="6">
         <v>43592</v>
       </c>
-      <c r="AM1" s="8">
+      <c r="AM1" s="6">
         <v>43593</v>
       </c>
-      <c r="AN1" s="8">
+      <c r="AN1" s="6">
         <v>43594</v>
       </c>
-      <c r="AO1" s="8">
+      <c r="AO1" s="6">
         <v>43595</v>
       </c>
-      <c r="AP1" s="8">
+      <c r="AP1" s="6">
         <v>43596</v>
       </c>
-      <c r="AQ1" s="8">
+      <c r="AQ1" s="6">
         <v>43597</v>
       </c>
-      <c r="AR1" s="8">
+      <c r="AR1" s="6">
         <v>43598</v>
       </c>
-      <c r="AS1" s="8">
+      <c r="AS1" s="6">
         <v>43599</v>
       </c>
-      <c r="AT1" s="8">
+      <c r="AT1" s="6">
         <v>43600</v>
       </c>
-      <c r="AU1" s="8">
+      <c r="AU1" s="6">
         <v>43601</v>
       </c>
-      <c r="AV1" s="8">
+      <c r="AV1" s="6">
         <v>43602</v>
       </c>
-      <c r="AW1" s="8">
+      <c r="AW1" s="6">
         <v>43603</v>
       </c>
-      <c r="AX1" s="8">
+      <c r="AX1" s="6">
         <v>43604</v>
       </c>
-      <c r="AY1" s="8">
+      <c r="AY1" s="6">
         <v>43605</v>
       </c>
-      <c r="AZ1" s="8">
+      <c r="AZ1" s="6">
         <v>43606</v>
       </c>
-      <c r="BA1" s="8">
+      <c r="BA1" s="6">
         <v>43607</v>
       </c>
-      <c r="BB1" s="8">
+      <c r="BB1" s="6">
         <v>43608</v>
       </c>
-      <c r="BC1" s="8">
+      <c r="BC1" s="6">
         <v>43609</v>
       </c>
-      <c r="BD1" s="8">
+      <c r="BD1" s="6">
         <v>43610</v>
       </c>
-      <c r="BE1" s="8">
+      <c r="BE1" s="6">
         <v>43611</v>
       </c>
-      <c r="BF1" s="8">
+      <c r="BF1" s="6">
         <v>43612</v>
       </c>
-      <c r="BG1" s="8">
+      <c r="BG1" s="6">
         <v>43613</v>
       </c>
-      <c r="BH1" s="8">
+      <c r="BH1" s="6">
         <v>43614</v>
       </c>
+      <c r="BI1" s="6">
+        <v>43615</v>
+      </c>
+      <c r="BJ1" s="6">
+        <v>43616</v>
+      </c>
+      <c r="BK1" s="6">
+        <v>43617</v>
+      </c>
+      <c r="BL1" s="6">
+        <v>43618</v>
+      </c>
+      <c r="BM1" s="6">
+        <v>43619</v>
+      </c>
+      <c r="BN1" s="6">
+        <v>43620</v>
+      </c>
+      <c r="BO1" s="6">
+        <v>43621</v>
+      </c>
+      <c r="BP1" s="6">
+        <v>43622</v>
+      </c>
+      <c r="BQ1" s="6">
+        <v>43623</v>
+      </c>
+      <c r="BR1" s="6">
+        <v>43624</v>
+      </c>
+      <c r="BS1" s="6">
+        <v>43625</v>
+      </c>
+      <c r="BT1" s="6">
+        <v>43626</v>
+      </c>
     </row>
-    <row r="2" spans="1:60" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:72" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+      <c r="B2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
+      <c r="L2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
@@ -995,30 +1219,48 @@
       <c r="AO2" s="1"/>
       <c r="AP2" s="1"/>
       <c r="AQ2" s="1"/>
-      <c r="AR2" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AS2" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="AT2" s="15"/>
+      <c r="AR2" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS2" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT2" s="16"/>
       <c r="AU2" s="16"/>
       <c r="AV2" s="1"/>
       <c r="AW2" s="1"/>
       <c r="AX2" s="1"/>
-      <c r="AY2" s="1"/>
-      <c r="AZ2" s="1"/>
-      <c r="BA2" s="1"/>
-      <c r="BB2" s="1"/>
+      <c r="AY2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ2" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="BA2" s="16"/>
+      <c r="BB2" s="16"/>
       <c r="BC2" s="1"/>
       <c r="BD2" s="1"/>
       <c r="BE2" s="1"/>
       <c r="BF2" s="1"/>
       <c r="BG2" s="1"/>
       <c r="BH2" s="1"/>
+      <c r="BI2" s="1"/>
+      <c r="BJ2" s="1"/>
+      <c r="BK2" s="1"/>
+      <c r="BL2" s="1"/>
+      <c r="BM2" s="1"/>
+      <c r="BN2" s="1"/>
+      <c r="BO2" s="1"/>
+      <c r="BP2" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="BQ2" s="1"/>
+      <c r="BR2" s="1"/>
+      <c r="BS2" s="1"/>
+      <c r="BT2" s="1"/>
     </row>
-    <row r="3" spans="1:60" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:72" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1"/>
@@ -1031,7 +1273,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
@@ -1040,23 +1282,23 @@
       <c r="P3" s="17"/>
       <c r="Q3" s="17"/>
       <c r="R3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="T3" s="13"/>
+      <c r="T3" s="16"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
-      <c r="AA3" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="13"/>
+      <c r="AA3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="16"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
@@ -1064,8 +1306,8 @@
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
-      <c r="AK3" s="5" t="s">
-        <v>12</v>
+      <c r="AK3" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="AL3" s="1"/>
       <c r="AM3" s="1"/>
@@ -1090,9 +1332,21 @@
       <c r="BF3" s="1"/>
       <c r="BG3" s="1"/>
       <c r="BH3" s="1"/>
+      <c r="BI3" s="1"/>
+      <c r="BJ3" s="1"/>
+      <c r="BK3" s="1"/>
+      <c r="BL3" s="1"/>
+      <c r="BM3" s="1"/>
+      <c r="BN3" s="1"/>
+      <c r="BO3" s="1"/>
+      <c r="BP3" s="1"/>
+      <c r="BQ3" s="1"/>
+      <c r="BR3" s="1"/>
+      <c r="BS3" s="1"/>
+      <c r="BT3" s="1"/>
     </row>
-    <row r="4" spans="1:60" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:72" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1"/>
@@ -1121,7 +1375,7 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
@@ -1140,27 +1394,45 @@
       <c r="AP4" s="1"/>
       <c r="AQ4" s="1"/>
       <c r="AR4" s="1"/>
-      <c r="AS4" s="6" t="s">
-        <v>50</v>
+      <c r="AS4" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="AT4" s="1"/>
       <c r="AU4" s="1"/>
-      <c r="AV4" s="1"/>
+      <c r="AV4" s="10" t="s">
+        <v>83</v>
+      </c>
       <c r="AW4" s="1"/>
       <c r="AX4" s="1"/>
-      <c r="AY4" s="1"/>
-      <c r="AZ4" s="1"/>
-      <c r="BA4" s="1"/>
+      <c r="AY4" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AZ4" s="16"/>
+      <c r="BA4" s="14"/>
       <c r="BB4" s="1"/>
-      <c r="BC4" s="1"/>
+      <c r="BC4" s="14"/>
       <c r="BD4" s="1"/>
       <c r="BE4" s="1"/>
       <c r="BF4" s="1"/>
       <c r="BG4" s="1"/>
       <c r="BH4" s="1"/>
+      <c r="BI4" s="1"/>
+      <c r="BJ4" s="1"/>
+      <c r="BK4" s="1"/>
+      <c r="BL4" s="1"/>
+      <c r="BM4" s="1"/>
+      <c r="BN4" s="1"/>
+      <c r="BO4" s="1"/>
+      <c r="BP4" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="BQ4" s="1"/>
+      <c r="BR4" s="1"/>
+      <c r="BS4" s="1"/>
+      <c r="BT4" s="1"/>
     </row>
-    <row r="5" spans="1:60" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:72" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1"/>
@@ -1185,15 +1457,15 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X5" s="1"/>
-      <c r="Y5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="18"/>
-      <c r="AB5" s="18"/>
+      <c r="Y5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
@@ -1206,13 +1478,15 @@
       <c r="AL5" s="1"/>
       <c r="AM5" s="1"/>
       <c r="AN5" s="1"/>
-      <c r="AO5" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="AP5" s="13"/>
-      <c r="AQ5" s="13"/>
+      <c r="AO5" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP5" s="16"/>
+      <c r="AQ5" s="16"/>
       <c r="AR5" s="1"/>
-      <c r="AS5" s="1"/>
+      <c r="AS5" s="11" t="s">
+        <v>52</v>
+      </c>
       <c r="AT5" s="1"/>
       <c r="AU5" s="1"/>
       <c r="AV5" s="1"/>
@@ -1228,9 +1502,21 @@
       <c r="BF5" s="1"/>
       <c r="BG5" s="1"/>
       <c r="BH5" s="1"/>
+      <c r="BI5" s="1"/>
+      <c r="BJ5" s="1"/>
+      <c r="BK5" s="1"/>
+      <c r="BL5" s="1"/>
+      <c r="BM5" s="1"/>
+      <c r="BN5" s="1"/>
+      <c r="BO5" s="1"/>
+      <c r="BP5" s="1"/>
+      <c r="BQ5" s="1"/>
+      <c r="BR5" s="1"/>
+      <c r="BS5" s="1"/>
+      <c r="BT5" s="1"/>
     </row>
-    <row r="6" spans="1:60" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:72" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1"/>
@@ -1258,7 +1544,7 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
@@ -1279,27 +1565,51 @@
       <c r="AQ6" s="1"/>
       <c r="AR6" s="1"/>
       <c r="AS6" s="1"/>
-      <c r="AT6" s="6" t="s">
-        <v>52</v>
+      <c r="AT6" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="AU6" s="1"/>
-      <c r="AV6" s="1"/>
-      <c r="AW6" s="1"/>
+      <c r="AV6" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW6" s="16"/>
       <c r="AX6" s="1"/>
       <c r="AY6" s="1"/>
       <c r="AZ6" s="1"/>
       <c r="BA6" s="1"/>
-      <c r="BB6" s="1"/>
-      <c r="BC6" s="1"/>
+      <c r="BB6" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC6" s="13" t="s">
+        <v>77</v>
+      </c>
       <c r="BD6" s="1"/>
       <c r="BE6" s="1"/>
-      <c r="BF6" s="1"/>
+      <c r="BF6" s="11" t="s">
+        <v>91</v>
+      </c>
       <c r="BG6" s="1"/>
       <c r="BH6" s="1"/>
+      <c r="BI6" s="1"/>
+      <c r="BJ6" s="1"/>
+      <c r="BK6" s="1"/>
+      <c r="BL6" s="1"/>
+      <c r="BM6" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="BN6" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="BO6" s="1"/>
+      <c r="BP6" s="1"/>
+      <c r="BQ6" s="1"/>
+      <c r="BR6" s="1"/>
+      <c r="BS6" s="1"/>
+      <c r="BT6" s="1"/>
     </row>
-    <row r="7" spans="1:60" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
-        <v>5</v>
+    <row r="7" spans="1:72" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1327,7 +1637,7 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
@@ -1346,28 +1656,54 @@
       <c r="AP7" s="1"/>
       <c r="AQ7" s="1"/>
       <c r="AR7" s="1"/>
-      <c r="AS7" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AT7" s="1"/>
+      <c r="AS7" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT7" s="4"/>
       <c r="AU7" s="1"/>
-      <c r="AV7" s="1"/>
-      <c r="AW7" s="1"/>
+      <c r="AV7" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW7" s="16"/>
       <c r="AX7" s="1"/>
       <c r="AY7" s="1"/>
       <c r="AZ7" s="1"/>
       <c r="BA7" s="1"/>
-      <c r="BB7" s="1"/>
-      <c r="BC7" s="1"/>
-      <c r="BD7" s="1"/>
+      <c r="BB7" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="BC7" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="BD7" s="17"/>
       <c r="BE7" s="1"/>
-      <c r="BF7" s="1"/>
+      <c r="BF7" s="13" t="s">
+        <v>86</v>
+      </c>
       <c r="BG7" s="1"/>
-      <c r="BH7" s="1"/>
+      <c r="BH7" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="BI7" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="BJ7" s="17"/>
+      <c r="BK7" s="1"/>
+      <c r="BL7" s="1"/>
+      <c r="BM7" s="1"/>
+      <c r="BN7" s="1"/>
+      <c r="BO7" s="1"/>
+      <c r="BP7" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="BQ7" s="1"/>
+      <c r="BR7" s="1"/>
+      <c r="BS7" s="1"/>
+      <c r="BT7" s="1"/>
     </row>
-    <row r="8" spans="1:60" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>21</v>
+    <row r="8" spans="1:72" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1394,7 +1730,7 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AA8" s="3"/>
       <c r="AB8" s="1"/>
@@ -1430,10 +1766,22 @@
       <c r="BF8" s="1"/>
       <c r="BG8" s="1"/>
       <c r="BH8" s="1"/>
+      <c r="BI8" s="1"/>
+      <c r="BJ8" s="1"/>
+      <c r="BK8" s="1"/>
+      <c r="BL8" s="1"/>
+      <c r="BM8" s="1"/>
+      <c r="BN8" s="1"/>
+      <c r="BO8" s="1"/>
+      <c r="BP8" s="1"/>
+      <c r="BQ8" s="1"/>
+      <c r="BR8" s="1"/>
+      <c r="BS8" s="1"/>
+      <c r="BT8" s="1"/>
     </row>
-    <row r="9" spans="1:60" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>22</v>
+    <row r="9" spans="1:72" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1457,7 +1805,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
@@ -1465,15 +1813,15 @@
       <c r="AA9" s="3"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
-      <c r="AD9" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE9" s="18"/>
-      <c r="AF9" s="18"/>
-      <c r="AG9" s="18"/>
-      <c r="AH9" s="18"/>
-      <c r="AI9" s="18"/>
-      <c r="AJ9" s="18"/>
+      <c r="AD9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE9" s="16"/>
+      <c r="AF9" s="16"/>
+      <c r="AG9" s="16"/>
+      <c r="AH9" s="16"/>
+      <c r="AI9" s="16"/>
+      <c r="AJ9" s="16"/>
       <c r="AK9" s="1"/>
       <c r="AL9" s="1"/>
       <c r="AM9" s="1"/>
@@ -1481,15 +1829,17 @@
       <c r="AO9" s="1"/>
       <c r="AP9" s="1"/>
       <c r="AQ9" s="1"/>
-      <c r="AR9" s="6" t="s">
-        <v>57</v>
+      <c r="AR9" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="AS9" s="1"/>
-      <c r="AT9" s="14" t="s">
-        <v>56</v>
+      <c r="AT9" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="AU9" s="16"/>
-      <c r="AV9" s="1"/>
+      <c r="AV9" s="11" t="s">
+        <v>76</v>
+      </c>
       <c r="AW9" s="1"/>
       <c r="AX9" s="1"/>
       <c r="AY9" s="1"/>
@@ -1502,10 +1852,22 @@
       <c r="BF9" s="1"/>
       <c r="BG9" s="1"/>
       <c r="BH9" s="1"/>
+      <c r="BI9" s="1"/>
+      <c r="BJ9" s="1"/>
+      <c r="BK9" s="1"/>
+      <c r="BL9" s="1"/>
+      <c r="BM9" s="1"/>
+      <c r="BN9" s="1"/>
+      <c r="BO9" s="1"/>
+      <c r="BP9" s="1"/>
+      <c r="BQ9" s="1"/>
+      <c r="BR9" s="1"/>
+      <c r="BS9" s="1"/>
+      <c r="BT9" s="1"/>
     </row>
-    <row r="10" spans="1:60" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>6</v>
+    <row r="10" spans="1:72" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1516,44 +1878,44 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="6" t="s">
-        <v>31</v>
+      <c r="K10" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="6" t="s">
-        <v>31</v>
+      <c r="O10" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="P10" s="1"/>
-      <c r="Q10" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
+      <c r="Q10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
       <c r="V10" s="1"/>
-      <c r="W10" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="X10" s="13"/>
+      <c r="W10" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="X10" s="16"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
-      <c r="AD10" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE10" s="18"/>
-      <c r="AF10" s="18"/>
-      <c r="AG10" s="18"/>
-      <c r="AH10" s="18"/>
-      <c r="AI10" s="18"/>
-      <c r="AJ10" s="18"/>
-      <c r="AK10" s="18"/>
-      <c r="AL10" s="18"/>
+      <c r="AD10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE10" s="16"/>
+      <c r="AF10" s="16"/>
+      <c r="AG10" s="16"/>
+      <c r="AH10" s="16"/>
+      <c r="AI10" s="16"/>
+      <c r="AJ10" s="16"/>
+      <c r="AK10" s="16"/>
+      <c r="AL10" s="16"/>
       <c r="AM10" s="1"/>
       <c r="AN10" s="1"/>
       <c r="AO10" s="1"/>
@@ -1562,13 +1924,13 @@
       <c r="AR10" s="1"/>
       <c r="AS10" s="1"/>
       <c r="AT10" s="1"/>
-      <c r="AU10" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AV10" s="1"/>
-      <c r="AW10" s="1"/>
-      <c r="AX10" s="1"/>
-      <c r="AY10" s="1"/>
+      <c r="AU10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV10" s="3"/>
+      <c r="AW10" s="14"/>
+      <c r="AX10" s="4"/>
+      <c r="AY10" s="3"/>
       <c r="AZ10" s="1"/>
       <c r="BA10" s="1"/>
       <c r="BB10" s="1"/>
@@ -1578,10 +1940,26 @@
       <c r="BF10" s="1"/>
       <c r="BG10" s="1"/>
       <c r="BH10" s="1"/>
+      <c r="BI10" s="1"/>
+      <c r="BJ10" s="1"/>
+      <c r="BK10" s="1"/>
+      <c r="BL10" s="1"/>
+      <c r="BM10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="BN10" s="1"/>
+      <c r="BO10" s="1"/>
+      <c r="BP10" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="BQ10" s="1"/>
+      <c r="BR10" s="1"/>
+      <c r="BS10" s="1"/>
+      <c r="BT10" s="1"/>
     </row>
-    <row r="11" spans="1:60" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
-        <v>7</v>
+    <row r="11" spans="1:72" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1619,10 +1997,10 @@
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
-      <c r="AL11" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM11" s="19"/>
+      <c r="AL11" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM11" s="17"/>
       <c r="AN11" s="1"/>
       <c r="AO11" s="1"/>
       <c r="AP11" s="1"/>
@@ -1644,10 +2022,22 @@
       <c r="BF11" s="1"/>
       <c r="BG11" s="1"/>
       <c r="BH11" s="1"/>
+      <c r="BI11" s="1"/>
+      <c r="BJ11" s="1"/>
+      <c r="BK11" s="1"/>
+      <c r="BL11" s="1"/>
+      <c r="BM11" s="1"/>
+      <c r="BN11" s="1"/>
+      <c r="BO11" s="1"/>
+      <c r="BP11" s="1"/>
+      <c r="BQ11" s="1"/>
+      <c r="BR11" s="1"/>
+      <c r="BS11" s="1"/>
+      <c r="BT11" s="1"/>
     </row>
-    <row r="12" spans="1:60" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
-        <v>26</v>
+    <row r="12" spans="1:72" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1703,17 +2093,33 @@
       <c r="BA12" s="1"/>
       <c r="BB12" s="1"/>
       <c r="BC12" s="1"/>
-      <c r="BD12" s="5" t="s">
-        <v>53</v>
-      </c>
+      <c r="BD12" s="1"/>
       <c r="BE12" s="1"/>
       <c r="BF12" s="1"/>
       <c r="BG12" s="1"/>
       <c r="BH12" s="1"/>
+      <c r="BI12" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="BJ12" s="1"/>
+      <c r="BK12" s="1"/>
+      <c r="BL12" s="1"/>
+      <c r="BM12" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="BN12" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="BO12" s="19"/>
+      <c r="BP12" s="20"/>
+      <c r="BQ12" s="1"/>
+      <c r="BR12" s="1"/>
+      <c r="BS12" s="1"/>
+      <c r="BT12" s="1"/>
     </row>
-    <row r="13" spans="1:60" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
-        <v>27</v>
+    <row r="13" spans="1:72" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1760,26 +2166,48 @@
       <c r="AR13" s="1"/>
       <c r="AS13" s="1"/>
       <c r="AT13" s="1"/>
-      <c r="AU13" s="5" t="s">
-        <v>60</v>
+      <c r="AU13" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="AV13" s="1"/>
       <c r="AW13" s="1"/>
       <c r="AX13" s="1"/>
-      <c r="AY13" s="1"/>
-      <c r="AZ13" s="1"/>
-      <c r="BA13" s="1"/>
+      <c r="AY13" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AZ13" s="16"/>
+      <c r="BA13" s="12" t="s">
+        <v>63</v>
+      </c>
       <c r="BB13" s="1"/>
       <c r="BC13" s="1"/>
-      <c r="BD13" s="1"/>
+      <c r="BD13" s="10" t="s">
+        <v>80</v>
+      </c>
       <c r="BE13" s="1"/>
-      <c r="BF13" s="1"/>
-      <c r="BG13" s="1"/>
-      <c r="BH13" s="1"/>
+      <c r="BF13" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="BG13" s="16"/>
+      <c r="BH13" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="BI13" s="1"/>
+      <c r="BJ13" s="1"/>
+      <c r="BK13" s="1"/>
+      <c r="BL13" s="1"/>
+      <c r="BM13" s="1"/>
+      <c r="BN13" s="1"/>
+      <c r="BO13" s="1"/>
+      <c r="BP13" s="1"/>
+      <c r="BQ13" s="1"/>
+      <c r="BR13" s="1"/>
+      <c r="BS13" s="1"/>
+      <c r="BT13" s="1"/>
     </row>
-    <row r="14" spans="1:60" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
-        <v>37</v>
+    <row r="14" spans="1:72" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1815,21 +2243,15 @@
       <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
       <c r="AI14" s="1"/>
-      <c r="AJ14" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK14" s="13"/>
-      <c r="AL14" s="13"/>
-      <c r="AM14" s="13"/>
-      <c r="AN14" s="13"/>
-      <c r="AO14" s="13"/>
-      <c r="AP14" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="AQ14" s="17"/>
-      <c r="AR14" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="1"/>
+      <c r="AQ14" s="1"/>
+      <c r="AR14" s="1"/>
       <c r="AS14" s="1"/>
       <c r="AT14" s="1"/>
       <c r="AU14" s="1"/>
@@ -1839,17 +2261,31 @@
       <c r="AY14" s="1"/>
       <c r="AZ14" s="1"/>
       <c r="BA14" s="1"/>
-      <c r="BB14" s="1"/>
+      <c r="BB14" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="BC14" s="1"/>
       <c r="BD14" s="1"/>
       <c r="BE14" s="1"/>
       <c r="BF14" s="1"/>
       <c r="BG14" s="1"/>
       <c r="BH14" s="1"/>
+      <c r="BI14" s="1"/>
+      <c r="BJ14" s="1"/>
+      <c r="BK14" s="1"/>
+      <c r="BL14" s="1"/>
+      <c r="BM14" s="1"/>
+      <c r="BN14" s="1"/>
+      <c r="BO14" s="1"/>
+      <c r="BP14" s="1"/>
+      <c r="BQ14" s="1"/>
+      <c r="BR14" s="1"/>
+      <c r="BS14" s="1"/>
+      <c r="BT14" s="1"/>
     </row>
-    <row r="15" spans="1:60" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
-        <v>36</v>
+    <row r="15" spans="1:72" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1872,57 +2308,65 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
-      <c r="W15" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="13"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
       <c r="AI15" s="1"/>
-      <c r="AJ15" s="4"/>
-      <c r="AK15" s="4"/>
-      <c r="AL15" s="4"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
       <c r="AO15" s="1"/>
       <c r="AP15" s="1"/>
       <c r="AQ15" s="1"/>
-      <c r="AR15" s="1"/>
-      <c r="AS15" s="1"/>
-      <c r="AT15" s="1"/>
-      <c r="AU15" s="1"/>
-      <c r="AV15" s="1"/>
-      <c r="AW15" s="1"/>
-      <c r="AX15" s="1"/>
-      <c r="AY15" s="1"/>
-      <c r="AZ15" s="1"/>
-      <c r="BA15" s="1"/>
-      <c r="BB15" s="1"/>
+      <c r="AR15" s="4"/>
+      <c r="AS15" s="4"/>
+      <c r="AT15" s="4"/>
+      <c r="AU15" s="4"/>
+      <c r="AV15" s="4"/>
+      <c r="AW15" s="4"/>
+      <c r="AX15" s="4"/>
+      <c r="AY15" s="4"/>
+      <c r="AZ15" s="4"/>
+      <c r="BA15" s="4"/>
+      <c r="BB15" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="BC15" s="1"/>
       <c r="BD15" s="1"/>
       <c r="BE15" s="1"/>
       <c r="BF15" s="1"/>
       <c r="BG15" s="1"/>
       <c r="BH15" s="1"/>
+      <c r="BI15" s="1"/>
+      <c r="BJ15" s="1"/>
+      <c r="BK15" s="1"/>
+      <c r="BL15" s="1"/>
+      <c r="BM15" s="1"/>
+      <c r="BN15" s="1"/>
+      <c r="BO15" s="1"/>
+      <c r="BP15" s="1"/>
+      <c r="BQ15" s="1"/>
+      <c r="BR15" s="1"/>
+      <c r="BS15" s="1"/>
+      <c r="BT15" s="1"/>
     </row>
-    <row r="16" spans="1:60" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="13"/>
+    <row r="16" spans="1:72" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1945,96 +2389,116 @@
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
-      <c r="Z16" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE16" s="13"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
-      <c r="AJ16" s="1"/>
-      <c r="AK16" s="1"/>
-      <c r="AL16" s="1"/>
-      <c r="AM16" s="1"/>
-      <c r="AN16" s="1"/>
-      <c r="AO16" s="1"/>
-      <c r="AP16" s="1"/>
-      <c r="AQ16" s="1"/>
-      <c r="AR16" s="1"/>
-      <c r="AS16" s="1"/>
-      <c r="AT16" s="1"/>
+      <c r="AJ16" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK16" s="16"/>
+      <c r="AL16" s="16"/>
+      <c r="AM16" s="16"/>
+      <c r="AN16" s="16"/>
+      <c r="AO16" s="16"/>
+      <c r="AP16" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ16" s="17"/>
+      <c r="AR16" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS16" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="AT16" s="17"/>
       <c r="AU16" s="1"/>
       <c r="AV16" s="1"/>
       <c r="AW16" s="1"/>
       <c r="AX16" s="1"/>
-      <c r="AY16" s="1"/>
-      <c r="AZ16" s="1"/>
-      <c r="BA16" s="1"/>
+      <c r="AY16" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="AZ16" s="17"/>
+      <c r="BA16" s="17"/>
       <c r="BB16" s="1"/>
-      <c r="BC16" s="1"/>
-      <c r="BD16" s="1"/>
+      <c r="BC16" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="BD16" s="16"/>
       <c r="BE16" s="1"/>
-      <c r="BF16" s="1"/>
-      <c r="BG16" s="1"/>
+      <c r="BF16" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="BG16" s="16"/>
       <c r="BH16" s="1"/>
+      <c r="BI16" s="1"/>
+      <c r="BJ16" s="1"/>
+      <c r="BK16" s="1"/>
+      <c r="BL16" s="1"/>
+      <c r="BM16" s="1"/>
+      <c r="BN16" s="1"/>
+      <c r="BO16" s="1"/>
+      <c r="BP16" s="1"/>
+      <c r="BQ16" s="1"/>
+      <c r="BR16" s="1"/>
+      <c r="BS16" s="1"/>
+      <c r="BT16" s="1"/>
     </row>
-    <row r="17" spans="1:60" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="13" t="s">
+    <row r="17" spans="1:72" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13" t="s">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC17" s="16"/>
+      <c r="AD17" s="16"/>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
       <c r="AH17" s="1"/>
       <c r="AI17" s="1"/>
-      <c r="AJ17" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK17" s="13"/>
-      <c r="AL17" s="13"/>
-      <c r="AM17" s="13"/>
-      <c r="AN17" s="13"/>
-      <c r="AO17" s="13"/>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="1"/>
       <c r="AP17" s="1"/>
       <c r="AQ17" s="1"/>
       <c r="AR17" s="1"/>
@@ -2054,13 +2518,27 @@
       <c r="BF17" s="1"/>
       <c r="BG17" s="1"/>
       <c r="BH17" s="1"/>
+      <c r="BI17" s="1"/>
+      <c r="BJ17" s="1"/>
+      <c r="BK17" s="1"/>
+      <c r="BL17" s="1"/>
+      <c r="BM17" s="1"/>
+      <c r="BN17" s="1"/>
+      <c r="BO17" s="1"/>
+      <c r="BP17" s="1"/>
+      <c r="BQ17" s="1"/>
+      <c r="BR17" s="1"/>
+      <c r="BS17" s="1"/>
+      <c r="BT17" s="1"/>
     </row>
-    <row r="18" spans="1:60" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+    <row r="18" spans="1:72" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="16"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -2083,12 +2561,16 @@
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
-      <c r="AD18" s="1"/>
-      <c r="AE18" s="1"/>
+      <c r="Z18" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="16"/>
+      <c r="AD18" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE18" s="16"/>
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
       <c r="AH18" s="1"/>
@@ -2103,9 +2585,7 @@
       <c r="AQ18" s="1"/>
       <c r="AR18" s="1"/>
       <c r="AS18" s="1"/>
-      <c r="AT18" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="AT18" s="1"/>
       <c r="AU18" s="1"/>
       <c r="AV18" s="1"/>
       <c r="AW18" s="1"/>
@@ -2120,35 +2600,51 @@
       <c r="BF18" s="1"/>
       <c r="BG18" s="1"/>
       <c r="BH18" s="1"/>
+      <c r="BI18" s="1"/>
+      <c r="BJ18" s="1"/>
+      <c r="BK18" s="1"/>
+      <c r="BL18" s="1"/>
+      <c r="BM18" s="1"/>
+      <c r="BN18" s="1"/>
+      <c r="BO18" s="1"/>
+      <c r="BP18" s="1"/>
+      <c r="BQ18" s="1"/>
+      <c r="BR18" s="1"/>
+      <c r="BS18" s="1"/>
+      <c r="BT18" s="1"/>
     </row>
-    <row r="19" spans="1:60" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
+    <row r="19" spans="1:72" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="16"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
@@ -2159,61 +2655,344 @@
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
-      <c r="AJ19" s="1"/>
-      <c r="AK19" s="1"/>
-      <c r="AL19" s="1"/>
-      <c r="AM19" s="1"/>
-      <c r="AN19" s="1"/>
-      <c r="AO19" s="1"/>
+      <c r="AJ19" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK19" s="16"/>
+      <c r="AL19" s="16"/>
+      <c r="AM19" s="16"/>
+      <c r="AN19" s="16"/>
+      <c r="AO19" s="16"/>
       <c r="AP19" s="1"/>
       <c r="AQ19" s="1"/>
-      <c r="AR19" s="1"/>
-      <c r="AS19" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AT19" s="1"/>
-      <c r="AU19" s="1"/>
-      <c r="AV19" s="1"/>
-      <c r="AW19" s="1"/>
+      <c r="AR19" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS19" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT19" s="16"/>
+      <c r="AU19" s="16"/>
+      <c r="AV19" s="16"/>
+      <c r="AW19" s="16"/>
       <c r="AX19" s="1"/>
-      <c r="AY19" s="1"/>
-      <c r="AZ19" s="1"/>
-      <c r="BA19" s="1"/>
-      <c r="BB19" s="1"/>
-      <c r="BC19" s="1"/>
+      <c r="AY19" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ19" s="17"/>
+      <c r="BA19" s="17"/>
+      <c r="BB19" s="17"/>
+      <c r="BC19" s="17"/>
       <c r="BD19" s="1"/>
       <c r="BE19" s="1"/>
-      <c r="BF19" s="1"/>
-      <c r="BG19" s="1"/>
-      <c r="BH19" s="1"/>
+      <c r="BF19" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="BG19" s="16"/>
+      <c r="BH19" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI19" s="19"/>
+      <c r="BJ19" s="20"/>
+      <c r="BK19" s="1"/>
+      <c r="BL19" s="1"/>
+      <c r="BM19" s="1"/>
+      <c r="BN19" s="1"/>
+      <c r="BO19" s="1"/>
+      <c r="BP19" s="1"/>
+      <c r="BQ19" s="1"/>
+      <c r="BR19" s="1"/>
+      <c r="BS19" s="1"/>
+      <c r="BT19" s="1"/>
+    </row>
+    <row r="20" spans="1:72" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="1"/>
+      <c r="AK20" s="1"/>
+      <c r="AL20" s="1"/>
+      <c r="AM20" s="1"/>
+      <c r="AN20" s="1"/>
+      <c r="AO20" s="1"/>
+      <c r="AP20" s="1"/>
+      <c r="AQ20" s="1"/>
+      <c r="AR20" s="1"/>
+      <c r="AS20" s="1"/>
+      <c r="AT20" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU20" s="1"/>
+      <c r="AV20" s="1"/>
+      <c r="AW20" s="1"/>
+      <c r="AX20" s="1"/>
+      <c r="AY20" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AZ20" s="16"/>
+      <c r="BA20" s="1"/>
+      <c r="BB20" s="1"/>
+      <c r="BC20" s="1"/>
+      <c r="BD20" s="1"/>
+      <c r="BE20" s="1"/>
+      <c r="BF20" s="1"/>
+      <c r="BG20" s="1"/>
+      <c r="BH20" s="1"/>
+      <c r="BI20" s="1"/>
+      <c r="BJ20" s="1"/>
+      <c r="BK20" s="1"/>
+      <c r="BL20" s="1"/>
+      <c r="BM20" s="1"/>
+      <c r="BN20" s="1"/>
+      <c r="BO20" s="1"/>
+      <c r="BP20" s="1"/>
+      <c r="BQ20" s="1"/>
+      <c r="BR20" s="1"/>
+      <c r="BS20" s="1"/>
+      <c r="BT20" s="1"/>
+    </row>
+    <row r="21" spans="1:72" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1"/>
+      <c r="AI21" s="1"/>
+      <c r="AJ21" s="1"/>
+      <c r="AK21" s="1"/>
+      <c r="AL21" s="1"/>
+      <c r="AM21" s="1"/>
+      <c r="AN21" s="1"/>
+      <c r="AO21" s="1"/>
+      <c r="AP21" s="1"/>
+      <c r="AQ21" s="1"/>
+      <c r="AR21" s="1"/>
+      <c r="AS21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AT21" s="1"/>
+      <c r="AU21" s="1"/>
+      <c r="AV21" s="1"/>
+      <c r="AW21" s="1"/>
+      <c r="AX21" s="1"/>
+      <c r="AY21" s="1"/>
+      <c r="AZ21" s="1"/>
+      <c r="BA21" s="1"/>
+      <c r="BB21" s="1"/>
+      <c r="BC21" s="1"/>
+      <c r="BD21" s="1"/>
+      <c r="BE21" s="1"/>
+      <c r="BF21" s="1"/>
+      <c r="BG21" s="1"/>
+      <c r="BH21" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BI21" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="BJ21" s="17"/>
+      <c r="BK21" s="1"/>
+      <c r="BL21" s="1"/>
+      <c r="BM21" s="1"/>
+      <c r="BN21" s="1"/>
+      <c r="BO21" s="1"/>
+      <c r="BP21" s="1"/>
+      <c r="BQ21" s="1"/>
+      <c r="BR21" s="1"/>
+      <c r="BS21" s="1"/>
+      <c r="BT21" s="1"/>
+    </row>
+    <row r="22" spans="1:72" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="1"/>
+      <c r="AJ22" s="1"/>
+      <c r="AK22" s="1"/>
+      <c r="AL22" s="1"/>
+      <c r="AM22" s="1"/>
+      <c r="AN22" s="1"/>
+      <c r="AO22" s="1"/>
+      <c r="AP22" s="1"/>
+      <c r="AQ22" s="1"/>
+      <c r="AR22" s="1"/>
+      <c r="AS22" s="1"/>
+      <c r="AT22" s="1"/>
+      <c r="AU22" s="1"/>
+      <c r="AV22" s="1"/>
+      <c r="AW22" s="1"/>
+      <c r="AX22" s="1"/>
+      <c r="AY22" s="1"/>
+      <c r="AZ22" s="1"/>
+      <c r="BA22" s="1"/>
+      <c r="BB22" s="1"/>
+      <c r="BC22" s="1"/>
+      <c r="BD22" s="1"/>
+      <c r="BE22" s="1"/>
+      <c r="BF22" s="1"/>
+      <c r="BG22" s="1"/>
+      <c r="BH22" s="1"/>
+      <c r="BI22" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ22" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="BK22" s="1"/>
+      <c r="BL22" s="1"/>
+      <c r="BM22" s="1"/>
+      <c r="BN22" s="1"/>
+      <c r="BO22" s="1"/>
+      <c r="BP22" s="1"/>
+      <c r="BQ22" s="1"/>
+      <c r="BR22" s="1"/>
+      <c r="BS22" s="1"/>
+      <c r="BT22" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="B17:T17"/>
-    <mergeCell ref="U17:Y17"/>
-    <mergeCell ref="W15:AA15"/>
-    <mergeCell ref="AB15:AD15"/>
-    <mergeCell ref="AJ17:AO17"/>
-    <mergeCell ref="AD16:AE16"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="Z16:AC16"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="AO5:AQ5"/>
-    <mergeCell ref="AP14:AQ14"/>
-    <mergeCell ref="AJ14:AO14"/>
+  <mergeCells count="44">
+    <mergeCell ref="BN12:BP12"/>
+    <mergeCell ref="BI7:BJ7"/>
+    <mergeCell ref="BI21:BJ21"/>
+    <mergeCell ref="BH19:BJ19"/>
+    <mergeCell ref="BF19:BG19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="Z18:AC18"/>
+    <mergeCell ref="AY16:BA16"/>
+    <mergeCell ref="AV7:AW7"/>
+    <mergeCell ref="BF13:BG13"/>
+    <mergeCell ref="BF16:BG16"/>
+    <mergeCell ref="BC16:BD16"/>
+    <mergeCell ref="AY20:AZ20"/>
+    <mergeCell ref="AD10:AL10"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="AY13:AZ13"/>
+    <mergeCell ref="AD9:AJ9"/>
+    <mergeCell ref="AP16:AQ16"/>
+    <mergeCell ref="AJ16:AO16"/>
     <mergeCell ref="AL11:AM11"/>
-    <mergeCell ref="AD10:AL10"/>
-    <mergeCell ref="AD9:AJ9"/>
+    <mergeCell ref="AT9:AU9"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="L2:U2"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="AT9:AU9"/>
     <mergeCell ref="K3:Q3"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="B19:T19"/>
     <mergeCell ref="Y5:AB5"/>
+    <mergeCell ref="AO5:AQ5"/>
+    <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="AZ2:BB2"/>
+    <mergeCell ref="U19:Y19"/>
+    <mergeCell ref="W17:AA17"/>
+    <mergeCell ref="AB17:AD17"/>
+    <mergeCell ref="AJ19:AO19"/>
+    <mergeCell ref="AD18:AE18"/>
+    <mergeCell ref="AY19:BC19"/>
+    <mergeCell ref="BC7:BD7"/>
+    <mergeCell ref="AY4:AZ4"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="AS16:AT16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/项目进度表.xlsx
+++ b/项目进度表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="116">
   <si>
     <t>顺丰项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -456,6 +456,42 @@
   </si>
   <si>
     <t>V1R1B110第一轮测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V410R1B001提测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V410R4B001提测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V410R1B001测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V410R4B001测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P200识别效果测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.1.3-ALPHA版本测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P200效果测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V410R1B001测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V410R4B001测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -638,9 +674,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -650,6 +683,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -932,24 +968,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BT22"/>
+  <dimension ref="A1:DD22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AW2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="BT6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BN4" sqref="BN4"/>
+      <selection pane="bottomRight" activeCell="CK14" sqref="CK14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="31" width="9" style="9" hidden="1" customWidth="1"/>
-    <col min="32" max="43" width="9" style="9" customWidth="1"/>
-    <col min="44" max="16384" width="9" style="9"/>
+    <col min="2" max="43" width="9" style="9" hidden="1" customWidth="1"/>
+    <col min="44" max="62" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="63" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:108" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
@@ -1166,37 +1202,145 @@
       <c r="BT1" s="6">
         <v>43626</v>
       </c>
+      <c r="BU1" s="6">
+        <v>43627</v>
+      </c>
+      <c r="BV1" s="6">
+        <v>43628</v>
+      </c>
+      <c r="BW1" s="6">
+        <v>43629</v>
+      </c>
+      <c r="BX1" s="6">
+        <v>43630</v>
+      </c>
+      <c r="BY1" s="6">
+        <v>43631</v>
+      </c>
+      <c r="BZ1" s="6">
+        <v>43632</v>
+      </c>
+      <c r="CA1" s="6">
+        <v>43633</v>
+      </c>
+      <c r="CB1" s="6">
+        <v>43634</v>
+      </c>
+      <c r="CC1" s="6">
+        <v>43635</v>
+      </c>
+      <c r="CD1" s="6">
+        <v>43636</v>
+      </c>
+      <c r="CE1" s="6">
+        <v>43637</v>
+      </c>
+      <c r="CF1" s="6">
+        <v>43638</v>
+      </c>
+      <c r="CG1" s="6">
+        <v>43639</v>
+      </c>
+      <c r="CH1" s="6">
+        <v>43640</v>
+      </c>
+      <c r="CI1" s="6">
+        <v>43641</v>
+      </c>
+      <c r="CJ1" s="6">
+        <v>43642</v>
+      </c>
+      <c r="CK1" s="6">
+        <v>43643</v>
+      </c>
+      <c r="CL1" s="6">
+        <v>43644</v>
+      </c>
+      <c r="CM1" s="6">
+        <v>43645</v>
+      </c>
+      <c r="CN1" s="6">
+        <v>43646</v>
+      </c>
+      <c r="CO1" s="6">
+        <v>43647</v>
+      </c>
+      <c r="CP1" s="6">
+        <v>43648</v>
+      </c>
+      <c r="CQ1" s="6">
+        <v>43649</v>
+      </c>
+      <c r="CR1" s="6">
+        <v>43650</v>
+      </c>
+      <c r="CS1" s="6">
+        <v>43651</v>
+      </c>
+      <c r="CT1" s="6">
+        <v>43652</v>
+      </c>
+      <c r="CU1" s="6">
+        <v>43653</v>
+      </c>
+      <c r="CV1" s="6">
+        <v>43654</v>
+      </c>
+      <c r="CW1" s="6">
+        <v>43655</v>
+      </c>
+      <c r="CX1" s="6">
+        <v>43656</v>
+      </c>
+      <c r="CY1" s="6">
+        <v>43657</v>
+      </c>
+      <c r="CZ1" s="6">
+        <v>43658</v>
+      </c>
+      <c r="DA1" s="6">
+        <v>43659</v>
+      </c>
+      <c r="DB1" s="6">
+        <v>43660</v>
+      </c>
+      <c r="DC1" s="6">
+        <v>43661</v>
+      </c>
+      <c r="DD1" s="6">
+        <v>43662</v>
+      </c>
     </row>
-    <row r="2" spans="1:72" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:108" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="16" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
@@ -1222,22 +1366,22 @@
       <c r="AR2" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="AS2" s="16" t="s">
+      <c r="AS2" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="AT2" s="16"/>
-      <c r="AU2" s="16"/>
+      <c r="AT2" s="20"/>
+      <c r="AU2" s="20"/>
       <c r="AV2" s="1"/>
       <c r="AW2" s="1"/>
       <c r="AX2" s="1"/>
       <c r="AY2" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="AZ2" s="16" t="s">
+      <c r="AZ2" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="BA2" s="16"/>
-      <c r="BB2" s="16"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
       <c r="BC2" s="1"/>
       <c r="BD2" s="1"/>
       <c r="BE2" s="1"/>
@@ -1258,8 +1402,44 @@
       <c r="BR2" s="1"/>
       <c r="BS2" s="1"/>
       <c r="BT2" s="1"/>
+      <c r="BU2" s="1"/>
+      <c r="BV2" s="1"/>
+      <c r="BW2" s="1"/>
+      <c r="BX2" s="1"/>
+      <c r="BY2" s="1"/>
+      <c r="BZ2" s="1"/>
+      <c r="CA2" s="1"/>
+      <c r="CB2" s="1"/>
+      <c r="CC2" s="1"/>
+      <c r="CD2" s="1"/>
+      <c r="CE2" s="1"/>
+      <c r="CF2" s="1"/>
+      <c r="CG2" s="1"/>
+      <c r="CH2" s="1"/>
+      <c r="CI2" s="1"/>
+      <c r="CJ2" s="1"/>
+      <c r="CK2" s="1"/>
+      <c r="CL2" s="1"/>
+      <c r="CM2" s="1"/>
+      <c r="CN2" s="1"/>
+      <c r="CO2" s="1"/>
+      <c r="CP2" s="1"/>
+      <c r="CQ2" s="1"/>
+      <c r="CR2" s="1"/>
+      <c r="CS2" s="1"/>
+      <c r="CT2" s="1"/>
+      <c r="CU2" s="1"/>
+      <c r="CV2" s="1"/>
+      <c r="CW2" s="1"/>
+      <c r="CX2" s="1"/>
+      <c r="CY2" s="1"/>
+      <c r="CZ2" s="1"/>
+      <c r="DA2" s="1"/>
+      <c r="DB2" s="1"/>
+      <c r="DC2" s="1"/>
+      <c r="DD2" s="1"/>
     </row>
-    <row r="3" spans="1:72" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:108" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -1272,33 +1452,33 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
       <c r="R3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="S3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="16"/>
+      <c r="T3" s="20"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
-      <c r="AA3" s="16" t="s">
+      <c r="AA3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
@@ -1344,8 +1524,44 @@
       <c r="BR3" s="1"/>
       <c r="BS3" s="1"/>
       <c r="BT3" s="1"/>
+      <c r="BU3" s="1"/>
+      <c r="BV3" s="1"/>
+      <c r="BW3" s="1"/>
+      <c r="BX3" s="1"/>
+      <c r="BY3" s="1"/>
+      <c r="BZ3" s="1"/>
+      <c r="CA3" s="1"/>
+      <c r="CB3" s="1"/>
+      <c r="CC3" s="1"/>
+      <c r="CD3" s="1"/>
+      <c r="CE3" s="1"/>
+      <c r="CF3" s="1"/>
+      <c r="CG3" s="1"/>
+      <c r="CH3" s="1"/>
+      <c r="CI3" s="1"/>
+      <c r="CJ3" s="1"/>
+      <c r="CK3" s="1"/>
+      <c r="CL3" s="1"/>
+      <c r="CM3" s="1"/>
+      <c r="CN3" s="1"/>
+      <c r="CO3" s="1"/>
+      <c r="CP3" s="1"/>
+      <c r="CQ3" s="1"/>
+      <c r="CR3" s="1"/>
+      <c r="CS3" s="1"/>
+      <c r="CT3" s="1"/>
+      <c r="CU3" s="1"/>
+      <c r="CV3" s="1"/>
+      <c r="CW3" s="1"/>
+      <c r="CX3" s="1"/>
+      <c r="CY3" s="1"/>
+      <c r="CZ3" s="1"/>
+      <c r="DA3" s="1"/>
+      <c r="DB3" s="1"/>
+      <c r="DC3" s="1"/>
+      <c r="DD3" s="1"/>
     </row>
-    <row r="4" spans="1:72" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:108" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -1404,10 +1620,10 @@
       </c>
       <c r="AW4" s="1"/>
       <c r="AX4" s="1"/>
-      <c r="AY4" s="16" t="s">
+      <c r="AY4" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="AZ4" s="16"/>
+      <c r="AZ4" s="20"/>
       <c r="BA4" s="14"/>
       <c r="BB4" s="1"/>
       <c r="BC4" s="14"/>
@@ -1430,8 +1646,44 @@
       <c r="BR4" s="1"/>
       <c r="BS4" s="1"/>
       <c r="BT4" s="1"/>
+      <c r="BU4" s="1"/>
+      <c r="BV4" s="1"/>
+      <c r="BW4" s="1"/>
+      <c r="BX4" s="1"/>
+      <c r="BY4" s="1"/>
+      <c r="BZ4" s="1"/>
+      <c r="CA4" s="1"/>
+      <c r="CB4" s="1"/>
+      <c r="CC4" s="1"/>
+      <c r="CD4" s="1"/>
+      <c r="CE4" s="1"/>
+      <c r="CF4" s="1"/>
+      <c r="CG4" s="1"/>
+      <c r="CH4" s="1"/>
+      <c r="CI4" s="1"/>
+      <c r="CJ4" s="1"/>
+      <c r="CK4" s="1"/>
+      <c r="CL4" s="1"/>
+      <c r="CM4" s="1"/>
+      <c r="CN4" s="1"/>
+      <c r="CO4" s="1"/>
+      <c r="CP4" s="1"/>
+      <c r="CQ4" s="1"/>
+      <c r="CR4" s="1"/>
+      <c r="CS4" s="1"/>
+      <c r="CT4" s="1"/>
+      <c r="CU4" s="1"/>
+      <c r="CV4" s="1"/>
+      <c r="CW4" s="1"/>
+      <c r="CX4" s="1"/>
+      <c r="CY4" s="1"/>
+      <c r="CZ4" s="1"/>
+      <c r="DA4" s="1"/>
+      <c r="DB4" s="1"/>
+      <c r="DC4" s="1"/>
+      <c r="DD4" s="1"/>
     </row>
-    <row r="5" spans="1:72" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:108" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
@@ -1460,12 +1712,12 @@
         <v>13</v>
       </c>
       <c r="X5" s="1"/>
-      <c r="Y5" s="16" t="s">
+      <c r="Y5" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="16"/>
-      <c r="AB5" s="16"/>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="20"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
@@ -1478,11 +1730,11 @@
       <c r="AL5" s="1"/>
       <c r="AM5" s="1"/>
       <c r="AN5" s="1"/>
-      <c r="AO5" s="16" t="s">
+      <c r="AO5" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AP5" s="16"/>
-      <c r="AQ5" s="16"/>
+      <c r="AP5" s="20"/>
+      <c r="AQ5" s="20"/>
       <c r="AR5" s="1"/>
       <c r="AS5" s="11" t="s">
         <v>52</v>
@@ -1514,8 +1766,44 @@
       <c r="BR5" s="1"/>
       <c r="BS5" s="1"/>
       <c r="BT5" s="1"/>
+      <c r="BU5" s="1"/>
+      <c r="BV5" s="1"/>
+      <c r="BW5" s="1"/>
+      <c r="BX5" s="1"/>
+      <c r="BY5" s="1"/>
+      <c r="BZ5" s="1"/>
+      <c r="CA5" s="1"/>
+      <c r="CB5" s="1"/>
+      <c r="CC5" s="1"/>
+      <c r="CD5" s="1"/>
+      <c r="CE5" s="1"/>
+      <c r="CF5" s="1"/>
+      <c r="CG5" s="1"/>
+      <c r="CH5" s="1"/>
+      <c r="CI5" s="1"/>
+      <c r="CJ5" s="1"/>
+      <c r="CK5" s="1"/>
+      <c r="CL5" s="1"/>
+      <c r="CM5" s="1"/>
+      <c r="CN5" s="1"/>
+      <c r="CO5" s="1"/>
+      <c r="CP5" s="1"/>
+      <c r="CQ5" s="1"/>
+      <c r="CR5" s="1"/>
+      <c r="CS5" s="1"/>
+      <c r="CT5" s="1"/>
+      <c r="CU5" s="1"/>
+      <c r="CV5" s="1"/>
+      <c r="CW5" s="1"/>
+      <c r="CX5" s="1"/>
+      <c r="CY5" s="1"/>
+      <c r="CZ5" s="1"/>
+      <c r="DA5" s="1"/>
+      <c r="DB5" s="1"/>
+      <c r="DC5" s="1"/>
+      <c r="DD5" s="1"/>
     </row>
-    <row r="6" spans="1:72" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:108" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
@@ -1569,10 +1857,10 @@
         <v>82</v>
       </c>
       <c r="AU6" s="1"/>
-      <c r="AV6" s="16" t="s">
+      <c r="AV6" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="AW6" s="16"/>
+      <c r="AW6" s="20"/>
       <c r="AX6" s="1"/>
       <c r="AY6" s="1"/>
       <c r="AZ6" s="1"/>
@@ -1606,8 +1894,44 @@
       <c r="BR6" s="1"/>
       <c r="BS6" s="1"/>
       <c r="BT6" s="1"/>
+      <c r="BU6" s="1"/>
+      <c r="BV6" s="1"/>
+      <c r="BW6" s="1"/>
+      <c r="BX6" s="1"/>
+      <c r="BY6" s="1"/>
+      <c r="BZ6" s="1"/>
+      <c r="CA6" s="1"/>
+      <c r="CB6" s="1"/>
+      <c r="CC6" s="1"/>
+      <c r="CD6" s="1"/>
+      <c r="CE6" s="1"/>
+      <c r="CF6" s="1"/>
+      <c r="CG6" s="1"/>
+      <c r="CH6" s="1"/>
+      <c r="CI6" s="1"/>
+      <c r="CJ6" s="1"/>
+      <c r="CK6" s="1"/>
+      <c r="CL6" s="1"/>
+      <c r="CM6" s="1"/>
+      <c r="CN6" s="1"/>
+      <c r="CO6" s="1"/>
+      <c r="CP6" s="1"/>
+      <c r="CQ6" s="1"/>
+      <c r="CR6" s="1"/>
+      <c r="CS6" s="1"/>
+      <c r="CT6" s="1"/>
+      <c r="CU6" s="1"/>
+      <c r="CV6" s="1"/>
+      <c r="CW6" s="1"/>
+      <c r="CX6" s="1"/>
+      <c r="CY6" s="1"/>
+      <c r="CZ6" s="1"/>
+      <c r="DA6" s="1"/>
+      <c r="DB6" s="1"/>
+      <c r="DC6" s="1"/>
+      <c r="DD6" s="1"/>
     </row>
-    <row r="7" spans="1:72" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:108" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>61</v>
       </c>
@@ -1661,10 +1985,10 @@
       </c>
       <c r="AT7" s="4"/>
       <c r="AU7" s="1"/>
-      <c r="AV7" s="16" t="s">
+      <c r="AV7" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="AW7" s="16"/>
+      <c r="AW7" s="20"/>
       <c r="AX7" s="1"/>
       <c r="AY7" s="1"/>
       <c r="AZ7" s="1"/>
@@ -1672,10 +1996,10 @@
       <c r="BB7" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="BC7" s="17" t="s">
+      <c r="BC7" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="BD7" s="17"/>
+      <c r="BD7" s="16"/>
       <c r="BE7" s="1"/>
       <c r="BF7" s="13" t="s">
         <v>86</v>
@@ -1684,10 +2008,10 @@
       <c r="BH7" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="BI7" s="17" t="s">
+      <c r="BI7" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="BJ7" s="17"/>
+      <c r="BJ7" s="16"/>
       <c r="BK7" s="1"/>
       <c r="BL7" s="1"/>
       <c r="BM7" s="1"/>
@@ -1700,8 +2024,44 @@
       <c r="BR7" s="1"/>
       <c r="BS7" s="1"/>
       <c r="BT7" s="1"/>
+      <c r="BU7" s="1"/>
+      <c r="BV7" s="1"/>
+      <c r="BW7" s="1"/>
+      <c r="BX7" s="1"/>
+      <c r="BY7" s="1"/>
+      <c r="BZ7" s="1"/>
+      <c r="CA7" s="1"/>
+      <c r="CB7" s="1"/>
+      <c r="CC7" s="1"/>
+      <c r="CD7" s="1"/>
+      <c r="CE7" s="1"/>
+      <c r="CF7" s="1"/>
+      <c r="CG7" s="1"/>
+      <c r="CH7" s="1"/>
+      <c r="CI7" s="1"/>
+      <c r="CJ7" s="1"/>
+      <c r="CK7" s="1"/>
+      <c r="CL7" s="1"/>
+      <c r="CM7" s="1"/>
+      <c r="CN7" s="1"/>
+      <c r="CO7" s="1"/>
+      <c r="CP7" s="1"/>
+      <c r="CQ7" s="1"/>
+      <c r="CR7" s="1"/>
+      <c r="CS7" s="1"/>
+      <c r="CT7" s="1"/>
+      <c r="CU7" s="1"/>
+      <c r="CV7" s="1"/>
+      <c r="CW7" s="1"/>
+      <c r="CX7" s="1"/>
+      <c r="CY7" s="1"/>
+      <c r="CZ7" s="1"/>
+      <c r="DA7" s="1"/>
+      <c r="DB7" s="1"/>
+      <c r="DC7" s="1"/>
+      <c r="DD7" s="1"/>
     </row>
-    <row r="8" spans="1:72" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:108" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>19</v>
       </c>
@@ -1778,8 +2138,44 @@
       <c r="BR8" s="1"/>
       <c r="BS8" s="1"/>
       <c r="BT8" s="1"/>
+      <c r="BU8" s="1"/>
+      <c r="BV8" s="1"/>
+      <c r="BW8" s="1"/>
+      <c r="BX8" s="1"/>
+      <c r="BY8" s="1"/>
+      <c r="BZ8" s="1"/>
+      <c r="CA8" s="1"/>
+      <c r="CB8" s="1"/>
+      <c r="CC8" s="1"/>
+      <c r="CD8" s="1"/>
+      <c r="CE8" s="1"/>
+      <c r="CF8" s="1"/>
+      <c r="CG8" s="1"/>
+      <c r="CH8" s="1"/>
+      <c r="CI8" s="1"/>
+      <c r="CJ8" s="1"/>
+      <c r="CK8" s="1"/>
+      <c r="CL8" s="1"/>
+      <c r="CM8" s="1"/>
+      <c r="CN8" s="1"/>
+      <c r="CO8" s="1"/>
+      <c r="CP8" s="1"/>
+      <c r="CQ8" s="1"/>
+      <c r="CR8" s="1"/>
+      <c r="CS8" s="1"/>
+      <c r="CT8" s="1"/>
+      <c r="CU8" s="1"/>
+      <c r="CV8" s="1"/>
+      <c r="CW8" s="1"/>
+      <c r="CX8" s="1"/>
+      <c r="CY8" s="1"/>
+      <c r="CZ8" s="1"/>
+      <c r="DA8" s="1"/>
+      <c r="DB8" s="1"/>
+      <c r="DC8" s="1"/>
+      <c r="DD8" s="1"/>
     </row>
-    <row r="9" spans="1:72" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:108" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>62</v>
       </c>
@@ -1813,15 +2209,15 @@
       <c r="AA9" s="3"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
-      <c r="AD9" s="16" t="s">
+      <c r="AD9" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="AE9" s="16"/>
-      <c r="AF9" s="16"/>
-      <c r="AG9" s="16"/>
-      <c r="AH9" s="16"/>
-      <c r="AI9" s="16"/>
-      <c r="AJ9" s="16"/>
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="20"/>
+      <c r="AH9" s="20"/>
+      <c r="AI9" s="20"/>
+      <c r="AJ9" s="20"/>
       <c r="AK9" s="1"/>
       <c r="AL9" s="1"/>
       <c r="AM9" s="1"/>
@@ -1833,10 +2229,10 @@
         <v>48</v>
       </c>
       <c r="AS9" s="1"/>
-      <c r="AT9" s="17" t="s">
+      <c r="AT9" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="AU9" s="16"/>
+      <c r="AU9" s="20"/>
       <c r="AV9" s="11" t="s">
         <v>76</v>
       </c>
@@ -1864,8 +2260,44 @@
       <c r="BR9" s="1"/>
       <c r="BS9" s="1"/>
       <c r="BT9" s="1"/>
+      <c r="BU9" s="1"/>
+      <c r="BV9" s="1"/>
+      <c r="BW9" s="1"/>
+      <c r="BX9" s="1"/>
+      <c r="BY9" s="1"/>
+      <c r="BZ9" s="1"/>
+      <c r="CA9" s="1"/>
+      <c r="CB9" s="1"/>
+      <c r="CC9" s="1"/>
+      <c r="CD9" s="1"/>
+      <c r="CE9" s="1"/>
+      <c r="CF9" s="1"/>
+      <c r="CG9" s="1"/>
+      <c r="CH9" s="1"/>
+      <c r="CI9" s="1"/>
+      <c r="CJ9" s="1"/>
+      <c r="CK9" s="1"/>
+      <c r="CL9" s="1"/>
+      <c r="CM9" s="1"/>
+      <c r="CN9" s="1"/>
+      <c r="CO9" s="1"/>
+      <c r="CP9" s="1"/>
+      <c r="CQ9" s="1"/>
+      <c r="CR9" s="1"/>
+      <c r="CS9" s="1"/>
+      <c r="CT9" s="1"/>
+      <c r="CU9" s="1"/>
+      <c r="CV9" s="1"/>
+      <c r="CW9" s="1"/>
+      <c r="CX9" s="1"/>
+      <c r="CY9" s="1"/>
+      <c r="CZ9" s="1"/>
+      <c r="DA9" s="1"/>
+      <c r="DB9" s="1"/>
+      <c r="DC9" s="1"/>
+      <c r="DD9" s="1"/>
     </row>
-    <row r="10" spans="1:72" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:108" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>5</v>
       </c>
@@ -1888,34 +2320,34 @@
         <v>28</v>
       </c>
       <c r="P10" s="1"/>
-      <c r="Q10" s="16" t="s">
+      <c r="Q10" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
       <c r="V10" s="1"/>
-      <c r="W10" s="16" t="s">
+      <c r="W10" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="X10" s="16"/>
+      <c r="X10" s="20"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
-      <c r="AD10" s="16" t="s">
+      <c r="AD10" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="AE10" s="16"/>
-      <c r="AF10" s="16"/>
-      <c r="AG10" s="16"/>
-      <c r="AH10" s="16"/>
-      <c r="AI10" s="16"/>
-      <c r="AJ10" s="16"/>
-      <c r="AK10" s="16"/>
-      <c r="AL10" s="16"/>
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="20"/>
+      <c r="AG10" s="20"/>
+      <c r="AH10" s="20"/>
+      <c r="AI10" s="20"/>
+      <c r="AJ10" s="20"/>
+      <c r="AK10" s="20"/>
+      <c r="AL10" s="20"/>
       <c r="AM10" s="1"/>
       <c r="AN10" s="1"/>
       <c r="AO10" s="1"/>
@@ -1950,14 +2382,56 @@
       <c r="BN10" s="1"/>
       <c r="BO10" s="1"/>
       <c r="BP10" s="10" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="BQ10" s="1"/>
       <c r="BR10" s="1"/>
       <c r="BS10" s="1"/>
-      <c r="BT10" s="1"/>
+      <c r="BT10" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU10" s="20"/>
+      <c r="BV10" s="20"/>
+      <c r="BW10" s="20"/>
+      <c r="BX10" s="20"/>
+      <c r="BY10" s="1"/>
+      <c r="BZ10" s="1"/>
+      <c r="CA10" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="CB10" s="20"/>
+      <c r="CC10" s="20"/>
+      <c r="CD10" s="20"/>
+      <c r="CE10" s="20"/>
+      <c r="CF10" s="1"/>
+      <c r="CG10" s="1"/>
+      <c r="CH10" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="CI10" s="18"/>
+      <c r="CJ10" s="18"/>
+      <c r="CK10" s="18"/>
+      <c r="CL10" s="18"/>
+      <c r="CM10" s="19"/>
+      <c r="CN10" s="1"/>
+      <c r="CO10" s="1"/>
+      <c r="CP10" s="1"/>
+      <c r="CQ10" s="1"/>
+      <c r="CR10" s="1"/>
+      <c r="CS10" s="1"/>
+      <c r="CT10" s="1"/>
+      <c r="CU10" s="1"/>
+      <c r="CV10" s="1"/>
+      <c r="CW10" s="1"/>
+      <c r="CX10" s="1"/>
+      <c r="CY10" s="1"/>
+      <c r="CZ10" s="1"/>
+      <c r="DA10" s="1"/>
+      <c r="DB10" s="1"/>
+      <c r="DC10" s="1"/>
+      <c r="DD10" s="1"/>
     </row>
-    <row r="11" spans="1:72" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:108" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>6</v>
       </c>
@@ -1997,10 +2471,10 @@
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
-      <c r="AL11" s="17" t="s">
+      <c r="AL11" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="AM11" s="17"/>
+      <c r="AM11" s="16"/>
       <c r="AN11" s="1"/>
       <c r="AO11" s="1"/>
       <c r="AP11" s="1"/>
@@ -2033,9 +2507,53 @@
       <c r="BQ11" s="1"/>
       <c r="BR11" s="1"/>
       <c r="BS11" s="1"/>
-      <c r="BT11" s="1"/>
+      <c r="BT11" s="14"/>
+      <c r="BU11" s="14"/>
+      <c r="BV11" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="BW11" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="BX11" s="20"/>
+      <c r="BY11" s="1"/>
+      <c r="BZ11" s="1"/>
+      <c r="CA11" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="CB11" s="18"/>
+      <c r="CC11" s="18"/>
+      <c r="CD11" s="18"/>
+      <c r="CE11" s="19"/>
+      <c r="CF11" s="1"/>
+      <c r="CG11" s="1"/>
+      <c r="CH11" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="CI11" s="18"/>
+      <c r="CJ11" s="19"/>
+      <c r="CK11" s="1"/>
+      <c r="CL11" s="1"/>
+      <c r="CM11" s="1"/>
+      <c r="CN11" s="1"/>
+      <c r="CO11" s="1"/>
+      <c r="CP11" s="1"/>
+      <c r="CQ11" s="1"/>
+      <c r="CR11" s="1"/>
+      <c r="CS11" s="1"/>
+      <c r="CT11" s="1"/>
+      <c r="CU11" s="1"/>
+      <c r="CV11" s="1"/>
+      <c r="CW11" s="1"/>
+      <c r="CX11" s="1"/>
+      <c r="CY11" s="1"/>
+      <c r="CZ11" s="1"/>
+      <c r="DA11" s="1"/>
+      <c r="DB11" s="1"/>
+      <c r="DC11" s="1"/>
+      <c r="DD11" s="1"/>
     </row>
-    <row r="12" spans="1:72" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:108" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>23</v>
       </c>
@@ -2107,17 +2625,53 @@
       <c r="BM12" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="BN12" s="18" t="s">
+      <c r="BN12" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="BO12" s="19"/>
-      <c r="BP12" s="20"/>
+      <c r="BO12" s="18"/>
+      <c r="BP12" s="19"/>
       <c r="BQ12" s="1"/>
       <c r="BR12" s="1"/>
       <c r="BS12" s="1"/>
       <c r="BT12" s="1"/>
+      <c r="BU12" s="1"/>
+      <c r="BV12" s="1"/>
+      <c r="BW12" s="1"/>
+      <c r="BX12" s="1"/>
+      <c r="BY12" s="1"/>
+      <c r="BZ12" s="1"/>
+      <c r="CA12" s="1"/>
+      <c r="CB12" s="1"/>
+      <c r="CC12" s="1"/>
+      <c r="CD12" s="1"/>
+      <c r="CE12" s="1"/>
+      <c r="CF12" s="1"/>
+      <c r="CG12" s="1"/>
+      <c r="CH12" s="1"/>
+      <c r="CI12" s="1"/>
+      <c r="CJ12" s="1"/>
+      <c r="CK12" s="1"/>
+      <c r="CL12" s="1"/>
+      <c r="CM12" s="1"/>
+      <c r="CN12" s="1"/>
+      <c r="CO12" s="1"/>
+      <c r="CP12" s="1"/>
+      <c r="CQ12" s="1"/>
+      <c r="CR12" s="1"/>
+      <c r="CS12" s="1"/>
+      <c r="CT12" s="1"/>
+      <c r="CU12" s="1"/>
+      <c r="CV12" s="1"/>
+      <c r="CW12" s="1"/>
+      <c r="CX12" s="1"/>
+      <c r="CY12" s="1"/>
+      <c r="CZ12" s="1"/>
+      <c r="DA12" s="1"/>
+      <c r="DB12" s="1"/>
+      <c r="DC12" s="1"/>
+      <c r="DD12" s="1"/>
     </row>
-    <row r="13" spans="1:72" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:108" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>24</v>
       </c>
@@ -2172,10 +2726,10 @@
       <c r="AV13" s="1"/>
       <c r="AW13" s="1"/>
       <c r="AX13" s="1"/>
-      <c r="AY13" s="16" t="s">
+      <c r="AY13" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="AZ13" s="16"/>
+      <c r="AZ13" s="20"/>
       <c r="BA13" s="12" t="s">
         <v>63</v>
       </c>
@@ -2185,10 +2739,10 @@
         <v>80</v>
       </c>
       <c r="BE13" s="1"/>
-      <c r="BF13" s="16" t="s">
+      <c r="BF13" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="BG13" s="16"/>
+      <c r="BG13" s="20"/>
       <c r="BH13" s="11" t="s">
         <v>92</v>
       </c>
@@ -2204,8 +2758,44 @@
       <c r="BR13" s="1"/>
       <c r="BS13" s="1"/>
       <c r="BT13" s="1"/>
+      <c r="BU13" s="1"/>
+      <c r="BV13" s="1"/>
+      <c r="BW13" s="1"/>
+      <c r="BX13" s="1"/>
+      <c r="BY13" s="1"/>
+      <c r="BZ13" s="1"/>
+      <c r="CA13" s="1"/>
+      <c r="CB13" s="1"/>
+      <c r="CC13" s="1"/>
+      <c r="CD13" s="1"/>
+      <c r="CE13" s="1"/>
+      <c r="CF13" s="1"/>
+      <c r="CG13" s="1"/>
+      <c r="CH13" s="1"/>
+      <c r="CI13" s="1"/>
+      <c r="CJ13" s="1"/>
+      <c r="CK13" s="1"/>
+      <c r="CL13" s="1"/>
+      <c r="CM13" s="1"/>
+      <c r="CN13" s="1"/>
+      <c r="CO13" s="1"/>
+      <c r="CP13" s="1"/>
+      <c r="CQ13" s="1"/>
+      <c r="CR13" s="1"/>
+      <c r="CS13" s="1"/>
+      <c r="CT13" s="1"/>
+      <c r="CU13" s="1"/>
+      <c r="CV13" s="1"/>
+      <c r="CW13" s="1"/>
+      <c r="CX13" s="1"/>
+      <c r="CY13" s="1"/>
+      <c r="CZ13" s="1"/>
+      <c r="DA13" s="1"/>
+      <c r="DB13" s="1"/>
+      <c r="DC13" s="1"/>
+      <c r="DD13" s="1"/>
     </row>
-    <row r="14" spans="1:72" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:108" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>72</v>
       </c>
@@ -2282,8 +2872,44 @@
       <c r="BR14" s="1"/>
       <c r="BS14" s="1"/>
       <c r="BT14" s="1"/>
+      <c r="BU14" s="1"/>
+      <c r="BV14" s="1"/>
+      <c r="BW14" s="1"/>
+      <c r="BX14" s="1"/>
+      <c r="BY14" s="1"/>
+      <c r="BZ14" s="1"/>
+      <c r="CA14" s="1"/>
+      <c r="CB14" s="1"/>
+      <c r="CC14" s="1"/>
+      <c r="CD14" s="1"/>
+      <c r="CE14" s="1"/>
+      <c r="CF14" s="1"/>
+      <c r="CG14" s="1"/>
+      <c r="CH14" s="1"/>
+      <c r="CI14" s="1"/>
+      <c r="CJ14" s="1"/>
+      <c r="CK14" s="1"/>
+      <c r="CL14" s="1"/>
+      <c r="CM14" s="1"/>
+      <c r="CN14" s="1"/>
+      <c r="CO14" s="1"/>
+      <c r="CP14" s="1"/>
+      <c r="CQ14" s="1"/>
+      <c r="CR14" s="1"/>
+      <c r="CS14" s="1"/>
+      <c r="CT14" s="1"/>
+      <c r="CU14" s="1"/>
+      <c r="CV14" s="1"/>
+      <c r="CW14" s="1"/>
+      <c r="CX14" s="1"/>
+      <c r="CY14" s="1"/>
+      <c r="CZ14" s="1"/>
+      <c r="DA14" s="1"/>
+      <c r="DB14" s="1"/>
+      <c r="DC14" s="1"/>
+      <c r="DD14" s="1"/>
     </row>
-    <row r="15" spans="1:72" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:108" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>73</v>
       </c>
@@ -2360,8 +2986,44 @@
       <c r="BR15" s="1"/>
       <c r="BS15" s="1"/>
       <c r="BT15" s="1"/>
+      <c r="BU15" s="1"/>
+      <c r="BV15" s="1"/>
+      <c r="BW15" s="1"/>
+      <c r="BX15" s="1"/>
+      <c r="BY15" s="1"/>
+      <c r="BZ15" s="1"/>
+      <c r="CA15" s="1"/>
+      <c r="CB15" s="1"/>
+      <c r="CC15" s="1"/>
+      <c r="CD15" s="1"/>
+      <c r="CE15" s="1"/>
+      <c r="CF15" s="1"/>
+      <c r="CG15" s="1"/>
+      <c r="CH15" s="1"/>
+      <c r="CI15" s="1"/>
+      <c r="CJ15" s="1"/>
+      <c r="CK15" s="1"/>
+      <c r="CL15" s="1"/>
+      <c r="CM15" s="1"/>
+      <c r="CN15" s="1"/>
+      <c r="CO15" s="1"/>
+      <c r="CP15" s="1"/>
+      <c r="CQ15" s="1"/>
+      <c r="CR15" s="1"/>
+      <c r="CS15" s="1"/>
+      <c r="CT15" s="1"/>
+      <c r="CU15" s="1"/>
+      <c r="CV15" s="1"/>
+      <c r="CW15" s="1"/>
+      <c r="CX15" s="1"/>
+      <c r="CY15" s="1"/>
+      <c r="CZ15" s="1"/>
+      <c r="DA15" s="1"/>
+      <c r="DB15" s="1"/>
+      <c r="DC15" s="1"/>
+      <c r="DD15" s="1"/>
     </row>
-    <row r="16" spans="1:72" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:108" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>34</v>
       </c>
@@ -2399,44 +3061,44 @@
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
-      <c r="AJ16" s="16" t="s">
+      <c r="AJ16" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="AK16" s="16"/>
-      <c r="AL16" s="16"/>
-      <c r="AM16" s="16"/>
-      <c r="AN16" s="16"/>
-      <c r="AO16" s="16"/>
-      <c r="AP16" s="17" t="s">
+      <c r="AK16" s="20"/>
+      <c r="AL16" s="20"/>
+      <c r="AM16" s="20"/>
+      <c r="AN16" s="20"/>
+      <c r="AO16" s="20"/>
+      <c r="AP16" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="AQ16" s="17"/>
+      <c r="AQ16" s="16"/>
       <c r="AR16" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="AS16" s="17" t="s">
+      <c r="AS16" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="AT16" s="17"/>
+      <c r="AT16" s="16"/>
       <c r="AU16" s="1"/>
       <c r="AV16" s="1"/>
       <c r="AW16" s="1"/>
       <c r="AX16" s="1"/>
-      <c r="AY16" s="17" t="s">
+      <c r="AY16" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="AZ16" s="17"/>
-      <c r="BA16" s="17"/>
+      <c r="AZ16" s="16"/>
+      <c r="BA16" s="16"/>
       <c r="BB16" s="1"/>
-      <c r="BC16" s="16" t="s">
+      <c r="BC16" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="BD16" s="16"/>
+      <c r="BD16" s="20"/>
       <c r="BE16" s="1"/>
-      <c r="BF16" s="16" t="s">
+      <c r="BF16" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="BG16" s="16"/>
+      <c r="BG16" s="20"/>
       <c r="BH16" s="1"/>
       <c r="BI16" s="1"/>
       <c r="BJ16" s="1"/>
@@ -2450,8 +3112,44 @@
       <c r="BR16" s="1"/>
       <c r="BS16" s="1"/>
       <c r="BT16" s="1"/>
+      <c r="BU16" s="1"/>
+      <c r="BV16" s="1"/>
+      <c r="BW16" s="1"/>
+      <c r="BX16" s="1"/>
+      <c r="BY16" s="1"/>
+      <c r="BZ16" s="1"/>
+      <c r="CA16" s="1"/>
+      <c r="CB16" s="1"/>
+      <c r="CC16" s="1"/>
+      <c r="CD16" s="1"/>
+      <c r="CE16" s="1"/>
+      <c r="CF16" s="1"/>
+      <c r="CG16" s="1"/>
+      <c r="CH16" s="1"/>
+      <c r="CI16" s="1"/>
+      <c r="CJ16" s="1"/>
+      <c r="CK16" s="1"/>
+      <c r="CL16" s="1"/>
+      <c r="CM16" s="1"/>
+      <c r="CN16" s="1"/>
+      <c r="CO16" s="1"/>
+      <c r="CP16" s="1"/>
+      <c r="CQ16" s="1"/>
+      <c r="CR16" s="1"/>
+      <c r="CS16" s="1"/>
+      <c r="CT16" s="1"/>
+      <c r="CU16" s="1"/>
+      <c r="CV16" s="1"/>
+      <c r="CW16" s="1"/>
+      <c r="CX16" s="1"/>
+      <c r="CY16" s="1"/>
+      <c r="CZ16" s="1"/>
+      <c r="DA16" s="1"/>
+      <c r="DB16" s="1"/>
+      <c r="DC16" s="1"/>
+      <c r="DD16" s="1"/>
     </row>
-    <row r="17" spans="1:72" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:108" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>33</v>
       </c>
@@ -2476,18 +3174,18 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
-      <c r="W17" s="16" t="s">
+      <c r="W17" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="16"/>
-      <c r="AA17" s="16"/>
-      <c r="AB17" s="16" t="s">
+      <c r="X17" s="20"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="AC17" s="16"/>
-      <c r="AD17" s="16"/>
+      <c r="AC17" s="20"/>
+      <c r="AD17" s="20"/>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
@@ -2529,16 +3227,58 @@
       <c r="BQ17" s="1"/>
       <c r="BR17" s="1"/>
       <c r="BS17" s="1"/>
-      <c r="BT17" s="1"/>
+      <c r="BT17" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="BU17" s="20"/>
+      <c r="BV17" s="20"/>
+      <c r="BW17" s="20"/>
+      <c r="BX17" s="20"/>
+      <c r="BY17" s="1"/>
+      <c r="BZ17" s="1"/>
+      <c r="CA17" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="CB17" s="20"/>
+      <c r="CC17" s="20"/>
+      <c r="CD17" s="20"/>
+      <c r="CE17" s="20"/>
+      <c r="CF17" s="1"/>
+      <c r="CG17" s="1"/>
+      <c r="CH17" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="CI17" s="18"/>
+      <c r="CJ17" s="18"/>
+      <c r="CK17" s="18"/>
+      <c r="CL17" s="18"/>
+      <c r="CM17" s="19"/>
+      <c r="CN17" s="1"/>
+      <c r="CO17" s="1"/>
+      <c r="CP17" s="1"/>
+      <c r="CQ17" s="1"/>
+      <c r="CR17" s="1"/>
+      <c r="CS17" s="1"/>
+      <c r="CT17" s="1"/>
+      <c r="CU17" s="1"/>
+      <c r="CV17" s="1"/>
+      <c r="CW17" s="1"/>
+      <c r="CX17" s="1"/>
+      <c r="CY17" s="1"/>
+      <c r="CZ17" s="1"/>
+      <c r="DA17" s="1"/>
+      <c r="DB17" s="1"/>
+      <c r="DC17" s="1"/>
+      <c r="DD17" s="1"/>
     </row>
-    <row r="18" spans="1:72" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:108" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="16"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -2561,16 +3301,16 @@
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
-      <c r="Z18" s="16" t="s">
+      <c r="Z18" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="16"/>
-      <c r="AC18" s="16"/>
-      <c r="AD18" s="16" t="s">
+      <c r="AA18" s="20"/>
+      <c r="AB18" s="20"/>
+      <c r="AC18" s="20"/>
+      <c r="AD18" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="AE18" s="16"/>
+      <c r="AE18" s="20"/>
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
       <c r="AH18" s="1"/>
@@ -2612,39 +3352,75 @@
       <c r="BR18" s="1"/>
       <c r="BS18" s="1"/>
       <c r="BT18" s="1"/>
+      <c r="BU18" s="1"/>
+      <c r="BV18" s="1"/>
+      <c r="BW18" s="1"/>
+      <c r="BX18" s="1"/>
+      <c r="BY18" s="1"/>
+      <c r="BZ18" s="1"/>
+      <c r="CA18" s="1"/>
+      <c r="CB18" s="1"/>
+      <c r="CC18" s="1"/>
+      <c r="CD18" s="1"/>
+      <c r="CE18" s="1"/>
+      <c r="CF18" s="1"/>
+      <c r="CG18" s="1"/>
+      <c r="CH18" s="1"/>
+      <c r="CI18" s="1"/>
+      <c r="CJ18" s="1"/>
+      <c r="CK18" s="1"/>
+      <c r="CL18" s="1"/>
+      <c r="CM18" s="1"/>
+      <c r="CN18" s="1"/>
+      <c r="CO18" s="1"/>
+      <c r="CP18" s="1"/>
+      <c r="CQ18" s="1"/>
+      <c r="CR18" s="1"/>
+      <c r="CS18" s="1"/>
+      <c r="CT18" s="1"/>
+      <c r="CU18" s="1"/>
+      <c r="CV18" s="1"/>
+      <c r="CW18" s="1"/>
+      <c r="CX18" s="1"/>
+      <c r="CY18" s="1"/>
+      <c r="CZ18" s="1"/>
+      <c r="DA18" s="1"/>
+      <c r="DB18" s="1"/>
+      <c r="DC18" s="1"/>
+      <c r="DD18" s="1"/>
     </row>
-    <row r="19" spans="1:72" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:108" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16" t="s">
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="16"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="20"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
@@ -2655,45 +3431,45 @@
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
-      <c r="AJ19" s="16" t="s">
+      <c r="AJ19" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="AK19" s="16"/>
-      <c r="AL19" s="16"/>
-      <c r="AM19" s="16"/>
-      <c r="AN19" s="16"/>
-      <c r="AO19" s="16"/>
+      <c r="AK19" s="20"/>
+      <c r="AL19" s="20"/>
+      <c r="AM19" s="20"/>
+      <c r="AN19" s="20"/>
+      <c r="AO19" s="20"/>
       <c r="AP19" s="1"/>
       <c r="AQ19" s="1"/>
       <c r="AR19" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="AS19" s="16" t="s">
+      <c r="AS19" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="AT19" s="16"/>
-      <c r="AU19" s="16"/>
-      <c r="AV19" s="16"/>
-      <c r="AW19" s="16"/>
+      <c r="AT19" s="20"/>
+      <c r="AU19" s="20"/>
+      <c r="AV19" s="20"/>
+      <c r="AW19" s="20"/>
       <c r="AX19" s="1"/>
-      <c r="AY19" s="17" t="s">
+      <c r="AY19" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="AZ19" s="17"/>
-      <c r="BA19" s="17"/>
-      <c r="BB19" s="17"/>
-      <c r="BC19" s="17"/>
+      <c r="AZ19" s="16"/>
+      <c r="BA19" s="16"/>
+      <c r="BB19" s="16"/>
+      <c r="BC19" s="16"/>
       <c r="BD19" s="1"/>
       <c r="BE19" s="1"/>
-      <c r="BF19" s="16" t="s">
+      <c r="BF19" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="BG19" s="16"/>
-      <c r="BH19" s="18" t="s">
+      <c r="BG19" s="20"/>
+      <c r="BH19" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="BI19" s="19"/>
-      <c r="BJ19" s="20"/>
+      <c r="BI19" s="18"/>
+      <c r="BJ19" s="19"/>
       <c r="BK19" s="1"/>
       <c r="BL19" s="1"/>
       <c r="BM19" s="1"/>
@@ -2704,8 +3480,46 @@
       <c r="BR19" s="1"/>
       <c r="BS19" s="1"/>
       <c r="BT19" s="1"/>
+      <c r="BU19" s="1"/>
+      <c r="BV19" s="1"/>
+      <c r="BW19" s="1"/>
+      <c r="BX19" s="1"/>
+      <c r="BY19" s="1"/>
+      <c r="BZ19" s="1"/>
+      <c r="CA19" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="CB19" s="18"/>
+      <c r="CC19" s="19"/>
+      <c r="CD19" s="1"/>
+      <c r="CE19" s="1"/>
+      <c r="CF19" s="1"/>
+      <c r="CG19" s="1"/>
+      <c r="CH19" s="1"/>
+      <c r="CI19" s="1"/>
+      <c r="CJ19" s="1"/>
+      <c r="CK19" s="1"/>
+      <c r="CL19" s="1"/>
+      <c r="CM19" s="1"/>
+      <c r="CN19" s="1"/>
+      <c r="CO19" s="1"/>
+      <c r="CP19" s="1"/>
+      <c r="CQ19" s="1"/>
+      <c r="CR19" s="1"/>
+      <c r="CS19" s="1"/>
+      <c r="CT19" s="1"/>
+      <c r="CU19" s="1"/>
+      <c r="CV19" s="1"/>
+      <c r="CW19" s="1"/>
+      <c r="CX19" s="1"/>
+      <c r="CY19" s="1"/>
+      <c r="CZ19" s="1"/>
+      <c r="DA19" s="1"/>
+      <c r="DB19" s="1"/>
+      <c r="DC19" s="1"/>
+      <c r="DD19" s="1"/>
     </row>
-    <row r="20" spans="1:72" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:108" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>45</v>
       </c>
@@ -2760,10 +3574,10 @@
       <c r="AV20" s="1"/>
       <c r="AW20" s="1"/>
       <c r="AX20" s="1"/>
-      <c r="AY20" s="16" t="s">
+      <c r="AY20" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="AZ20" s="16"/>
+      <c r="AZ20" s="20"/>
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
       <c r="BC20" s="1"/>
@@ -2784,8 +3598,44 @@
       <c r="BR20" s="1"/>
       <c r="BS20" s="1"/>
       <c r="BT20" s="1"/>
+      <c r="BU20" s="1"/>
+      <c r="BV20" s="1"/>
+      <c r="BW20" s="1"/>
+      <c r="BX20" s="1"/>
+      <c r="BY20" s="1"/>
+      <c r="BZ20" s="1"/>
+      <c r="CA20" s="1"/>
+      <c r="CB20" s="1"/>
+      <c r="CC20" s="1"/>
+      <c r="CD20" s="1"/>
+      <c r="CE20" s="1"/>
+      <c r="CF20" s="1"/>
+      <c r="CG20" s="1"/>
+      <c r="CH20" s="1"/>
+      <c r="CI20" s="1"/>
+      <c r="CJ20" s="1"/>
+      <c r="CK20" s="1"/>
+      <c r="CL20" s="1"/>
+      <c r="CM20" s="1"/>
+      <c r="CN20" s="1"/>
+      <c r="CO20" s="1"/>
+      <c r="CP20" s="1"/>
+      <c r="CQ20" s="1"/>
+      <c r="CR20" s="1"/>
+      <c r="CS20" s="1"/>
+      <c r="CT20" s="1"/>
+      <c r="CU20" s="1"/>
+      <c r="CV20" s="1"/>
+      <c r="CW20" s="1"/>
+      <c r="CX20" s="1"/>
+      <c r="CY20" s="1"/>
+      <c r="CZ20" s="1"/>
+      <c r="DA20" s="1"/>
+      <c r="DB20" s="1"/>
+      <c r="DC20" s="1"/>
+      <c r="DD20" s="1"/>
     </row>
-    <row r="21" spans="1:72" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:108" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>46</v>
       </c>
@@ -2852,10 +3702,10 @@
       <c r="BH21" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BI21" s="17" t="s">
+      <c r="BI21" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="BJ21" s="17"/>
+      <c r="BJ21" s="16"/>
       <c r="BK21" s="1"/>
       <c r="BL21" s="1"/>
       <c r="BM21" s="1"/>
@@ -2866,8 +3716,44 @@
       <c r="BR21" s="1"/>
       <c r="BS21" s="1"/>
       <c r="BT21" s="1"/>
+      <c r="BU21" s="1"/>
+      <c r="BV21" s="1"/>
+      <c r="BW21" s="1"/>
+      <c r="BX21" s="1"/>
+      <c r="BY21" s="1"/>
+      <c r="BZ21" s="1"/>
+      <c r="CA21" s="1"/>
+      <c r="CB21" s="1"/>
+      <c r="CC21" s="1"/>
+      <c r="CD21" s="1"/>
+      <c r="CE21" s="1"/>
+      <c r="CF21" s="1"/>
+      <c r="CG21" s="1"/>
+      <c r="CH21" s="1"/>
+      <c r="CI21" s="1"/>
+      <c r="CJ21" s="1"/>
+      <c r="CK21" s="1"/>
+      <c r="CL21" s="1"/>
+      <c r="CM21" s="1"/>
+      <c r="CN21" s="1"/>
+      <c r="CO21" s="1"/>
+      <c r="CP21" s="1"/>
+      <c r="CQ21" s="1"/>
+      <c r="CR21" s="1"/>
+      <c r="CS21" s="1"/>
+      <c r="CT21" s="1"/>
+      <c r="CU21" s="1"/>
+      <c r="CV21" s="1"/>
+      <c r="CW21" s="1"/>
+      <c r="CX21" s="1"/>
+      <c r="CY21" s="1"/>
+      <c r="CZ21" s="1"/>
+      <c r="DA21" s="1"/>
+      <c r="DB21" s="1"/>
+      <c r="DC21" s="1"/>
+      <c r="DD21" s="1"/>
     </row>
-    <row r="22" spans="1:72" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:108" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>96</v>
       </c>
@@ -2946,21 +3832,56 @@
       <c r="BR22" s="1"/>
       <c r="BS22" s="1"/>
       <c r="BT22" s="1"/>
+      <c r="BU22" s="1"/>
+      <c r="BV22" s="1"/>
+      <c r="BW22" s="1"/>
+      <c r="BX22" s="1"/>
+      <c r="BY22" s="1"/>
+      <c r="BZ22" s="1"/>
+      <c r="CA22" s="1"/>
+      <c r="CB22" s="1"/>
+      <c r="CC22" s="1"/>
+      <c r="CD22" s="1"/>
+      <c r="CE22" s="1"/>
+      <c r="CF22" s="1"/>
+      <c r="CG22" s="1"/>
+      <c r="CH22" s="1"/>
+      <c r="CI22" s="1"/>
+      <c r="CJ22" s="1"/>
+      <c r="CK22" s="1"/>
+      <c r="CL22" s="1"/>
+      <c r="CM22" s="1"/>
+      <c r="CN22" s="1"/>
+      <c r="CO22" s="1"/>
+      <c r="CP22" s="1"/>
+      <c r="CQ22" s="1"/>
+      <c r="CR22" s="1"/>
+      <c r="CS22" s="1"/>
+      <c r="CT22" s="1"/>
+      <c r="CU22" s="1"/>
+      <c r="CV22" s="1"/>
+      <c r="CW22" s="1"/>
+      <c r="CX22" s="1"/>
+      <c r="CY22" s="1"/>
+      <c r="CZ22" s="1"/>
+      <c r="DA22" s="1"/>
+      <c r="DB22" s="1"/>
+      <c r="DC22" s="1"/>
+      <c r="DD22" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="BN12:BP12"/>
-    <mergeCell ref="BI7:BJ7"/>
+  <mergeCells count="54">
     <mergeCell ref="BI21:BJ21"/>
     <mergeCell ref="BH19:BJ19"/>
     <mergeCell ref="BF19:BG19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="Z18:AC18"/>
-    <mergeCell ref="AY16:BA16"/>
-    <mergeCell ref="AV7:AW7"/>
-    <mergeCell ref="BF13:BG13"/>
-    <mergeCell ref="BF16:BG16"/>
-    <mergeCell ref="BC16:BD16"/>
+    <mergeCell ref="CA10:CE10"/>
+    <mergeCell ref="CA11:CE11"/>
+    <mergeCell ref="BT17:BX17"/>
+    <mergeCell ref="CA17:CE17"/>
+    <mergeCell ref="CA19:CC19"/>
+    <mergeCell ref="BT10:BX10"/>
+    <mergeCell ref="BW11:BX11"/>
+    <mergeCell ref="BN12:BP12"/>
     <mergeCell ref="AY20:AZ20"/>
     <mergeCell ref="AD10:AL10"/>
     <mergeCell ref="AS19:AW19"/>
@@ -2970,6 +3891,8 @@
     <mergeCell ref="AJ16:AO16"/>
     <mergeCell ref="AL11:AM11"/>
     <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AY16:BA16"/>
+    <mergeCell ref="B19:T19"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="L2:U2"/>
     <mergeCell ref="F2:I2"/>
@@ -2977,10 +3900,9 @@
     <mergeCell ref="K3:Q3"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="B19:T19"/>
-    <mergeCell ref="Y5:AB5"/>
-    <mergeCell ref="AO5:AQ5"/>
-    <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="BF13:BG13"/>
+    <mergeCell ref="BF16:BG16"/>
     <mergeCell ref="AZ2:BB2"/>
     <mergeCell ref="U19:Y19"/>
     <mergeCell ref="W17:AA17"/>
@@ -2993,6 +3915,16 @@
     <mergeCell ref="Q10:U10"/>
     <mergeCell ref="W10:X10"/>
     <mergeCell ref="AS16:AT16"/>
+    <mergeCell ref="Z18:AC18"/>
+    <mergeCell ref="BI7:BJ7"/>
+    <mergeCell ref="CH11:CJ11"/>
+    <mergeCell ref="Y5:AB5"/>
+    <mergeCell ref="AO5:AQ5"/>
+    <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="AV7:AW7"/>
+    <mergeCell ref="BC16:BD16"/>
+    <mergeCell ref="CH10:CM10"/>
+    <mergeCell ref="CH17:CM17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/项目进度表.xlsx
+++ b/项目进度表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="125">
   <si>
     <t>顺丰项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -492,6 +492,42 @@
   </si>
   <si>
     <t>V410R4B001测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工装测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V410R1B001SP01测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.2.0-ALPHA版需求评审与用例编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.4.0用例评审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW_CA_SU_V200R001B111提测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW_CA_SU_V200R001B111第一轮测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW_CA_SU_V200R001B110提测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW_CA_SU_V200R001B110测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A柱摄像头横放方案测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -626,7 +662,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -676,6 +712,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -687,6 +729,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -968,13 +1019,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DD22"/>
+  <dimension ref="A1:DS22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="BT6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="CH5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="CK14" sqref="CK14"/>
+      <selection pane="bottomRight" activeCell="CV17" sqref="CV17:DA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -985,7 +1036,7 @@
     <col min="63" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:108" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:123" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
@@ -1310,37 +1361,82 @@
       <c r="DD1" s="6">
         <v>43662</v>
       </c>
+      <c r="DE1" s="6">
+        <v>43663</v>
+      </c>
+      <c r="DF1" s="6">
+        <v>43664</v>
+      </c>
+      <c r="DG1" s="6">
+        <v>43665</v>
+      </c>
+      <c r="DH1" s="6">
+        <v>43666</v>
+      </c>
+      <c r="DI1" s="6">
+        <v>43667</v>
+      </c>
+      <c r="DJ1" s="6">
+        <v>43668</v>
+      </c>
+      <c r="DK1" s="6">
+        <v>43669</v>
+      </c>
+      <c r="DL1" s="6">
+        <v>43670</v>
+      </c>
+      <c r="DM1" s="6">
+        <v>43671</v>
+      </c>
+      <c r="DN1" s="6">
+        <v>43672</v>
+      </c>
+      <c r="DO1" s="6">
+        <v>43673</v>
+      </c>
+      <c r="DP1" s="6">
+        <v>43674</v>
+      </c>
+      <c r="DQ1" s="6">
+        <v>43675</v>
+      </c>
+      <c r="DR1" s="6">
+        <v>43676</v>
+      </c>
+      <c r="DS1" s="6">
+        <v>43677</v>
+      </c>
     </row>
-    <row r="2" spans="1:108" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:123" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="20" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
@@ -1366,22 +1462,22 @@
       <c r="AR2" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="AS2" s="20" t="s">
+      <c r="AS2" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="AT2" s="20"/>
-      <c r="AU2" s="20"/>
+      <c r="AT2" s="22"/>
+      <c r="AU2" s="22"/>
       <c r="AV2" s="1"/>
       <c r="AW2" s="1"/>
       <c r="AX2" s="1"/>
       <c r="AY2" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="AZ2" s="20" t="s">
+      <c r="AZ2" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="BA2" s="20"/>
-      <c r="BB2" s="20"/>
+      <c r="BA2" s="22"/>
+      <c r="BB2" s="22"/>
       <c r="BC2" s="1"/>
       <c r="BD2" s="1"/>
       <c r="BE2" s="1"/>
@@ -1438,8 +1534,23 @@
       <c r="DB2" s="1"/>
       <c r="DC2" s="1"/>
       <c r="DD2" s="1"/>
+      <c r="DE2" s="1"/>
+      <c r="DF2" s="1"/>
+      <c r="DG2" s="1"/>
+      <c r="DH2" s="1"/>
+      <c r="DI2" s="1"/>
+      <c r="DJ2" s="1"/>
+      <c r="DK2" s="1"/>
+      <c r="DL2" s="1"/>
+      <c r="DM2" s="1"/>
+      <c r="DN2" s="1"/>
+      <c r="DO2" s="1"/>
+      <c r="DP2" s="1"/>
+      <c r="DQ2" s="1"/>
+      <c r="DR2" s="1"/>
+      <c r="DS2" s="1"/>
     </row>
-    <row r="3" spans="1:108" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:123" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -1452,33 +1563,33 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
       <c r="R3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="S3" s="20" t="s">
+      <c r="S3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="20"/>
+      <c r="T3" s="22"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
-      <c r="AA3" s="20" t="s">
+      <c r="AA3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="AB3" s="20"/>
-      <c r="AC3" s="20"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="22"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
@@ -1560,8 +1671,23 @@
       <c r="DB3" s="1"/>
       <c r="DC3" s="1"/>
       <c r="DD3" s="1"/>
+      <c r="DE3" s="1"/>
+      <c r="DF3" s="1"/>
+      <c r="DG3" s="1"/>
+      <c r="DH3" s="1"/>
+      <c r="DI3" s="1"/>
+      <c r="DJ3" s="1"/>
+      <c r="DK3" s="1"/>
+      <c r="DL3" s="1"/>
+      <c r="DM3" s="1"/>
+      <c r="DN3" s="1"/>
+      <c r="DO3" s="1"/>
+      <c r="DP3" s="1"/>
+      <c r="DQ3" s="1"/>
+      <c r="DR3" s="1"/>
+      <c r="DS3" s="1"/>
     </row>
-    <row r="4" spans="1:108" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:123" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -1620,10 +1746,10 @@
       </c>
       <c r="AW4" s="1"/>
       <c r="AX4" s="1"/>
-      <c r="AY4" s="20" t="s">
+      <c r="AY4" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="AZ4" s="20"/>
+      <c r="AZ4" s="22"/>
       <c r="BA4" s="14"/>
       <c r="BB4" s="1"/>
       <c r="BC4" s="14"/>
@@ -1682,8 +1808,23 @@
       <c r="DB4" s="1"/>
       <c r="DC4" s="1"/>
       <c r="DD4" s="1"/>
+      <c r="DE4" s="1"/>
+      <c r="DF4" s="1"/>
+      <c r="DG4" s="1"/>
+      <c r="DH4" s="1"/>
+      <c r="DI4" s="1"/>
+      <c r="DJ4" s="1"/>
+      <c r="DK4" s="1"/>
+      <c r="DL4" s="1"/>
+      <c r="DM4" s="1"/>
+      <c r="DN4" s="1"/>
+      <c r="DO4" s="1"/>
+      <c r="DP4" s="1"/>
+      <c r="DQ4" s="1"/>
+      <c r="DR4" s="1"/>
+      <c r="DS4" s="1"/>
     </row>
-    <row r="5" spans="1:108" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:123" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
@@ -1712,12 +1853,12 @@
         <v>13</v>
       </c>
       <c r="X5" s="1"/>
-      <c r="Y5" s="20" t="s">
+      <c r="Y5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="20"/>
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="22"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
@@ -1730,11 +1871,11 @@
       <c r="AL5" s="1"/>
       <c r="AM5" s="1"/>
       <c r="AN5" s="1"/>
-      <c r="AO5" s="20" t="s">
+      <c r="AO5" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="AP5" s="20"/>
-      <c r="AQ5" s="20"/>
+      <c r="AP5" s="22"/>
+      <c r="AQ5" s="22"/>
       <c r="AR5" s="1"/>
       <c r="AS5" s="11" t="s">
         <v>52</v>
@@ -1793,17 +1934,36 @@
       <c r="CS5" s="1"/>
       <c r="CT5" s="1"/>
       <c r="CU5" s="1"/>
-      <c r="CV5" s="1"/>
+      <c r="CV5" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="CW5" s="1"/>
       <c r="CX5" s="1"/>
-      <c r="CY5" s="1"/>
-      <c r="CZ5" s="1"/>
-      <c r="DA5" s="1"/>
+      <c r="CY5" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="CZ5" s="20"/>
+      <c r="DA5" s="21"/>
       <c r="DB5" s="1"/>
       <c r="DC5" s="1"/>
       <c r="DD5" s="1"/>
+      <c r="DE5" s="1"/>
+      <c r="DF5" s="1"/>
+      <c r="DG5" s="1"/>
+      <c r="DH5" s="1"/>
+      <c r="DI5" s="1"/>
+      <c r="DJ5" s="1"/>
+      <c r="DK5" s="1"/>
+      <c r="DL5" s="1"/>
+      <c r="DM5" s="1"/>
+      <c r="DN5" s="1"/>
+      <c r="DO5" s="1"/>
+      <c r="DP5" s="1"/>
+      <c r="DQ5" s="1"/>
+      <c r="DR5" s="1"/>
+      <c r="DS5" s="1"/>
     </row>
-    <row r="6" spans="1:108" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:123" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
@@ -1857,10 +2017,10 @@
         <v>82</v>
       </c>
       <c r="AU6" s="1"/>
-      <c r="AV6" s="20" t="s">
+      <c r="AV6" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="AW6" s="20"/>
+      <c r="AW6" s="22"/>
       <c r="AX6" s="1"/>
       <c r="AY6" s="1"/>
       <c r="AZ6" s="1"/>
@@ -1930,8 +2090,23 @@
       <c r="DB6" s="1"/>
       <c r="DC6" s="1"/>
       <c r="DD6" s="1"/>
+      <c r="DE6" s="1"/>
+      <c r="DF6" s="1"/>
+      <c r="DG6" s="1"/>
+      <c r="DH6" s="1"/>
+      <c r="DI6" s="1"/>
+      <c r="DJ6" s="1"/>
+      <c r="DK6" s="1"/>
+      <c r="DL6" s="1"/>
+      <c r="DM6" s="1"/>
+      <c r="DN6" s="1"/>
+      <c r="DO6" s="1"/>
+      <c r="DP6" s="1"/>
+      <c r="DQ6" s="1"/>
+      <c r="DR6" s="1"/>
+      <c r="DS6" s="1"/>
     </row>
-    <row r="7" spans="1:108" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:123" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>61</v>
       </c>
@@ -1985,10 +2160,10 @@
       </c>
       <c r="AT7" s="4"/>
       <c r="AU7" s="1"/>
-      <c r="AV7" s="20" t="s">
+      <c r="AV7" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="AW7" s="20"/>
+      <c r="AW7" s="22"/>
       <c r="AX7" s="1"/>
       <c r="AY7" s="1"/>
       <c r="AZ7" s="1"/>
@@ -1996,10 +2171,10 @@
       <c r="BB7" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="BC7" s="16" t="s">
+      <c r="BC7" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="BD7" s="16"/>
+      <c r="BD7" s="18"/>
       <c r="BE7" s="1"/>
       <c r="BF7" s="13" t="s">
         <v>86</v>
@@ -2008,10 +2183,10 @@
       <c r="BH7" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="BI7" s="16" t="s">
+      <c r="BI7" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="BJ7" s="16"/>
+      <c r="BJ7" s="18"/>
       <c r="BK7" s="1"/>
       <c r="BL7" s="1"/>
       <c r="BM7" s="1"/>
@@ -2053,15 +2228,34 @@
       <c r="CU7" s="1"/>
       <c r="CV7" s="1"/>
       <c r="CW7" s="1"/>
-      <c r="CX7" s="1"/>
-      <c r="CY7" s="1"/>
-      <c r="CZ7" s="1"/>
-      <c r="DA7" s="1"/>
+      <c r="CX7" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="CY7" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="CZ7" s="24"/>
+      <c r="DA7" s="25"/>
       <c r="DB7" s="1"/>
       <c r="DC7" s="1"/>
       <c r="DD7" s="1"/>
+      <c r="DE7" s="1"/>
+      <c r="DF7" s="1"/>
+      <c r="DG7" s="1"/>
+      <c r="DH7" s="1"/>
+      <c r="DI7" s="1"/>
+      <c r="DJ7" s="1"/>
+      <c r="DK7" s="1"/>
+      <c r="DL7" s="1"/>
+      <c r="DM7" s="1"/>
+      <c r="DN7" s="1"/>
+      <c r="DO7" s="1"/>
+      <c r="DP7" s="1"/>
+      <c r="DQ7" s="1"/>
+      <c r="DR7" s="1"/>
+      <c r="DS7" s="1"/>
     </row>
-    <row r="8" spans="1:108" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:123" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>19</v>
       </c>
@@ -2174,8 +2368,23 @@
       <c r="DB8" s="1"/>
       <c r="DC8" s="1"/>
       <c r="DD8" s="1"/>
+      <c r="DE8" s="1"/>
+      <c r="DF8" s="1"/>
+      <c r="DG8" s="1"/>
+      <c r="DH8" s="1"/>
+      <c r="DI8" s="1"/>
+      <c r="DJ8" s="1"/>
+      <c r="DK8" s="1"/>
+      <c r="DL8" s="1"/>
+      <c r="DM8" s="1"/>
+      <c r="DN8" s="1"/>
+      <c r="DO8" s="1"/>
+      <c r="DP8" s="1"/>
+      <c r="DQ8" s="1"/>
+      <c r="DR8" s="1"/>
+      <c r="DS8" s="1"/>
     </row>
-    <row r="9" spans="1:108" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:123" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>62</v>
       </c>
@@ -2209,15 +2418,15 @@
       <c r="AA9" s="3"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
-      <c r="AD9" s="20" t="s">
+      <c r="AD9" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="AE9" s="20"/>
-      <c r="AF9" s="20"/>
-      <c r="AG9" s="20"/>
-      <c r="AH9" s="20"/>
-      <c r="AI9" s="20"/>
-      <c r="AJ9" s="20"/>
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="22"/>
+      <c r="AH9" s="22"/>
+      <c r="AI9" s="22"/>
+      <c r="AJ9" s="22"/>
       <c r="AK9" s="1"/>
       <c r="AL9" s="1"/>
       <c r="AM9" s="1"/>
@@ -2229,10 +2438,10 @@
         <v>48</v>
       </c>
       <c r="AS9" s="1"/>
-      <c r="AT9" s="16" t="s">
+      <c r="AT9" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="AU9" s="20"/>
+      <c r="AU9" s="22"/>
       <c r="AV9" s="11" t="s">
         <v>76</v>
       </c>
@@ -2296,8 +2505,23 @@
       <c r="DB9" s="1"/>
       <c r="DC9" s="1"/>
       <c r="DD9" s="1"/>
+      <c r="DE9" s="1"/>
+      <c r="DF9" s="1"/>
+      <c r="DG9" s="1"/>
+      <c r="DH9" s="1"/>
+      <c r="DI9" s="1"/>
+      <c r="DJ9" s="1"/>
+      <c r="DK9" s="1"/>
+      <c r="DL9" s="1"/>
+      <c r="DM9" s="1"/>
+      <c r="DN9" s="1"/>
+      <c r="DO9" s="1"/>
+      <c r="DP9" s="1"/>
+      <c r="DQ9" s="1"/>
+      <c r="DR9" s="1"/>
+      <c r="DS9" s="1"/>
     </row>
-    <row r="10" spans="1:108" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:123" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>5</v>
       </c>
@@ -2320,34 +2544,34 @@
         <v>28</v>
       </c>
       <c r="P10" s="1"/>
-      <c r="Q10" s="20" t="s">
+      <c r="Q10" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
       <c r="V10" s="1"/>
-      <c r="W10" s="20" t="s">
+      <c r="W10" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="X10" s="20"/>
+      <c r="X10" s="22"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
-      <c r="AD10" s="20" t="s">
+      <c r="AD10" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="AE10" s="20"/>
-      <c r="AF10" s="20"/>
-      <c r="AG10" s="20"/>
-      <c r="AH10" s="20"/>
-      <c r="AI10" s="20"/>
-      <c r="AJ10" s="20"/>
-      <c r="AK10" s="20"/>
-      <c r="AL10" s="20"/>
+      <c r="AE10" s="22"/>
+      <c r="AF10" s="22"/>
+      <c r="AG10" s="22"/>
+      <c r="AH10" s="22"/>
+      <c r="AI10" s="22"/>
+      <c r="AJ10" s="22"/>
+      <c r="AK10" s="22"/>
+      <c r="AL10" s="22"/>
       <c r="AM10" s="1"/>
       <c r="AN10" s="1"/>
       <c r="AO10" s="1"/>
@@ -2387,39 +2611,41 @@
       <c r="BQ10" s="1"/>
       <c r="BR10" s="1"/>
       <c r="BS10" s="1"/>
-      <c r="BT10" s="20" t="s">
+      <c r="BT10" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="BU10" s="20"/>
-      <c r="BV10" s="20"/>
-      <c r="BW10" s="20"/>
-      <c r="BX10" s="20"/>
+      <c r="BU10" s="22"/>
+      <c r="BV10" s="22"/>
+      <c r="BW10" s="22"/>
+      <c r="BX10" s="22"/>
       <c r="BY10" s="1"/>
       <c r="BZ10" s="1"/>
-      <c r="CA10" s="20" t="s">
+      <c r="CA10" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="CB10" s="20"/>
-      <c r="CC10" s="20"/>
-      <c r="CD10" s="20"/>
-      <c r="CE10" s="20"/>
+      <c r="CB10" s="22"/>
+      <c r="CC10" s="22"/>
+      <c r="CD10" s="22"/>
+      <c r="CE10" s="22"/>
       <c r="CF10" s="1"/>
       <c r="CG10" s="1"/>
-      <c r="CH10" s="17" t="s">
+      <c r="CH10" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="CI10" s="18"/>
-      <c r="CJ10" s="18"/>
-      <c r="CK10" s="18"/>
-      <c r="CL10" s="18"/>
-      <c r="CM10" s="19"/>
+      <c r="CI10" s="20"/>
+      <c r="CJ10" s="20"/>
+      <c r="CK10" s="20"/>
+      <c r="CL10" s="20"/>
+      <c r="CM10" s="21"/>
       <c r="CN10" s="1"/>
-      <c r="CO10" s="1"/>
-      <c r="CP10" s="1"/>
-      <c r="CQ10" s="1"/>
-      <c r="CR10" s="1"/>
-      <c r="CS10" s="1"/>
-      <c r="CT10" s="1"/>
+      <c r="CO10" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="CP10" s="20"/>
+      <c r="CQ10" s="20"/>
+      <c r="CR10" s="20"/>
+      <c r="CS10" s="20"/>
+      <c r="CT10" s="21"/>
       <c r="CU10" s="1"/>
       <c r="CV10" s="1"/>
       <c r="CW10" s="1"/>
@@ -2430,8 +2656,23 @@
       <c r="DB10" s="1"/>
       <c r="DC10" s="1"/>
       <c r="DD10" s="1"/>
+      <c r="DE10" s="1"/>
+      <c r="DF10" s="1"/>
+      <c r="DG10" s="1"/>
+      <c r="DH10" s="1"/>
+      <c r="DI10" s="1"/>
+      <c r="DJ10" s="1"/>
+      <c r="DK10" s="1"/>
+      <c r="DL10" s="1"/>
+      <c r="DM10" s="1"/>
+      <c r="DN10" s="1"/>
+      <c r="DO10" s="1"/>
+      <c r="DP10" s="1"/>
+      <c r="DQ10" s="1"/>
+      <c r="DR10" s="1"/>
+      <c r="DS10" s="1"/>
     </row>
-    <row r="11" spans="1:108" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:123" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>6</v>
       </c>
@@ -2471,10 +2712,10 @@
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
-      <c r="AL11" s="16" t="s">
+      <c r="AL11" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="AM11" s="16"/>
+      <c r="AM11" s="18"/>
       <c r="AN11" s="1"/>
       <c r="AO11" s="1"/>
       <c r="AP11" s="1"/>
@@ -2512,26 +2753,26 @@
       <c r="BV11" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="BW11" s="20" t="s">
+      <c r="BW11" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="BX11" s="20"/>
+      <c r="BX11" s="22"/>
       <c r="BY11" s="1"/>
       <c r="BZ11" s="1"/>
-      <c r="CA11" s="17" t="s">
+      <c r="CA11" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="CB11" s="18"/>
-      <c r="CC11" s="18"/>
-      <c r="CD11" s="18"/>
-      <c r="CE11" s="19"/>
+      <c r="CB11" s="20"/>
+      <c r="CC11" s="20"/>
+      <c r="CD11" s="20"/>
+      <c r="CE11" s="21"/>
       <c r="CF11" s="1"/>
       <c r="CG11" s="1"/>
-      <c r="CH11" s="17" t="s">
+      <c r="CH11" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="CI11" s="18"/>
-      <c r="CJ11" s="19"/>
+      <c r="CI11" s="20"/>
+      <c r="CJ11" s="21"/>
       <c r="CK11" s="1"/>
       <c r="CL11" s="1"/>
       <c r="CM11" s="1"/>
@@ -2552,8 +2793,23 @@
       <c r="DB11" s="1"/>
       <c r="DC11" s="1"/>
       <c r="DD11" s="1"/>
+      <c r="DE11" s="1"/>
+      <c r="DF11" s="1"/>
+      <c r="DG11" s="1"/>
+      <c r="DH11" s="1"/>
+      <c r="DI11" s="1"/>
+      <c r="DJ11" s="1"/>
+      <c r="DK11" s="1"/>
+      <c r="DL11" s="1"/>
+      <c r="DM11" s="1"/>
+      <c r="DN11" s="1"/>
+      <c r="DO11" s="1"/>
+      <c r="DP11" s="1"/>
+      <c r="DQ11" s="1"/>
+      <c r="DR11" s="1"/>
+      <c r="DS11" s="1"/>
     </row>
-    <row r="12" spans="1:108" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:123" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>23</v>
       </c>
@@ -2625,11 +2881,11 @@
       <c r="BM12" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="BN12" s="17" t="s">
+      <c r="BN12" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="BO12" s="18"/>
-      <c r="BP12" s="19"/>
+      <c r="BO12" s="20"/>
+      <c r="BP12" s="21"/>
       <c r="BQ12" s="1"/>
       <c r="BR12" s="1"/>
       <c r="BS12" s="1"/>
@@ -2670,8 +2926,23 @@
       <c r="DB12" s="1"/>
       <c r="DC12" s="1"/>
       <c r="DD12" s="1"/>
+      <c r="DE12" s="1"/>
+      <c r="DF12" s="1"/>
+      <c r="DG12" s="1"/>
+      <c r="DH12" s="1"/>
+      <c r="DI12" s="1"/>
+      <c r="DJ12" s="1"/>
+      <c r="DK12" s="1"/>
+      <c r="DL12" s="1"/>
+      <c r="DM12" s="1"/>
+      <c r="DN12" s="1"/>
+      <c r="DO12" s="1"/>
+      <c r="DP12" s="1"/>
+      <c r="DQ12" s="1"/>
+      <c r="DR12" s="1"/>
+      <c r="DS12" s="1"/>
     </row>
-    <row r="13" spans="1:108" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:123" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>24</v>
       </c>
@@ -2726,10 +2997,10 @@
       <c r="AV13" s="1"/>
       <c r="AW13" s="1"/>
       <c r="AX13" s="1"/>
-      <c r="AY13" s="20" t="s">
+      <c r="AY13" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="AZ13" s="20"/>
+      <c r="AZ13" s="22"/>
       <c r="BA13" s="12" t="s">
         <v>63</v>
       </c>
@@ -2739,10 +3010,10 @@
         <v>80</v>
       </c>
       <c r="BE13" s="1"/>
-      <c r="BF13" s="20" t="s">
+      <c r="BF13" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="BG13" s="20"/>
+      <c r="BG13" s="22"/>
       <c r="BH13" s="11" t="s">
         <v>92</v>
       </c>
@@ -2794,8 +3065,23 @@
       <c r="DB13" s="1"/>
       <c r="DC13" s="1"/>
       <c r="DD13" s="1"/>
+      <c r="DE13" s="1"/>
+      <c r="DF13" s="1"/>
+      <c r="DG13" s="1"/>
+      <c r="DH13" s="1"/>
+      <c r="DI13" s="1"/>
+      <c r="DJ13" s="1"/>
+      <c r="DK13" s="1"/>
+      <c r="DL13" s="1"/>
+      <c r="DM13" s="1"/>
+      <c r="DN13" s="1"/>
+      <c r="DO13" s="1"/>
+      <c r="DP13" s="1"/>
+      <c r="DQ13" s="1"/>
+      <c r="DR13" s="1"/>
+      <c r="DS13" s="1"/>
     </row>
-    <row r="14" spans="1:108" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:123" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>72</v>
       </c>
@@ -2908,8 +3194,23 @@
       <c r="DB14" s="1"/>
       <c r="DC14" s="1"/>
       <c r="DD14" s="1"/>
+      <c r="DE14" s="1"/>
+      <c r="DF14" s="1"/>
+      <c r="DG14" s="1"/>
+      <c r="DH14" s="1"/>
+      <c r="DI14" s="1"/>
+      <c r="DJ14" s="1"/>
+      <c r="DK14" s="1"/>
+      <c r="DL14" s="1"/>
+      <c r="DM14" s="1"/>
+      <c r="DN14" s="1"/>
+      <c r="DO14" s="1"/>
+      <c r="DP14" s="1"/>
+      <c r="DQ14" s="1"/>
+      <c r="DR14" s="1"/>
+      <c r="DS14" s="1"/>
     </row>
-    <row r="15" spans="1:108" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:123" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>73</v>
       </c>
@@ -3022,8 +3323,23 @@
       <c r="DB15" s="1"/>
       <c r="DC15" s="1"/>
       <c r="DD15" s="1"/>
+      <c r="DE15" s="1"/>
+      <c r="DF15" s="1"/>
+      <c r="DG15" s="1"/>
+      <c r="DH15" s="1"/>
+      <c r="DI15" s="1"/>
+      <c r="DJ15" s="1"/>
+      <c r="DK15" s="1"/>
+      <c r="DL15" s="1"/>
+      <c r="DM15" s="1"/>
+      <c r="DN15" s="1"/>
+      <c r="DO15" s="1"/>
+      <c r="DP15" s="1"/>
+      <c r="DQ15" s="1"/>
+      <c r="DR15" s="1"/>
+      <c r="DS15" s="1"/>
     </row>
-    <row r="16" spans="1:108" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:123" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>34</v>
       </c>
@@ -3061,44 +3377,44 @@
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
-      <c r="AJ16" s="20" t="s">
+      <c r="AJ16" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="AK16" s="20"/>
-      <c r="AL16" s="20"/>
-      <c r="AM16" s="20"/>
-      <c r="AN16" s="20"/>
-      <c r="AO16" s="20"/>
-      <c r="AP16" s="16" t="s">
+      <c r="AK16" s="22"/>
+      <c r="AL16" s="22"/>
+      <c r="AM16" s="22"/>
+      <c r="AN16" s="22"/>
+      <c r="AO16" s="22"/>
+      <c r="AP16" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="AQ16" s="16"/>
+      <c r="AQ16" s="18"/>
       <c r="AR16" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="AS16" s="16" t="s">
+      <c r="AS16" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="AT16" s="16"/>
+      <c r="AT16" s="18"/>
       <c r="AU16" s="1"/>
       <c r="AV16" s="1"/>
       <c r="AW16" s="1"/>
       <c r="AX16" s="1"/>
-      <c r="AY16" s="16" t="s">
+      <c r="AY16" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="AZ16" s="16"/>
-      <c r="BA16" s="16"/>
+      <c r="AZ16" s="18"/>
+      <c r="BA16" s="18"/>
       <c r="BB16" s="1"/>
-      <c r="BC16" s="20" t="s">
+      <c r="BC16" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="BD16" s="20"/>
+      <c r="BD16" s="22"/>
       <c r="BE16" s="1"/>
-      <c r="BF16" s="20" t="s">
+      <c r="BF16" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="BG16" s="20"/>
+      <c r="BG16" s="22"/>
       <c r="BH16" s="1"/>
       <c r="BI16" s="1"/>
       <c r="BJ16" s="1"/>
@@ -3148,8 +3464,23 @@
       <c r="DB16" s="1"/>
       <c r="DC16" s="1"/>
       <c r="DD16" s="1"/>
+      <c r="DE16" s="1"/>
+      <c r="DF16" s="1"/>
+      <c r="DG16" s="1"/>
+      <c r="DH16" s="1"/>
+      <c r="DI16" s="1"/>
+      <c r="DJ16" s="1"/>
+      <c r="DK16" s="1"/>
+      <c r="DL16" s="1"/>
+      <c r="DM16" s="1"/>
+      <c r="DN16" s="1"/>
+      <c r="DO16" s="1"/>
+      <c r="DP16" s="1"/>
+      <c r="DQ16" s="1"/>
+      <c r="DR16" s="1"/>
+      <c r="DS16" s="1"/>
     </row>
-    <row r="17" spans="1:108" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:123" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>33</v>
       </c>
@@ -3174,18 +3505,18 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
-      <c r="W17" s="20" t="s">
+      <c r="W17" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="X17" s="20"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="20"/>
-      <c r="AB17" s="20" t="s">
+      <c r="X17" s="22"/>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="22"/>
+      <c r="AA17" s="22"/>
+      <c r="AB17" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AC17" s="20"/>
-      <c r="AD17" s="20"/>
+      <c r="AC17" s="22"/>
+      <c r="AD17" s="22"/>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
@@ -3227,32 +3558,32 @@
       <c r="BQ17" s="1"/>
       <c r="BR17" s="1"/>
       <c r="BS17" s="1"/>
-      <c r="BT17" s="20" t="s">
+      <c r="BT17" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="BU17" s="20"/>
-      <c r="BV17" s="20"/>
-      <c r="BW17" s="20"/>
-      <c r="BX17" s="20"/>
+      <c r="BU17" s="22"/>
+      <c r="BV17" s="22"/>
+      <c r="BW17" s="22"/>
+      <c r="BX17" s="22"/>
       <c r="BY17" s="1"/>
       <c r="BZ17" s="1"/>
-      <c r="CA17" s="20" t="s">
+      <c r="CA17" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="CB17" s="20"/>
-      <c r="CC17" s="20"/>
-      <c r="CD17" s="20"/>
-      <c r="CE17" s="20"/>
+      <c r="CB17" s="22"/>
+      <c r="CC17" s="22"/>
+      <c r="CD17" s="22"/>
+      <c r="CE17" s="22"/>
       <c r="CF17" s="1"/>
       <c r="CG17" s="1"/>
-      <c r="CH17" s="17" t="s">
+      <c r="CH17" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="CI17" s="18"/>
-      <c r="CJ17" s="18"/>
-      <c r="CK17" s="18"/>
-      <c r="CL17" s="18"/>
-      <c r="CM17" s="19"/>
+      <c r="CI17" s="20"/>
+      <c r="CJ17" s="20"/>
+      <c r="CK17" s="20"/>
+      <c r="CL17" s="20"/>
+      <c r="CM17" s="21"/>
       <c r="CN17" s="1"/>
       <c r="CO17" s="1"/>
       <c r="CP17" s="1"/>
@@ -3261,24 +3592,41 @@
       <c r="CS17" s="1"/>
       <c r="CT17" s="1"/>
       <c r="CU17" s="1"/>
-      <c r="CV17" s="1"/>
-      <c r="CW17" s="1"/>
-      <c r="CX17" s="1"/>
-      <c r="CY17" s="1"/>
-      <c r="CZ17" s="1"/>
-      <c r="DA17" s="1"/>
+      <c r="CV17" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="CW17" s="20"/>
+      <c r="CX17" s="20"/>
+      <c r="CY17" s="20"/>
+      <c r="CZ17" s="20"/>
+      <c r="DA17" s="21"/>
       <c r="DB17" s="1"/>
       <c r="DC17" s="1"/>
       <c r="DD17" s="1"/>
+      <c r="DE17" s="1"/>
+      <c r="DF17" s="1"/>
+      <c r="DG17" s="1"/>
+      <c r="DH17" s="1"/>
+      <c r="DI17" s="1"/>
+      <c r="DJ17" s="1"/>
+      <c r="DK17" s="1"/>
+      <c r="DL17" s="1"/>
+      <c r="DM17" s="1"/>
+      <c r="DN17" s="1"/>
+      <c r="DO17" s="1"/>
+      <c r="DP17" s="1"/>
+      <c r="DQ17" s="1"/>
+      <c r="DR17" s="1"/>
+      <c r="DS17" s="1"/>
     </row>
-    <row r="18" spans="1:108" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:123" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -3301,16 +3649,16 @@
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
-      <c r="Z18" s="20" t="s">
+      <c r="Z18" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="AA18" s="20"/>
-      <c r="AB18" s="20"/>
-      <c r="AC18" s="20"/>
-      <c r="AD18" s="20" t="s">
+      <c r="AA18" s="22"/>
+      <c r="AB18" s="22"/>
+      <c r="AC18" s="22"/>
+      <c r="AD18" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="AE18" s="20"/>
+      <c r="AE18" s="22"/>
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
       <c r="AH18" s="1"/>
@@ -3388,39 +3736,54 @@
       <c r="DB18" s="1"/>
       <c r="DC18" s="1"/>
       <c r="DD18" s="1"/>
+      <c r="DE18" s="1"/>
+      <c r="DF18" s="1"/>
+      <c r="DG18" s="1"/>
+      <c r="DH18" s="1"/>
+      <c r="DI18" s="1"/>
+      <c r="DJ18" s="1"/>
+      <c r="DK18" s="1"/>
+      <c r="DL18" s="1"/>
+      <c r="DM18" s="1"/>
+      <c r="DN18" s="1"/>
+      <c r="DO18" s="1"/>
+      <c r="DP18" s="1"/>
+      <c r="DQ18" s="1"/>
+      <c r="DR18" s="1"/>
+      <c r="DS18" s="1"/>
     </row>
-    <row r="19" spans="1:108" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:123" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20" t="s">
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="V19" s="20"/>
-      <c r="W19" s="20"/>
-      <c r="X19" s="20"/>
-      <c r="Y19" s="20"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="22"/>
+      <c r="X19" s="22"/>
+      <c r="Y19" s="22"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
@@ -3431,45 +3794,45 @@
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
-      <c r="AJ19" s="20" t="s">
+      <c r="AJ19" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="AK19" s="20"/>
-      <c r="AL19" s="20"/>
-      <c r="AM19" s="20"/>
-      <c r="AN19" s="20"/>
-      <c r="AO19" s="20"/>
+      <c r="AK19" s="22"/>
+      <c r="AL19" s="22"/>
+      <c r="AM19" s="22"/>
+      <c r="AN19" s="22"/>
+      <c r="AO19" s="22"/>
       <c r="AP19" s="1"/>
       <c r="AQ19" s="1"/>
       <c r="AR19" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="AS19" s="20" t="s">
+      <c r="AS19" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="AT19" s="20"/>
-      <c r="AU19" s="20"/>
-      <c r="AV19" s="20"/>
-      <c r="AW19" s="20"/>
+      <c r="AT19" s="22"/>
+      <c r="AU19" s="22"/>
+      <c r="AV19" s="22"/>
+      <c r="AW19" s="22"/>
       <c r="AX19" s="1"/>
-      <c r="AY19" s="16" t="s">
+      <c r="AY19" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="AZ19" s="16"/>
-      <c r="BA19" s="16"/>
-      <c r="BB19" s="16"/>
-      <c r="BC19" s="16"/>
+      <c r="AZ19" s="18"/>
+      <c r="BA19" s="18"/>
+      <c r="BB19" s="18"/>
+      <c r="BC19" s="18"/>
       <c r="BD19" s="1"/>
       <c r="BE19" s="1"/>
-      <c r="BF19" s="20" t="s">
+      <c r="BF19" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="BG19" s="20"/>
-      <c r="BH19" s="17" t="s">
+      <c r="BG19" s="22"/>
+      <c r="BH19" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="BI19" s="18"/>
-      <c r="BJ19" s="19"/>
+      <c r="BI19" s="20"/>
+      <c r="BJ19" s="21"/>
       <c r="BK19" s="1"/>
       <c r="BL19" s="1"/>
       <c r="BM19" s="1"/>
@@ -3486,11 +3849,11 @@
       <c r="BX19" s="1"/>
       <c r="BY19" s="1"/>
       <c r="BZ19" s="1"/>
-      <c r="CA19" s="17" t="s">
+      <c r="CA19" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="CB19" s="18"/>
-      <c r="CC19" s="19"/>
+      <c r="CB19" s="20"/>
+      <c r="CC19" s="21"/>
       <c r="CD19" s="1"/>
       <c r="CE19" s="1"/>
       <c r="CF19" s="1"/>
@@ -3504,22 +3867,41 @@
       <c r="CN19" s="1"/>
       <c r="CO19" s="1"/>
       <c r="CP19" s="1"/>
-      <c r="CQ19" s="1"/>
-      <c r="CR19" s="1"/>
-      <c r="CS19" s="1"/>
+      <c r="CQ19" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="CR19" s="20"/>
+      <c r="CS19" s="21"/>
       <c r="CT19" s="1"/>
       <c r="CU19" s="1"/>
       <c r="CV19" s="1"/>
       <c r="CW19" s="1"/>
       <c r="CX19" s="1"/>
-      <c r="CY19" s="1"/>
+      <c r="CY19" s="16" t="s">
+        <v>119</v>
+      </c>
       <c r="CZ19" s="1"/>
       <c r="DA19" s="1"/>
       <c r="DB19" s="1"/>
       <c r="DC19" s="1"/>
       <c r="DD19" s="1"/>
+      <c r="DE19" s="1"/>
+      <c r="DF19" s="1"/>
+      <c r="DG19" s="1"/>
+      <c r="DH19" s="1"/>
+      <c r="DI19" s="1"/>
+      <c r="DJ19" s="1"/>
+      <c r="DK19" s="1"/>
+      <c r="DL19" s="1"/>
+      <c r="DM19" s="1"/>
+      <c r="DN19" s="1"/>
+      <c r="DO19" s="1"/>
+      <c r="DP19" s="1"/>
+      <c r="DQ19" s="1"/>
+      <c r="DR19" s="1"/>
+      <c r="DS19" s="1"/>
     </row>
-    <row r="20" spans="1:108" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:123" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>45</v>
       </c>
@@ -3574,10 +3956,10 @@
       <c r="AV20" s="1"/>
       <c r="AW20" s="1"/>
       <c r="AX20" s="1"/>
-      <c r="AY20" s="20" t="s">
+      <c r="AY20" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="AZ20" s="20"/>
+      <c r="AZ20" s="22"/>
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
       <c r="BC20" s="1"/>
@@ -3634,8 +4016,23 @@
       <c r="DB20" s="1"/>
       <c r="DC20" s="1"/>
       <c r="DD20" s="1"/>
+      <c r="DE20" s="1"/>
+      <c r="DF20" s="1"/>
+      <c r="DG20" s="1"/>
+      <c r="DH20" s="1"/>
+      <c r="DI20" s="1"/>
+      <c r="DJ20" s="1"/>
+      <c r="DK20" s="1"/>
+      <c r="DL20" s="1"/>
+      <c r="DM20" s="1"/>
+      <c r="DN20" s="1"/>
+      <c r="DO20" s="1"/>
+      <c r="DP20" s="1"/>
+      <c r="DQ20" s="1"/>
+      <c r="DR20" s="1"/>
+      <c r="DS20" s="1"/>
     </row>
-    <row r="21" spans="1:108" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:123" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>46</v>
       </c>
@@ -3702,10 +4099,10 @@
       <c r="BH21" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BI21" s="16" t="s">
+      <c r="BI21" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="BJ21" s="16"/>
+      <c r="BJ21" s="18"/>
       <c r="BK21" s="1"/>
       <c r="BL21" s="1"/>
       <c r="BM21" s="1"/>
@@ -3737,7 +4134,9 @@
       <c r="CM21" s="1"/>
       <c r="CN21" s="1"/>
       <c r="CO21" s="1"/>
-      <c r="CP21" s="1"/>
+      <c r="CP21" s="17" t="s">
+        <v>116</v>
+      </c>
       <c r="CQ21" s="1"/>
       <c r="CR21" s="1"/>
       <c r="CS21" s="1"/>
@@ -3752,8 +4151,23 @@
       <c r="DB21" s="1"/>
       <c r="DC21" s="1"/>
       <c r="DD21" s="1"/>
+      <c r="DE21" s="1"/>
+      <c r="DF21" s="1"/>
+      <c r="DG21" s="1"/>
+      <c r="DH21" s="1"/>
+      <c r="DI21" s="1"/>
+      <c r="DJ21" s="1"/>
+      <c r="DK21" s="1"/>
+      <c r="DL21" s="1"/>
+      <c r="DM21" s="1"/>
+      <c r="DN21" s="1"/>
+      <c r="DO21" s="1"/>
+      <c r="DP21" s="1"/>
+      <c r="DQ21" s="1"/>
+      <c r="DR21" s="1"/>
+      <c r="DS21" s="1"/>
     </row>
-    <row r="22" spans="1:108" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:123" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>96</v>
       </c>
@@ -3868,41 +4282,37 @@
       <c r="DB22" s="1"/>
       <c r="DC22" s="1"/>
       <c r="DD22" s="1"/>
+      <c r="DE22" s="1"/>
+      <c r="DF22" s="1"/>
+      <c r="DG22" s="1"/>
+      <c r="DH22" s="1"/>
+      <c r="DI22" s="1"/>
+      <c r="DJ22" s="1"/>
+      <c r="DK22" s="1"/>
+      <c r="DL22" s="1"/>
+      <c r="DM22" s="1"/>
+      <c r="DN22" s="1"/>
+      <c r="DO22" s="1"/>
+      <c r="DP22" s="1"/>
+      <c r="DQ22" s="1"/>
+      <c r="DR22" s="1"/>
+      <c r="DS22" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="BI21:BJ21"/>
-    <mergeCell ref="BH19:BJ19"/>
-    <mergeCell ref="BF19:BG19"/>
-    <mergeCell ref="CA10:CE10"/>
-    <mergeCell ref="CA11:CE11"/>
-    <mergeCell ref="BT17:BX17"/>
-    <mergeCell ref="CA17:CE17"/>
-    <mergeCell ref="CA19:CC19"/>
-    <mergeCell ref="BT10:BX10"/>
-    <mergeCell ref="BW11:BX11"/>
-    <mergeCell ref="BN12:BP12"/>
-    <mergeCell ref="AY20:AZ20"/>
-    <mergeCell ref="AD10:AL10"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="AY13:AZ13"/>
-    <mergeCell ref="AD9:AJ9"/>
-    <mergeCell ref="AP16:AQ16"/>
-    <mergeCell ref="AJ16:AO16"/>
-    <mergeCell ref="AL11:AM11"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="AY16:BA16"/>
-    <mergeCell ref="B19:T19"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="L2:U2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="K3:Q3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="BF13:BG13"/>
-    <mergeCell ref="BF16:BG16"/>
+  <mergeCells count="59">
+    <mergeCell ref="CH17:CM17"/>
+    <mergeCell ref="CO10:CT10"/>
+    <mergeCell ref="CQ19:CS19"/>
+    <mergeCell ref="CY7:DA7"/>
+    <mergeCell ref="CY5:DA5"/>
+    <mergeCell ref="CV17:DA17"/>
+    <mergeCell ref="BI7:BJ7"/>
+    <mergeCell ref="CH11:CJ11"/>
+    <mergeCell ref="Y5:AB5"/>
+    <mergeCell ref="AO5:AQ5"/>
+    <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="AV7:AW7"/>
+    <mergeCell ref="CH10:CM10"/>
     <mergeCell ref="AZ2:BB2"/>
     <mergeCell ref="U19:Y19"/>
     <mergeCell ref="W17:AA17"/>
@@ -3916,15 +4326,39 @@
     <mergeCell ref="W10:X10"/>
     <mergeCell ref="AS16:AT16"/>
     <mergeCell ref="Z18:AC18"/>
-    <mergeCell ref="BI7:BJ7"/>
-    <mergeCell ref="CH11:CJ11"/>
-    <mergeCell ref="Y5:AB5"/>
-    <mergeCell ref="AO5:AQ5"/>
-    <mergeCell ref="AV6:AW6"/>
-    <mergeCell ref="AV7:AW7"/>
     <mergeCell ref="BC16:BD16"/>
-    <mergeCell ref="CH10:CM10"/>
-    <mergeCell ref="CH17:CM17"/>
+    <mergeCell ref="B19:T19"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="L2:U2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="K3:Q3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="AY20:AZ20"/>
+    <mergeCell ref="AD10:AL10"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="AY13:AZ13"/>
+    <mergeCell ref="AD9:AJ9"/>
+    <mergeCell ref="AP16:AQ16"/>
+    <mergeCell ref="AJ16:AO16"/>
+    <mergeCell ref="AL11:AM11"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AY16:BA16"/>
+    <mergeCell ref="BI21:BJ21"/>
+    <mergeCell ref="BH19:BJ19"/>
+    <mergeCell ref="BF19:BG19"/>
+    <mergeCell ref="CA10:CE10"/>
+    <mergeCell ref="CA11:CE11"/>
+    <mergeCell ref="BT17:BX17"/>
+    <mergeCell ref="CA17:CE17"/>
+    <mergeCell ref="CA19:CC19"/>
+    <mergeCell ref="BT10:BX10"/>
+    <mergeCell ref="BW11:BX11"/>
+    <mergeCell ref="BN12:BP12"/>
+    <mergeCell ref="BF13:BG13"/>
+    <mergeCell ref="BF16:BG16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/项目进度表.xlsx
+++ b/项目进度表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="147">
   <si>
     <t>顺丰项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -511,10 +511,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RW_CA_SU_V200R001B111提测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RW_CA_SU_V200R001B111第一轮测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -523,11 +519,102 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RW_CA_SU_V200R001B110测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A柱摄像头横放方案测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW_CA_SU_V200R001B110第一轮测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P200工装4G相关测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW_CA_SU_V410R004B001SP01第一轮测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW_CA_SU_V200R001B111第二轮提测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW_CA_SU_V200R001B111第一轮提测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW_CA_SU_V200R001B111第二轮测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW_CA_SU_V410R004B001SP01第二轮提测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW_CA_SU_V410R004B001SP01第一轮提测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW_CA_SU_V410R004B001SP01第二轮测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A柱摄像头横放方案测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSM性能提升攻关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A柱摄像头横放方案测试+DSM性能提升攻关（数据统计、竞品测试）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口调试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW_CA_SU_V200R001B110SP01第一轮测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW_CA_SU_V200R001B111第三轮提测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW_CA_SU_V200R001B111第三轮测试</t>
+  </si>
+  <si>
+    <t>RW_CA_SU_V200R001B110SP01第二轮提测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW_CA_SU_V200R001B110SP01第一轮测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW_CA_SU_V200R001B110SP01第一轮提测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW_CA_V100R001B112-1测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW_CA_SU_V410R004B001SP01第二轮测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW_CA_SU_V200R001B110SP01第二轮测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>告警数据统计及分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.2.0测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -662,7 +749,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -718,6 +805,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -727,17 +829,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1019,13 +1124,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DS22"/>
+  <dimension ref="A1:FB22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="CH5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="CS8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="CV17" sqref="CV17:DA17"/>
+      <selection pane="bottomRight" activeCell="DG20" sqref="DG20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1036,7 +1141,7 @@
     <col min="63" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:123" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:158" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
@@ -1406,37 +1511,142 @@
       <c r="DS1" s="6">
         <v>43677</v>
       </c>
+      <c r="DT1" s="6">
+        <v>43678</v>
+      </c>
+      <c r="DU1" s="6">
+        <v>43679</v>
+      </c>
+      <c r="DV1" s="6">
+        <v>43680</v>
+      </c>
+      <c r="DW1" s="6">
+        <v>43681</v>
+      </c>
+      <c r="DX1" s="6">
+        <v>43682</v>
+      </c>
+      <c r="DY1" s="6">
+        <v>43683</v>
+      </c>
+      <c r="DZ1" s="6">
+        <v>43684</v>
+      </c>
+      <c r="EA1" s="6">
+        <v>43685</v>
+      </c>
+      <c r="EB1" s="6">
+        <v>43686</v>
+      </c>
+      <c r="EC1" s="6">
+        <v>43687</v>
+      </c>
+      <c r="ED1" s="6">
+        <v>43688</v>
+      </c>
+      <c r="EE1" s="6">
+        <v>43689</v>
+      </c>
+      <c r="EF1" s="6">
+        <v>43690</v>
+      </c>
+      <c r="EG1" s="6">
+        <v>43691</v>
+      </c>
+      <c r="EH1" s="6">
+        <v>43692</v>
+      </c>
+      <c r="EI1" s="6">
+        <v>43693</v>
+      </c>
+      <c r="EJ1" s="6">
+        <v>43694</v>
+      </c>
+      <c r="EK1" s="6">
+        <v>43695</v>
+      </c>
+      <c r="EL1" s="6">
+        <v>43696</v>
+      </c>
+      <c r="EM1" s="6">
+        <v>43697</v>
+      </c>
+      <c r="EN1" s="6">
+        <v>43698</v>
+      </c>
+      <c r="EO1" s="6">
+        <v>43699</v>
+      </c>
+      <c r="EP1" s="6">
+        <v>43700</v>
+      </c>
+      <c r="EQ1" s="6">
+        <v>43701</v>
+      </c>
+      <c r="ER1" s="6">
+        <v>43702</v>
+      </c>
+      <c r="ES1" s="6">
+        <v>43703</v>
+      </c>
+      <c r="ET1" s="6">
+        <v>43704</v>
+      </c>
+      <c r="EU1" s="6">
+        <v>43705</v>
+      </c>
+      <c r="EV1" s="6">
+        <v>43706</v>
+      </c>
+      <c r="EW1" s="6">
+        <v>43707</v>
+      </c>
+      <c r="EX1" s="6">
+        <v>43708</v>
+      </c>
+      <c r="EY1" s="6">
+        <v>43709</v>
+      </c>
+      <c r="EZ1" s="6">
+        <v>43710</v>
+      </c>
+      <c r="FA1" s="6">
+        <v>43711</v>
+      </c>
+      <c r="FB1" s="6">
+        <v>43712</v>
+      </c>
     </row>
-    <row r="2" spans="1:123" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:158" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="22" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
@@ -1462,22 +1672,22 @@
       <c r="AR2" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="AS2" s="22" t="s">
+      <c r="AS2" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="AT2" s="22"/>
-      <c r="AU2" s="22"/>
+      <c r="AT2" s="31"/>
+      <c r="AU2" s="31"/>
       <c r="AV2" s="1"/>
       <c r="AW2" s="1"/>
       <c r="AX2" s="1"/>
       <c r="AY2" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="AZ2" s="22" t="s">
+      <c r="AZ2" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="BA2" s="22"/>
-      <c r="BB2" s="22"/>
+      <c r="BA2" s="31"/>
+      <c r="BB2" s="31"/>
       <c r="BC2" s="1"/>
       <c r="BD2" s="1"/>
       <c r="BE2" s="1"/>
@@ -1549,8 +1759,43 @@
       <c r="DQ2" s="1"/>
       <c r="DR2" s="1"/>
       <c r="DS2" s="1"/>
+      <c r="DT2" s="1"/>
+      <c r="DU2" s="1"/>
+      <c r="DV2" s="1"/>
+      <c r="DW2" s="1"/>
+      <c r="DX2" s="1"/>
+      <c r="DY2" s="1"/>
+      <c r="DZ2" s="1"/>
+      <c r="EA2" s="1"/>
+      <c r="EB2" s="1"/>
+      <c r="EC2" s="1"/>
+      <c r="ED2" s="1"/>
+      <c r="EE2" s="1"/>
+      <c r="EF2" s="1"/>
+      <c r="EG2" s="1"/>
+      <c r="EH2" s="1"/>
+      <c r="EI2" s="1"/>
+      <c r="EJ2" s="1"/>
+      <c r="EK2" s="1"/>
+      <c r="EL2" s="1"/>
+      <c r="EM2" s="1"/>
+      <c r="EN2" s="1"/>
+      <c r="EO2" s="1"/>
+      <c r="EP2" s="1"/>
+      <c r="EQ2" s="1"/>
+      <c r="ER2" s="1"/>
+      <c r="ES2" s="1"/>
+      <c r="ET2" s="1"/>
+      <c r="EU2" s="1"/>
+      <c r="EV2" s="1"/>
+      <c r="EW2" s="1"/>
+      <c r="EX2" s="1"/>
+      <c r="EY2" s="1"/>
+      <c r="EZ2" s="1"/>
+      <c r="FA2" s="1"/>
+      <c r="FB2" s="1"/>
     </row>
-    <row r="3" spans="1:123" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:158" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -1563,33 +1808,33 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
       <c r="R3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="S3" s="22" t="s">
+      <c r="S3" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="22"/>
+      <c r="T3" s="31"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
-      <c r="AA3" s="22" t="s">
+      <c r="AA3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="AB3" s="22"/>
-      <c r="AC3" s="22"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
@@ -1686,8 +1931,43 @@
       <c r="DQ3" s="1"/>
       <c r="DR3" s="1"/>
       <c r="DS3" s="1"/>
+      <c r="DT3" s="1"/>
+      <c r="DU3" s="1"/>
+      <c r="DV3" s="1"/>
+      <c r="DW3" s="1"/>
+      <c r="DX3" s="1"/>
+      <c r="DY3" s="1"/>
+      <c r="DZ3" s="1"/>
+      <c r="EA3" s="1"/>
+      <c r="EB3" s="1"/>
+      <c r="EC3" s="1"/>
+      <c r="ED3" s="1"/>
+      <c r="EE3" s="1"/>
+      <c r="EF3" s="1"/>
+      <c r="EG3" s="1"/>
+      <c r="EH3" s="1"/>
+      <c r="EI3" s="1"/>
+      <c r="EJ3" s="1"/>
+      <c r="EK3" s="1"/>
+      <c r="EL3" s="1"/>
+      <c r="EM3" s="1"/>
+      <c r="EN3" s="1"/>
+      <c r="EO3" s="1"/>
+      <c r="EP3" s="1"/>
+      <c r="EQ3" s="1"/>
+      <c r="ER3" s="1"/>
+      <c r="ES3" s="1"/>
+      <c r="ET3" s="1"/>
+      <c r="EU3" s="1"/>
+      <c r="EV3" s="1"/>
+      <c r="EW3" s="1"/>
+      <c r="EX3" s="1"/>
+      <c r="EY3" s="1"/>
+      <c r="EZ3" s="1"/>
+      <c r="FA3" s="1"/>
+      <c r="FB3" s="1"/>
     </row>
-    <row r="4" spans="1:123" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:158" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -1746,10 +2026,10 @@
       </c>
       <c r="AW4" s="1"/>
       <c r="AX4" s="1"/>
-      <c r="AY4" s="22" t="s">
+      <c r="AY4" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="AZ4" s="22"/>
+      <c r="AZ4" s="31"/>
       <c r="BA4" s="14"/>
       <c r="BB4" s="1"/>
       <c r="BC4" s="14"/>
@@ -1823,8 +2103,43 @@
       <c r="DQ4" s="1"/>
       <c r="DR4" s="1"/>
       <c r="DS4" s="1"/>
+      <c r="DT4" s="1"/>
+      <c r="DU4" s="1"/>
+      <c r="DV4" s="1"/>
+      <c r="DW4" s="1"/>
+      <c r="DX4" s="1"/>
+      <c r="DY4" s="1"/>
+      <c r="DZ4" s="1"/>
+      <c r="EA4" s="1"/>
+      <c r="EB4" s="1"/>
+      <c r="EC4" s="1"/>
+      <c r="ED4" s="1"/>
+      <c r="EE4" s="1"/>
+      <c r="EF4" s="1"/>
+      <c r="EG4" s="1"/>
+      <c r="EH4" s="1"/>
+      <c r="EI4" s="1"/>
+      <c r="EJ4" s="1"/>
+      <c r="EK4" s="1"/>
+      <c r="EL4" s="1"/>
+      <c r="EM4" s="1"/>
+      <c r="EN4" s="1"/>
+      <c r="EO4" s="1"/>
+      <c r="EP4" s="1"/>
+      <c r="EQ4" s="1"/>
+      <c r="ER4" s="1"/>
+      <c r="ES4" s="1"/>
+      <c r="ET4" s="1"/>
+      <c r="EU4" s="1"/>
+      <c r="EV4" s="1"/>
+      <c r="EW4" s="1"/>
+      <c r="EX4" s="1"/>
+      <c r="EY4" s="1"/>
+      <c r="EZ4" s="1"/>
+      <c r="FA4" s="1"/>
+      <c r="FB4" s="1"/>
     </row>
-    <row r="5" spans="1:123" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:158" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
@@ -1853,12 +2168,12 @@
         <v>13</v>
       </c>
       <c r="X5" s="1"/>
-      <c r="Y5" s="22" t="s">
+      <c r="Y5" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="22"/>
+      <c r="Z5" s="31"/>
+      <c r="AA5" s="31"/>
+      <c r="AB5" s="31"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
@@ -1871,11 +2186,11 @@
       <c r="AL5" s="1"/>
       <c r="AM5" s="1"/>
       <c r="AN5" s="1"/>
-      <c r="AO5" s="22" t="s">
+      <c r="AO5" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="AP5" s="22"/>
-      <c r="AQ5" s="22"/>
+      <c r="AP5" s="31"/>
+      <c r="AQ5" s="31"/>
       <c r="AR5" s="1"/>
       <c r="AS5" s="11" t="s">
         <v>52</v>
@@ -1935,17 +2250,19 @@
       <c r="CT5" s="1"/>
       <c r="CU5" s="1"/>
       <c r="CV5" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="CW5" s="1"/>
       <c r="CX5" s="1"/>
-      <c r="CY5" s="19" t="s">
+      <c r="CY5" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="CZ5" s="20"/>
-      <c r="DA5" s="21"/>
+      <c r="CZ5" s="25"/>
+      <c r="DA5" s="26"/>
       <c r="DB5" s="1"/>
-      <c r="DC5" s="1"/>
+      <c r="DC5" s="18" t="s">
+        <v>123</v>
+      </c>
       <c r="DD5" s="1"/>
       <c r="DE5" s="1"/>
       <c r="DF5" s="1"/>
@@ -1955,15 +2272,60 @@
       <c r="DJ5" s="1"/>
       <c r="DK5" s="1"/>
       <c r="DL5" s="1"/>
-      <c r="DM5" s="1"/>
-      <c r="DN5" s="1"/>
-      <c r="DO5" s="1"/>
+      <c r="DM5" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="DN5" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="DO5" s="28"/>
       <c r="DP5" s="1"/>
-      <c r="DQ5" s="1"/>
+      <c r="DQ5" s="22" t="s">
+        <v>140</v>
+      </c>
       <c r="DR5" s="1"/>
-      <c r="DS5" s="1"/>
+      <c r="DS5" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="DT5" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="DU5" s="3"/>
+      <c r="DV5" s="1"/>
+      <c r="DW5" s="1"/>
+      <c r="DX5" s="1"/>
+      <c r="DY5" s="1"/>
+      <c r="DZ5" s="1"/>
+      <c r="EA5" s="1"/>
+      <c r="EB5" s="1"/>
+      <c r="EC5" s="1"/>
+      <c r="ED5" s="1"/>
+      <c r="EE5" s="1"/>
+      <c r="EF5" s="1"/>
+      <c r="EG5" s="1"/>
+      <c r="EH5" s="1"/>
+      <c r="EI5" s="1"/>
+      <c r="EJ5" s="1"/>
+      <c r="EK5" s="1"/>
+      <c r="EL5" s="1"/>
+      <c r="EM5" s="1"/>
+      <c r="EN5" s="1"/>
+      <c r="EO5" s="1"/>
+      <c r="EP5" s="1"/>
+      <c r="EQ5" s="1"/>
+      <c r="ER5" s="1"/>
+      <c r="ES5" s="1"/>
+      <c r="ET5" s="1"/>
+      <c r="EU5" s="1"/>
+      <c r="EV5" s="1"/>
+      <c r="EW5" s="1"/>
+      <c r="EX5" s="1"/>
+      <c r="EY5" s="1"/>
+      <c r="EZ5" s="1"/>
+      <c r="FA5" s="1"/>
+      <c r="FB5" s="1"/>
     </row>
-    <row r="6" spans="1:123" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:158" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
@@ -2017,10 +2379,10 @@
         <v>82</v>
       </c>
       <c r="AU6" s="1"/>
-      <c r="AV6" s="22" t="s">
+      <c r="AV6" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="AW6" s="22"/>
+      <c r="AW6" s="31"/>
       <c r="AX6" s="1"/>
       <c r="AY6" s="1"/>
       <c r="AZ6" s="1"/>
@@ -2105,8 +2467,43 @@
       <c r="DQ6" s="1"/>
       <c r="DR6" s="1"/>
       <c r="DS6" s="1"/>
+      <c r="DT6" s="1"/>
+      <c r="DU6" s="1"/>
+      <c r="DV6" s="1"/>
+      <c r="DW6" s="1"/>
+      <c r="DX6" s="1"/>
+      <c r="DY6" s="1"/>
+      <c r="DZ6" s="1"/>
+      <c r="EA6" s="1"/>
+      <c r="EB6" s="1"/>
+      <c r="EC6" s="1"/>
+      <c r="ED6" s="1"/>
+      <c r="EE6" s="1"/>
+      <c r="EF6" s="1"/>
+      <c r="EG6" s="1"/>
+      <c r="EH6" s="1"/>
+      <c r="EI6" s="1"/>
+      <c r="EJ6" s="1"/>
+      <c r="EK6" s="1"/>
+      <c r="EL6" s="1"/>
+      <c r="EM6" s="1"/>
+      <c r="EN6" s="1"/>
+      <c r="EO6" s="1"/>
+      <c r="EP6" s="1"/>
+      <c r="EQ6" s="1"/>
+      <c r="ER6" s="1"/>
+      <c r="ES6" s="1"/>
+      <c r="ET6" s="1"/>
+      <c r="EU6" s="1"/>
+      <c r="EV6" s="1"/>
+      <c r="EW6" s="1"/>
+      <c r="EX6" s="1"/>
+      <c r="EY6" s="1"/>
+      <c r="EZ6" s="1"/>
+      <c r="FA6" s="1"/>
+      <c r="FB6" s="1"/>
     </row>
-    <row r="7" spans="1:123" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:158" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>61</v>
       </c>
@@ -2160,10 +2557,10 @@
       </c>
       <c r="AT7" s="4"/>
       <c r="AU7" s="1"/>
-      <c r="AV7" s="22" t="s">
+      <c r="AV7" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="AW7" s="22"/>
+      <c r="AW7" s="31"/>
       <c r="AX7" s="1"/>
       <c r="AY7" s="1"/>
       <c r="AZ7" s="1"/>
@@ -2171,10 +2568,10 @@
       <c r="BB7" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="BC7" s="18" t="s">
+      <c r="BC7" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="BD7" s="18"/>
+      <c r="BD7" s="30"/>
       <c r="BE7" s="1"/>
       <c r="BF7" s="13" t="s">
         <v>86</v>
@@ -2183,10 +2580,10 @@
       <c r="BH7" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="BI7" s="18" t="s">
+      <c r="BI7" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="BJ7" s="18"/>
+      <c r="BJ7" s="30"/>
       <c r="BK7" s="1"/>
       <c r="BL7" s="1"/>
       <c r="BM7" s="1"/>
@@ -2229,13 +2626,13 @@
       <c r="CV7" s="1"/>
       <c r="CW7" s="1"/>
       <c r="CX7" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="CY7" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="CY7" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="CZ7" s="24"/>
-      <c r="DA7" s="25"/>
+      <c r="CZ7" s="29"/>
+      <c r="DA7" s="28"/>
       <c r="DB7" s="1"/>
       <c r="DC7" s="1"/>
       <c r="DD7" s="1"/>
@@ -2248,14 +2645,59 @@
       <c r="DK7" s="1"/>
       <c r="DL7" s="1"/>
       <c r="DM7" s="1"/>
-      <c r="DN7" s="1"/>
-      <c r="DO7" s="1"/>
+      <c r="DN7" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="DO7" s="21" t="s">
+        <v>128</v>
+      </c>
       <c r="DP7" s="1"/>
-      <c r="DQ7" s="1"/>
+      <c r="DQ7" s="22" t="s">
+        <v>128</v>
+      </c>
       <c r="DR7" s="1"/>
-      <c r="DS7" s="1"/>
+      <c r="DS7" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="DT7" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="DU7" s="29"/>
+      <c r="DV7" s="23"/>
+      <c r="DW7" s="1"/>
+      <c r="DX7" s="1"/>
+      <c r="DY7" s="1"/>
+      <c r="DZ7" s="1"/>
+      <c r="EA7" s="1"/>
+      <c r="EB7" s="1"/>
+      <c r="EC7" s="1"/>
+      <c r="ED7" s="1"/>
+      <c r="EE7" s="1"/>
+      <c r="EF7" s="1"/>
+      <c r="EG7" s="1"/>
+      <c r="EH7" s="1"/>
+      <c r="EI7" s="1"/>
+      <c r="EJ7" s="1"/>
+      <c r="EK7" s="1"/>
+      <c r="EL7" s="1"/>
+      <c r="EM7" s="1"/>
+      <c r="EN7" s="1"/>
+      <c r="EO7" s="1"/>
+      <c r="EP7" s="1"/>
+      <c r="EQ7" s="1"/>
+      <c r="ER7" s="1"/>
+      <c r="ES7" s="1"/>
+      <c r="ET7" s="1"/>
+      <c r="EU7" s="1"/>
+      <c r="EV7" s="1"/>
+      <c r="EW7" s="1"/>
+      <c r="EX7" s="1"/>
+      <c r="EY7" s="1"/>
+      <c r="EZ7" s="1"/>
+      <c r="FA7" s="1"/>
+      <c r="FB7" s="1"/>
     </row>
-    <row r="8" spans="1:123" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:158" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>19</v>
       </c>
@@ -2381,10 +2823,47 @@
       <c r="DO8" s="1"/>
       <c r="DP8" s="1"/>
       <c r="DQ8" s="1"/>
-      <c r="DR8" s="1"/>
-      <c r="DS8" s="1"/>
+      <c r="DR8" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="DS8" s="28"/>
+      <c r="DT8" s="1"/>
+      <c r="DU8" s="1"/>
+      <c r="DV8" s="1"/>
+      <c r="DW8" s="1"/>
+      <c r="DX8" s="1"/>
+      <c r="DY8" s="1"/>
+      <c r="DZ8" s="1"/>
+      <c r="EA8" s="1"/>
+      <c r="EB8" s="1"/>
+      <c r="EC8" s="1"/>
+      <c r="ED8" s="1"/>
+      <c r="EE8" s="1"/>
+      <c r="EF8" s="1"/>
+      <c r="EG8" s="1"/>
+      <c r="EH8" s="1"/>
+      <c r="EI8" s="1"/>
+      <c r="EJ8" s="1"/>
+      <c r="EK8" s="1"/>
+      <c r="EL8" s="1"/>
+      <c r="EM8" s="1"/>
+      <c r="EN8" s="1"/>
+      <c r="EO8" s="1"/>
+      <c r="EP8" s="1"/>
+      <c r="EQ8" s="1"/>
+      <c r="ER8" s="1"/>
+      <c r="ES8" s="1"/>
+      <c r="ET8" s="1"/>
+      <c r="EU8" s="1"/>
+      <c r="EV8" s="1"/>
+      <c r="EW8" s="1"/>
+      <c r="EX8" s="1"/>
+      <c r="EY8" s="1"/>
+      <c r="EZ8" s="1"/>
+      <c r="FA8" s="1"/>
+      <c r="FB8" s="1"/>
     </row>
-    <row r="9" spans="1:123" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:158" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>62</v>
       </c>
@@ -2418,15 +2897,15 @@
       <c r="AA9" s="3"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
-      <c r="AD9" s="22" t="s">
+      <c r="AD9" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="AE9" s="22"/>
-      <c r="AF9" s="22"/>
-      <c r="AG9" s="22"/>
-      <c r="AH9" s="22"/>
-      <c r="AI9" s="22"/>
-      <c r="AJ9" s="22"/>
+      <c r="AE9" s="31"/>
+      <c r="AF9" s="31"/>
+      <c r="AG9" s="31"/>
+      <c r="AH9" s="31"/>
+      <c r="AI9" s="31"/>
+      <c r="AJ9" s="31"/>
       <c r="AK9" s="1"/>
       <c r="AL9" s="1"/>
       <c r="AM9" s="1"/>
@@ -2438,10 +2917,10 @@
         <v>48</v>
       </c>
       <c r="AS9" s="1"/>
-      <c r="AT9" s="18" t="s">
+      <c r="AT9" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="AU9" s="22"/>
+      <c r="AU9" s="31"/>
       <c r="AV9" s="11" t="s">
         <v>76</v>
       </c>
@@ -2520,8 +2999,43 @@
       <c r="DQ9" s="1"/>
       <c r="DR9" s="1"/>
       <c r="DS9" s="1"/>
+      <c r="DT9" s="1"/>
+      <c r="DU9" s="1"/>
+      <c r="DV9" s="1"/>
+      <c r="DW9" s="1"/>
+      <c r="DX9" s="1"/>
+      <c r="DY9" s="1"/>
+      <c r="DZ9" s="1"/>
+      <c r="EA9" s="1"/>
+      <c r="EB9" s="1"/>
+      <c r="EC9" s="1"/>
+      <c r="ED9" s="1"/>
+      <c r="EE9" s="1"/>
+      <c r="EF9" s="1"/>
+      <c r="EG9" s="1"/>
+      <c r="EH9" s="1"/>
+      <c r="EI9" s="1"/>
+      <c r="EJ9" s="1"/>
+      <c r="EK9" s="1"/>
+      <c r="EL9" s="1"/>
+      <c r="EM9" s="1"/>
+      <c r="EN9" s="1"/>
+      <c r="EO9" s="1"/>
+      <c r="EP9" s="1"/>
+      <c r="EQ9" s="1"/>
+      <c r="ER9" s="1"/>
+      <c r="ES9" s="1"/>
+      <c r="ET9" s="1"/>
+      <c r="EU9" s="1"/>
+      <c r="EV9" s="1"/>
+      <c r="EW9" s="1"/>
+      <c r="EX9" s="1"/>
+      <c r="EY9" s="1"/>
+      <c r="EZ9" s="1"/>
+      <c r="FA9" s="1"/>
+      <c r="FB9" s="1"/>
     </row>
-    <row r="10" spans="1:123" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:158" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>5</v>
       </c>
@@ -2544,34 +3058,34 @@
         <v>28</v>
       </c>
       <c r="P10" s="1"/>
-      <c r="Q10" s="22" t="s">
+      <c r="Q10" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="31"/>
       <c r="V10" s="1"/>
-      <c r="W10" s="22" t="s">
+      <c r="W10" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="X10" s="22"/>
+      <c r="X10" s="31"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
-      <c r="AD10" s="22" t="s">
+      <c r="AD10" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="AE10" s="22"/>
-      <c r="AF10" s="22"/>
-      <c r="AG10" s="22"/>
-      <c r="AH10" s="22"/>
-      <c r="AI10" s="22"/>
-      <c r="AJ10" s="22"/>
-      <c r="AK10" s="22"/>
-      <c r="AL10" s="22"/>
+      <c r="AE10" s="31"/>
+      <c r="AF10" s="31"/>
+      <c r="AG10" s="31"/>
+      <c r="AH10" s="31"/>
+      <c r="AI10" s="31"/>
+      <c r="AJ10" s="31"/>
+      <c r="AK10" s="31"/>
+      <c r="AL10" s="31"/>
       <c r="AM10" s="1"/>
       <c r="AN10" s="1"/>
       <c r="AO10" s="1"/>
@@ -2611,41 +3125,41 @@
       <c r="BQ10" s="1"/>
       <c r="BR10" s="1"/>
       <c r="BS10" s="1"/>
-      <c r="BT10" s="22" t="s">
+      <c r="BT10" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="BU10" s="22"/>
-      <c r="BV10" s="22"/>
-      <c r="BW10" s="22"/>
-      <c r="BX10" s="22"/>
+      <c r="BU10" s="31"/>
+      <c r="BV10" s="31"/>
+      <c r="BW10" s="31"/>
+      <c r="BX10" s="31"/>
       <c r="BY10" s="1"/>
       <c r="BZ10" s="1"/>
-      <c r="CA10" s="22" t="s">
+      <c r="CA10" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="CB10" s="22"/>
-      <c r="CC10" s="22"/>
-      <c r="CD10" s="22"/>
-      <c r="CE10" s="22"/>
+      <c r="CB10" s="31"/>
+      <c r="CC10" s="31"/>
+      <c r="CD10" s="31"/>
+      <c r="CE10" s="31"/>
       <c r="CF10" s="1"/>
       <c r="CG10" s="1"/>
-      <c r="CH10" s="19" t="s">
+      <c r="CH10" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="CI10" s="20"/>
-      <c r="CJ10" s="20"/>
-      <c r="CK10" s="20"/>
-      <c r="CL10" s="20"/>
-      <c r="CM10" s="21"/>
+      <c r="CI10" s="25"/>
+      <c r="CJ10" s="25"/>
+      <c r="CK10" s="25"/>
+      <c r="CL10" s="25"/>
+      <c r="CM10" s="26"/>
       <c r="CN10" s="1"/>
-      <c r="CO10" s="19" t="s">
+      <c r="CO10" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="CP10" s="20"/>
-      <c r="CQ10" s="20"/>
-      <c r="CR10" s="20"/>
-      <c r="CS10" s="20"/>
-      <c r="CT10" s="21"/>
+      <c r="CP10" s="25"/>
+      <c r="CQ10" s="25"/>
+      <c r="CR10" s="25"/>
+      <c r="CS10" s="25"/>
+      <c r="CT10" s="26"/>
       <c r="CU10" s="1"/>
       <c r="CV10" s="1"/>
       <c r="CW10" s="1"/>
@@ -2671,8 +3185,43 @@
       <c r="DQ10" s="1"/>
       <c r="DR10" s="1"/>
       <c r="DS10" s="1"/>
+      <c r="DT10" s="1"/>
+      <c r="DU10" s="1"/>
+      <c r="DV10" s="1"/>
+      <c r="DW10" s="1"/>
+      <c r="DX10" s="1"/>
+      <c r="DY10" s="1"/>
+      <c r="DZ10" s="1"/>
+      <c r="EA10" s="1"/>
+      <c r="EB10" s="1"/>
+      <c r="EC10" s="1"/>
+      <c r="ED10" s="1"/>
+      <c r="EE10" s="1"/>
+      <c r="EF10" s="1"/>
+      <c r="EG10" s="1"/>
+      <c r="EH10" s="1"/>
+      <c r="EI10" s="1"/>
+      <c r="EJ10" s="1"/>
+      <c r="EK10" s="1"/>
+      <c r="EL10" s="1"/>
+      <c r="EM10" s="1"/>
+      <c r="EN10" s="1"/>
+      <c r="EO10" s="1"/>
+      <c r="EP10" s="1"/>
+      <c r="EQ10" s="1"/>
+      <c r="ER10" s="1"/>
+      <c r="ES10" s="1"/>
+      <c r="ET10" s="1"/>
+      <c r="EU10" s="1"/>
+      <c r="EV10" s="1"/>
+      <c r="EW10" s="1"/>
+      <c r="EX10" s="1"/>
+      <c r="EY10" s="1"/>
+      <c r="EZ10" s="1"/>
+      <c r="FA10" s="1"/>
+      <c r="FB10" s="1"/>
     </row>
-    <row r="11" spans="1:123" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:158" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>6</v>
       </c>
@@ -2712,10 +3261,10 @@
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
-      <c r="AL11" s="18" t="s">
+      <c r="AL11" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="AM11" s="18"/>
+      <c r="AM11" s="30"/>
       <c r="AN11" s="1"/>
       <c r="AO11" s="1"/>
       <c r="AP11" s="1"/>
@@ -2753,26 +3302,26 @@
       <c r="BV11" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="BW11" s="22" t="s">
+      <c r="BW11" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="BX11" s="22"/>
+      <c r="BX11" s="31"/>
       <c r="BY11" s="1"/>
       <c r="BZ11" s="1"/>
-      <c r="CA11" s="19" t="s">
+      <c r="CA11" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="CB11" s="20"/>
-      <c r="CC11" s="20"/>
-      <c r="CD11" s="20"/>
-      <c r="CE11" s="21"/>
+      <c r="CB11" s="25"/>
+      <c r="CC11" s="25"/>
+      <c r="CD11" s="25"/>
+      <c r="CE11" s="26"/>
       <c r="CF11" s="1"/>
       <c r="CG11" s="1"/>
-      <c r="CH11" s="19" t="s">
+      <c r="CH11" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="CI11" s="20"/>
-      <c r="CJ11" s="21"/>
+      <c r="CI11" s="25"/>
+      <c r="CJ11" s="26"/>
       <c r="CK11" s="1"/>
       <c r="CL11" s="1"/>
       <c r="CM11" s="1"/>
@@ -2791,25 +3340,70 @@
       <c r="CZ11" s="1"/>
       <c r="DA11" s="1"/>
       <c r="DB11" s="1"/>
-      <c r="DC11" s="1"/>
-      <c r="DD11" s="1"/>
-      <c r="DE11" s="1"/>
-      <c r="DF11" s="1"/>
-      <c r="DG11" s="1"/>
+      <c r="DC11" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="DD11" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="DE11" s="29"/>
+      <c r="DF11" s="29"/>
+      <c r="DG11" s="28"/>
       <c r="DH11" s="1"/>
       <c r="DI11" s="1"/>
       <c r="DJ11" s="1"/>
       <c r="DK11" s="1"/>
-      <c r="DL11" s="1"/>
-      <c r="DM11" s="1"/>
-      <c r="DN11" s="1"/>
-      <c r="DO11" s="1"/>
+      <c r="DL11" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="DM11" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="DN11" s="29"/>
+      <c r="DO11" s="28"/>
       <c r="DP11" s="1"/>
-      <c r="DQ11" s="1"/>
-      <c r="DR11" s="1"/>
-      <c r="DS11" s="1"/>
+      <c r="DQ11" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="DR11" s="29"/>
+      <c r="DS11" s="23"/>
+      <c r="DT11" s="1"/>
+      <c r="DU11" s="1"/>
+      <c r="DV11" s="1"/>
+      <c r="DW11" s="1"/>
+      <c r="DX11" s="1"/>
+      <c r="DY11" s="1"/>
+      <c r="DZ11" s="1"/>
+      <c r="EA11" s="1"/>
+      <c r="EB11" s="1"/>
+      <c r="EC11" s="1"/>
+      <c r="ED11" s="1"/>
+      <c r="EE11" s="1"/>
+      <c r="EF11" s="1"/>
+      <c r="EG11" s="1"/>
+      <c r="EH11" s="1"/>
+      <c r="EI11" s="1"/>
+      <c r="EJ11" s="1"/>
+      <c r="EK11" s="1"/>
+      <c r="EL11" s="1"/>
+      <c r="EM11" s="1"/>
+      <c r="EN11" s="1"/>
+      <c r="EO11" s="1"/>
+      <c r="EP11" s="1"/>
+      <c r="EQ11" s="1"/>
+      <c r="ER11" s="1"/>
+      <c r="ES11" s="1"/>
+      <c r="ET11" s="1"/>
+      <c r="EU11" s="1"/>
+      <c r="EV11" s="1"/>
+      <c r="EW11" s="1"/>
+      <c r="EX11" s="1"/>
+      <c r="EY11" s="1"/>
+      <c r="EZ11" s="1"/>
+      <c r="FA11" s="1"/>
+      <c r="FB11" s="1"/>
     </row>
-    <row r="12" spans="1:123" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:158" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>23</v>
       </c>
@@ -2881,11 +3475,11 @@
       <c r="BM12" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="BN12" s="19" t="s">
+      <c r="BN12" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="BO12" s="20"/>
-      <c r="BP12" s="21"/>
+      <c r="BO12" s="25"/>
+      <c r="BP12" s="26"/>
       <c r="BQ12" s="1"/>
       <c r="BR12" s="1"/>
       <c r="BS12" s="1"/>
@@ -2941,8 +3535,43 @@
       <c r="DQ12" s="1"/>
       <c r="DR12" s="1"/>
       <c r="DS12" s="1"/>
+      <c r="DT12" s="1"/>
+      <c r="DU12" s="1"/>
+      <c r="DV12" s="1"/>
+      <c r="DW12" s="1"/>
+      <c r="DX12" s="1"/>
+      <c r="DY12" s="1"/>
+      <c r="DZ12" s="1"/>
+      <c r="EA12" s="1"/>
+      <c r="EB12" s="1"/>
+      <c r="EC12" s="1"/>
+      <c r="ED12" s="1"/>
+      <c r="EE12" s="1"/>
+      <c r="EF12" s="1"/>
+      <c r="EG12" s="1"/>
+      <c r="EH12" s="1"/>
+      <c r="EI12" s="1"/>
+      <c r="EJ12" s="1"/>
+      <c r="EK12" s="1"/>
+      <c r="EL12" s="1"/>
+      <c r="EM12" s="1"/>
+      <c r="EN12" s="1"/>
+      <c r="EO12" s="1"/>
+      <c r="EP12" s="1"/>
+      <c r="EQ12" s="1"/>
+      <c r="ER12" s="1"/>
+      <c r="ES12" s="1"/>
+      <c r="ET12" s="1"/>
+      <c r="EU12" s="1"/>
+      <c r="EV12" s="1"/>
+      <c r="EW12" s="1"/>
+      <c r="EX12" s="1"/>
+      <c r="EY12" s="1"/>
+      <c r="EZ12" s="1"/>
+      <c r="FA12" s="1"/>
+      <c r="FB12" s="1"/>
     </row>
-    <row r="13" spans="1:123" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:158" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>24</v>
       </c>
@@ -2997,10 +3626,10 @@
       <c r="AV13" s="1"/>
       <c r="AW13" s="1"/>
       <c r="AX13" s="1"/>
-      <c r="AY13" s="22" t="s">
+      <c r="AY13" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="AZ13" s="22"/>
+      <c r="AZ13" s="31"/>
       <c r="BA13" s="12" t="s">
         <v>63</v>
       </c>
@@ -3010,10 +3639,10 @@
         <v>80</v>
       </c>
       <c r="BE13" s="1"/>
-      <c r="BF13" s="22" t="s">
+      <c r="BF13" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="BG13" s="22"/>
+      <c r="BG13" s="31"/>
       <c r="BH13" s="11" t="s">
         <v>92</v>
       </c>
@@ -3080,8 +3709,43 @@
       <c r="DQ13" s="1"/>
       <c r="DR13" s="1"/>
       <c r="DS13" s="1"/>
+      <c r="DT13" s="1"/>
+      <c r="DU13" s="1"/>
+      <c r="DV13" s="1"/>
+      <c r="DW13" s="1"/>
+      <c r="DX13" s="1"/>
+      <c r="DY13" s="1"/>
+      <c r="DZ13" s="1"/>
+      <c r="EA13" s="1"/>
+      <c r="EB13" s="1"/>
+      <c r="EC13" s="1"/>
+      <c r="ED13" s="1"/>
+      <c r="EE13" s="1"/>
+      <c r="EF13" s="1"/>
+      <c r="EG13" s="1"/>
+      <c r="EH13" s="1"/>
+      <c r="EI13" s="1"/>
+      <c r="EJ13" s="1"/>
+      <c r="EK13" s="1"/>
+      <c r="EL13" s="1"/>
+      <c r="EM13" s="1"/>
+      <c r="EN13" s="1"/>
+      <c r="EO13" s="1"/>
+      <c r="EP13" s="1"/>
+      <c r="EQ13" s="1"/>
+      <c r="ER13" s="1"/>
+      <c r="ES13" s="1"/>
+      <c r="ET13" s="1"/>
+      <c r="EU13" s="1"/>
+      <c r="EV13" s="1"/>
+      <c r="EW13" s="1"/>
+      <c r="EX13" s="1"/>
+      <c r="EY13" s="1"/>
+      <c r="EZ13" s="1"/>
+      <c r="FA13" s="1"/>
+      <c r="FB13" s="1"/>
     </row>
-    <row r="14" spans="1:123" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:158" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>72</v>
       </c>
@@ -3209,8 +3873,43 @@
       <c r="DQ14" s="1"/>
       <c r="DR14" s="1"/>
       <c r="DS14" s="1"/>
+      <c r="DT14" s="1"/>
+      <c r="DU14" s="1"/>
+      <c r="DV14" s="1"/>
+      <c r="DW14" s="1"/>
+      <c r="DX14" s="1"/>
+      <c r="DY14" s="1"/>
+      <c r="DZ14" s="1"/>
+      <c r="EA14" s="1"/>
+      <c r="EB14" s="1"/>
+      <c r="EC14" s="1"/>
+      <c r="ED14" s="1"/>
+      <c r="EE14" s="1"/>
+      <c r="EF14" s="1"/>
+      <c r="EG14" s="1"/>
+      <c r="EH14" s="1"/>
+      <c r="EI14" s="1"/>
+      <c r="EJ14" s="1"/>
+      <c r="EK14" s="1"/>
+      <c r="EL14" s="1"/>
+      <c r="EM14" s="1"/>
+      <c r="EN14" s="1"/>
+      <c r="EO14" s="1"/>
+      <c r="EP14" s="1"/>
+      <c r="EQ14" s="1"/>
+      <c r="ER14" s="1"/>
+      <c r="ES14" s="1"/>
+      <c r="ET14" s="1"/>
+      <c r="EU14" s="1"/>
+      <c r="EV14" s="1"/>
+      <c r="EW14" s="1"/>
+      <c r="EX14" s="1"/>
+      <c r="EY14" s="1"/>
+      <c r="EZ14" s="1"/>
+      <c r="FA14" s="1"/>
+      <c r="FB14" s="1"/>
     </row>
-    <row r="15" spans="1:123" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:158" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>73</v>
       </c>
@@ -3338,8 +4037,43 @@
       <c r="DQ15" s="1"/>
       <c r="DR15" s="1"/>
       <c r="DS15" s="1"/>
+      <c r="DT15" s="1"/>
+      <c r="DU15" s="1"/>
+      <c r="DV15" s="1"/>
+      <c r="DW15" s="1"/>
+      <c r="DX15" s="1"/>
+      <c r="DY15" s="1"/>
+      <c r="DZ15" s="1"/>
+      <c r="EA15" s="1"/>
+      <c r="EB15" s="1"/>
+      <c r="EC15" s="1"/>
+      <c r="ED15" s="1"/>
+      <c r="EE15" s="1"/>
+      <c r="EF15" s="1"/>
+      <c r="EG15" s="1"/>
+      <c r="EH15" s="1"/>
+      <c r="EI15" s="1"/>
+      <c r="EJ15" s="1"/>
+      <c r="EK15" s="1"/>
+      <c r="EL15" s="1"/>
+      <c r="EM15" s="1"/>
+      <c r="EN15" s="1"/>
+      <c r="EO15" s="1"/>
+      <c r="EP15" s="1"/>
+      <c r="EQ15" s="1"/>
+      <c r="ER15" s="1"/>
+      <c r="ES15" s="1"/>
+      <c r="ET15" s="1"/>
+      <c r="EU15" s="1"/>
+      <c r="EV15" s="1"/>
+      <c r="EW15" s="1"/>
+      <c r="EX15" s="1"/>
+      <c r="EY15" s="1"/>
+      <c r="EZ15" s="1"/>
+      <c r="FA15" s="1"/>
+      <c r="FB15" s="1"/>
     </row>
-    <row r="16" spans="1:123" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:158" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>34</v>
       </c>
@@ -3377,44 +4111,44 @@
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
-      <c r="AJ16" s="22" t="s">
+      <c r="AJ16" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="AK16" s="22"/>
-      <c r="AL16" s="22"/>
-      <c r="AM16" s="22"/>
-      <c r="AN16" s="22"/>
-      <c r="AO16" s="22"/>
-      <c r="AP16" s="18" t="s">
+      <c r="AK16" s="31"/>
+      <c r="AL16" s="31"/>
+      <c r="AM16" s="31"/>
+      <c r="AN16" s="31"/>
+      <c r="AO16" s="31"/>
+      <c r="AP16" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="AQ16" s="18"/>
+      <c r="AQ16" s="30"/>
       <c r="AR16" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="AS16" s="18" t="s">
+      <c r="AS16" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="AT16" s="18"/>
+      <c r="AT16" s="30"/>
       <c r="AU16" s="1"/>
       <c r="AV16" s="1"/>
       <c r="AW16" s="1"/>
       <c r="AX16" s="1"/>
-      <c r="AY16" s="18" t="s">
+      <c r="AY16" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="AZ16" s="18"/>
-      <c r="BA16" s="18"/>
+      <c r="AZ16" s="30"/>
+      <c r="BA16" s="30"/>
       <c r="BB16" s="1"/>
-      <c r="BC16" s="22" t="s">
+      <c r="BC16" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="BD16" s="22"/>
+      <c r="BD16" s="31"/>
       <c r="BE16" s="1"/>
-      <c r="BF16" s="22" t="s">
+      <c r="BF16" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="BG16" s="22"/>
+      <c r="BG16" s="31"/>
       <c r="BH16" s="1"/>
       <c r="BI16" s="1"/>
       <c r="BJ16" s="1"/>
@@ -3479,8 +4213,43 @@
       <c r="DQ16" s="1"/>
       <c r="DR16" s="1"/>
       <c r="DS16" s="1"/>
+      <c r="DT16" s="1"/>
+      <c r="DU16" s="1"/>
+      <c r="DV16" s="1"/>
+      <c r="DW16" s="1"/>
+      <c r="DX16" s="1"/>
+      <c r="DY16" s="1"/>
+      <c r="DZ16" s="1"/>
+      <c r="EA16" s="1"/>
+      <c r="EB16" s="1"/>
+      <c r="EC16" s="1"/>
+      <c r="ED16" s="1"/>
+      <c r="EE16" s="1"/>
+      <c r="EF16" s="1"/>
+      <c r="EG16" s="1"/>
+      <c r="EH16" s="1"/>
+      <c r="EI16" s="1"/>
+      <c r="EJ16" s="1"/>
+      <c r="EK16" s="1"/>
+      <c r="EL16" s="1"/>
+      <c r="EM16" s="1"/>
+      <c r="EN16" s="1"/>
+      <c r="EO16" s="1"/>
+      <c r="EP16" s="1"/>
+      <c r="EQ16" s="1"/>
+      <c r="ER16" s="1"/>
+      <c r="ES16" s="1"/>
+      <c r="ET16" s="1"/>
+      <c r="EU16" s="1"/>
+      <c r="EV16" s="1"/>
+      <c r="EW16" s="1"/>
+      <c r="EX16" s="1"/>
+      <c r="EY16" s="1"/>
+      <c r="EZ16" s="1"/>
+      <c r="FA16" s="1"/>
+      <c r="FB16" s="1"/>
     </row>
-    <row r="17" spans="1:123" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:158" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>33</v>
       </c>
@@ -3505,18 +4274,18 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
-      <c r="W17" s="22" t="s">
+      <c r="W17" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="X17" s="22"/>
-      <c r="Y17" s="22"/>
-      <c r="Z17" s="22"/>
-      <c r="AA17" s="22"/>
-      <c r="AB17" s="22" t="s">
+      <c r="X17" s="31"/>
+      <c r="Y17" s="31"/>
+      <c r="Z17" s="31"/>
+      <c r="AA17" s="31"/>
+      <c r="AB17" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="AC17" s="22"/>
-      <c r="AD17" s="22"/>
+      <c r="AC17" s="31"/>
+      <c r="AD17" s="31"/>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
@@ -3558,32 +4327,32 @@
       <c r="BQ17" s="1"/>
       <c r="BR17" s="1"/>
       <c r="BS17" s="1"/>
-      <c r="BT17" s="22" t="s">
+      <c r="BT17" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="BU17" s="22"/>
-      <c r="BV17" s="22"/>
-      <c r="BW17" s="22"/>
-      <c r="BX17" s="22"/>
+      <c r="BU17" s="31"/>
+      <c r="BV17" s="31"/>
+      <c r="BW17" s="31"/>
+      <c r="BX17" s="31"/>
       <c r="BY17" s="1"/>
       <c r="BZ17" s="1"/>
-      <c r="CA17" s="22" t="s">
+      <c r="CA17" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="CB17" s="22"/>
-      <c r="CC17" s="22"/>
-      <c r="CD17" s="22"/>
-      <c r="CE17" s="22"/>
+      <c r="CB17" s="31"/>
+      <c r="CC17" s="31"/>
+      <c r="CD17" s="31"/>
+      <c r="CE17" s="31"/>
       <c r="CF17" s="1"/>
       <c r="CG17" s="1"/>
-      <c r="CH17" s="19" t="s">
+      <c r="CH17" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="CI17" s="20"/>
-      <c r="CJ17" s="20"/>
-      <c r="CK17" s="20"/>
-      <c r="CL17" s="20"/>
-      <c r="CM17" s="21"/>
+      <c r="CI17" s="25"/>
+      <c r="CJ17" s="25"/>
+      <c r="CK17" s="25"/>
+      <c r="CL17" s="25"/>
+      <c r="CM17" s="26"/>
       <c r="CN17" s="1"/>
       <c r="CO17" s="1"/>
       <c r="CP17" s="1"/>
@@ -3592,41 +4361,84 @@
       <c r="CS17" s="1"/>
       <c r="CT17" s="1"/>
       <c r="CU17" s="1"/>
-      <c r="CV17" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="CW17" s="20"/>
-      <c r="CX17" s="20"/>
-      <c r="CY17" s="20"/>
-      <c r="CZ17" s="20"/>
-      <c r="DA17" s="21"/>
+      <c r="CV17" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="CW17" s="25"/>
+      <c r="CX17" s="25"/>
+      <c r="CY17" s="25"/>
+      <c r="CZ17" s="25"/>
+      <c r="DA17" s="26"/>
       <c r="DB17" s="1"/>
-      <c r="DC17" s="1"/>
-      <c r="DD17" s="1"/>
-      <c r="DE17" s="1"/>
-      <c r="DF17" s="1"/>
-      <c r="DG17" s="1"/>
+      <c r="DC17" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="DD17" s="28"/>
+      <c r="DE17" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="DF17" s="25"/>
+      <c r="DG17" s="26"/>
       <c r="DH17" s="1"/>
       <c r="DI17" s="1"/>
-      <c r="DJ17" s="1"/>
-      <c r="DK17" s="1"/>
-      <c r="DL17" s="1"/>
-      <c r="DM17" s="1"/>
-      <c r="DN17" s="1"/>
-      <c r="DO17" s="1"/>
+      <c r="DJ17" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="DK17" s="29"/>
+      <c r="DL17" s="29"/>
+      <c r="DM17" s="29"/>
+      <c r="DN17" s="29"/>
+      <c r="DO17" s="28"/>
       <c r="DP17" s="1"/>
-      <c r="DQ17" s="1"/>
-      <c r="DR17" s="1"/>
-      <c r="DS17" s="1"/>
+      <c r="DQ17" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="DR17" s="25"/>
+      <c r="DS17" s="25"/>
+      <c r="DT17" s="26"/>
+      <c r="DU17" s="1"/>
+      <c r="DV17" s="1"/>
+      <c r="DW17" s="1"/>
+      <c r="DX17" s="1"/>
+      <c r="DY17" s="1"/>
+      <c r="DZ17" s="1"/>
+      <c r="EA17" s="1"/>
+      <c r="EB17" s="1"/>
+      <c r="EC17" s="1"/>
+      <c r="ED17" s="1"/>
+      <c r="EE17" s="1"/>
+      <c r="EF17" s="1"/>
+      <c r="EG17" s="1"/>
+      <c r="EH17" s="1"/>
+      <c r="EI17" s="1"/>
+      <c r="EJ17" s="1"/>
+      <c r="EK17" s="1"/>
+      <c r="EL17" s="1"/>
+      <c r="EM17" s="1"/>
+      <c r="EN17" s="1"/>
+      <c r="EO17" s="1"/>
+      <c r="EP17" s="1"/>
+      <c r="EQ17" s="1"/>
+      <c r="ER17" s="1"/>
+      <c r="ES17" s="1"/>
+      <c r="ET17" s="1"/>
+      <c r="EU17" s="1"/>
+      <c r="EV17" s="1"/>
+      <c r="EW17" s="1"/>
+      <c r="EX17" s="1"/>
+      <c r="EY17" s="1"/>
+      <c r="EZ17" s="1"/>
+      <c r="FA17" s="1"/>
+      <c r="FB17" s="1"/>
     </row>
-    <row r="18" spans="1:123" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:158" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="22"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -3649,16 +4461,16 @@
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
-      <c r="Z18" s="22" t="s">
+      <c r="Z18" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="AA18" s="22"/>
-      <c r="AB18" s="22"/>
-      <c r="AC18" s="22"/>
-      <c r="AD18" s="22" t="s">
+      <c r="AA18" s="31"/>
+      <c r="AB18" s="31"/>
+      <c r="AC18" s="31"/>
+      <c r="AD18" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="AE18" s="22"/>
+      <c r="AE18" s="31"/>
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
       <c r="AH18" s="1"/>
@@ -3751,39 +4563,74 @@
       <c r="DQ18" s="1"/>
       <c r="DR18" s="1"/>
       <c r="DS18" s="1"/>
+      <c r="DT18" s="1"/>
+      <c r="DU18" s="1"/>
+      <c r="DV18" s="1"/>
+      <c r="DW18" s="1"/>
+      <c r="DX18" s="1"/>
+      <c r="DY18" s="1"/>
+      <c r="DZ18" s="1"/>
+      <c r="EA18" s="1"/>
+      <c r="EB18" s="1"/>
+      <c r="EC18" s="1"/>
+      <c r="ED18" s="1"/>
+      <c r="EE18" s="1"/>
+      <c r="EF18" s="1"/>
+      <c r="EG18" s="1"/>
+      <c r="EH18" s="1"/>
+      <c r="EI18" s="1"/>
+      <c r="EJ18" s="1"/>
+      <c r="EK18" s="1"/>
+      <c r="EL18" s="1"/>
+      <c r="EM18" s="1"/>
+      <c r="EN18" s="1"/>
+      <c r="EO18" s="1"/>
+      <c r="EP18" s="1"/>
+      <c r="EQ18" s="1"/>
+      <c r="ER18" s="1"/>
+      <c r="ES18" s="1"/>
+      <c r="ET18" s="1"/>
+      <c r="EU18" s="1"/>
+      <c r="EV18" s="1"/>
+      <c r="EW18" s="1"/>
+      <c r="EX18" s="1"/>
+      <c r="EY18" s="1"/>
+      <c r="EZ18" s="1"/>
+      <c r="FA18" s="1"/>
+      <c r="FB18" s="1"/>
     </row>
-    <row r="19" spans="1:123" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:158" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="22" t="s">
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="V19" s="22"/>
-      <c r="W19" s="22"/>
-      <c r="X19" s="22"/>
-      <c r="Y19" s="22"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="31"/>
+      <c r="Y19" s="31"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
@@ -3794,45 +4641,45 @@
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
-      <c r="AJ19" s="22" t="s">
+      <c r="AJ19" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="AK19" s="22"/>
-      <c r="AL19" s="22"/>
-      <c r="AM19" s="22"/>
-      <c r="AN19" s="22"/>
-      <c r="AO19" s="22"/>
+      <c r="AK19" s="31"/>
+      <c r="AL19" s="31"/>
+      <c r="AM19" s="31"/>
+      <c r="AN19" s="31"/>
+      <c r="AO19" s="31"/>
       <c r="AP19" s="1"/>
       <c r="AQ19" s="1"/>
       <c r="AR19" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="AS19" s="22" t="s">
+      <c r="AS19" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="AT19" s="22"/>
-      <c r="AU19" s="22"/>
-      <c r="AV19" s="22"/>
-      <c r="AW19" s="22"/>
+      <c r="AT19" s="31"/>
+      <c r="AU19" s="31"/>
+      <c r="AV19" s="31"/>
+      <c r="AW19" s="31"/>
       <c r="AX19" s="1"/>
-      <c r="AY19" s="18" t="s">
+      <c r="AY19" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="AZ19" s="18"/>
-      <c r="BA19" s="18"/>
-      <c r="BB19" s="18"/>
-      <c r="BC19" s="18"/>
+      <c r="AZ19" s="30"/>
+      <c r="BA19" s="30"/>
+      <c r="BB19" s="30"/>
+      <c r="BC19" s="30"/>
       <c r="BD19" s="1"/>
       <c r="BE19" s="1"/>
-      <c r="BF19" s="22" t="s">
+      <c r="BF19" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="BG19" s="22"/>
-      <c r="BH19" s="19" t="s">
+      <c r="BG19" s="31"/>
+      <c r="BH19" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="BI19" s="20"/>
-      <c r="BJ19" s="21"/>
+      <c r="BI19" s="25"/>
+      <c r="BJ19" s="26"/>
       <c r="BK19" s="1"/>
       <c r="BL19" s="1"/>
       <c r="BM19" s="1"/>
@@ -3849,11 +4696,11 @@
       <c r="BX19" s="1"/>
       <c r="BY19" s="1"/>
       <c r="BZ19" s="1"/>
-      <c r="CA19" s="19" t="s">
+      <c r="CA19" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="CB19" s="20"/>
-      <c r="CC19" s="21"/>
+      <c r="CB19" s="25"/>
+      <c r="CC19" s="26"/>
       <c r="CD19" s="1"/>
       <c r="CE19" s="1"/>
       <c r="CF19" s="1"/>
@@ -3867,11 +4714,11 @@
       <c r="CN19" s="1"/>
       <c r="CO19" s="1"/>
       <c r="CP19" s="1"/>
-      <c r="CQ19" s="19" t="s">
+      <c r="CQ19" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="CR19" s="20"/>
-      <c r="CS19" s="21"/>
+      <c r="CR19" s="25"/>
+      <c r="CS19" s="26"/>
       <c r="CT19" s="1"/>
       <c r="CU19" s="1"/>
       <c r="CV19" s="1"/>
@@ -3884,10 +4731,14 @@
       <c r="DA19" s="1"/>
       <c r="DB19" s="1"/>
       <c r="DC19" s="1"/>
-      <c r="DD19" s="1"/>
+      <c r="DD19" s="19" t="s">
+        <v>146</v>
+      </c>
       <c r="DE19" s="1"/>
       <c r="DF19" s="1"/>
-      <c r="DG19" s="1"/>
+      <c r="DG19" s="20" t="s">
+        <v>146</v>
+      </c>
       <c r="DH19" s="1"/>
       <c r="DI19" s="1"/>
       <c r="DJ19" s="1"/>
@@ -3897,11 +4748,48 @@
       <c r="DN19" s="1"/>
       <c r="DO19" s="1"/>
       <c r="DP19" s="1"/>
-      <c r="DQ19" s="1"/>
-      <c r="DR19" s="1"/>
-      <c r="DS19" s="1"/>
+      <c r="DQ19" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="DR19" s="25"/>
+      <c r="DS19" s="25"/>
+      <c r="DT19" s="26"/>
+      <c r="DU19" s="1"/>
+      <c r="DV19" s="1"/>
+      <c r="DW19" s="1"/>
+      <c r="DX19" s="1"/>
+      <c r="DY19" s="1"/>
+      <c r="DZ19" s="1"/>
+      <c r="EA19" s="1"/>
+      <c r="EB19" s="1"/>
+      <c r="EC19" s="1"/>
+      <c r="ED19" s="1"/>
+      <c r="EE19" s="1"/>
+      <c r="EF19" s="1"/>
+      <c r="EG19" s="1"/>
+      <c r="EH19" s="1"/>
+      <c r="EI19" s="1"/>
+      <c r="EJ19" s="1"/>
+      <c r="EK19" s="1"/>
+      <c r="EL19" s="1"/>
+      <c r="EM19" s="1"/>
+      <c r="EN19" s="1"/>
+      <c r="EO19" s="1"/>
+      <c r="EP19" s="1"/>
+      <c r="EQ19" s="1"/>
+      <c r="ER19" s="1"/>
+      <c r="ES19" s="1"/>
+      <c r="ET19" s="1"/>
+      <c r="EU19" s="1"/>
+      <c r="EV19" s="1"/>
+      <c r="EW19" s="1"/>
+      <c r="EX19" s="1"/>
+      <c r="EY19" s="1"/>
+      <c r="EZ19" s="1"/>
+      <c r="FA19" s="1"/>
+      <c r="FB19" s="1"/>
     </row>
-    <row r="20" spans="1:123" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:158" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>45</v>
       </c>
@@ -3956,10 +4844,10 @@
       <c r="AV20" s="1"/>
       <c r="AW20" s="1"/>
       <c r="AX20" s="1"/>
-      <c r="AY20" s="22" t="s">
+      <c r="AY20" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="AZ20" s="22"/>
+      <c r="AZ20" s="31"/>
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
       <c r="BC20" s="1"/>
@@ -4031,8 +4919,43 @@
       <c r="DQ20" s="1"/>
       <c r="DR20" s="1"/>
       <c r="DS20" s="1"/>
+      <c r="DT20" s="1"/>
+      <c r="DU20" s="1"/>
+      <c r="DV20" s="1"/>
+      <c r="DW20" s="1"/>
+      <c r="DX20" s="1"/>
+      <c r="DY20" s="1"/>
+      <c r="DZ20" s="1"/>
+      <c r="EA20" s="1"/>
+      <c r="EB20" s="1"/>
+      <c r="EC20" s="1"/>
+      <c r="ED20" s="1"/>
+      <c r="EE20" s="1"/>
+      <c r="EF20" s="1"/>
+      <c r="EG20" s="1"/>
+      <c r="EH20" s="1"/>
+      <c r="EI20" s="1"/>
+      <c r="EJ20" s="1"/>
+      <c r="EK20" s="1"/>
+      <c r="EL20" s="1"/>
+      <c r="EM20" s="1"/>
+      <c r="EN20" s="1"/>
+      <c r="EO20" s="1"/>
+      <c r="EP20" s="1"/>
+      <c r="EQ20" s="1"/>
+      <c r="ER20" s="1"/>
+      <c r="ES20" s="1"/>
+      <c r="ET20" s="1"/>
+      <c r="EU20" s="1"/>
+      <c r="EV20" s="1"/>
+      <c r="EW20" s="1"/>
+      <c r="EX20" s="1"/>
+      <c r="EY20" s="1"/>
+      <c r="EZ20" s="1"/>
+      <c r="FA20" s="1"/>
+      <c r="FB20" s="1"/>
     </row>
-    <row r="21" spans="1:123" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:158" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>46</v>
       </c>
@@ -4099,10 +5022,10 @@
       <c r="BH21" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BI21" s="18" t="s">
+      <c r="BI21" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="BJ21" s="18"/>
+      <c r="BJ21" s="30"/>
       <c r="BK21" s="1"/>
       <c r="BL21" s="1"/>
       <c r="BM21" s="1"/>
@@ -4150,7 +5073,9 @@
       <c r="DA21" s="1"/>
       <c r="DB21" s="1"/>
       <c r="DC21" s="1"/>
-      <c r="DD21" s="1"/>
+      <c r="DD21" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="DE21" s="1"/>
       <c r="DF21" s="1"/>
       <c r="DG21" s="1"/>
@@ -4166,8 +5091,43 @@
       <c r="DQ21" s="1"/>
       <c r="DR21" s="1"/>
       <c r="DS21" s="1"/>
+      <c r="DT21" s="1"/>
+      <c r="DU21" s="1"/>
+      <c r="DV21" s="1"/>
+      <c r="DW21" s="1"/>
+      <c r="DX21" s="1"/>
+      <c r="DY21" s="1"/>
+      <c r="DZ21" s="1"/>
+      <c r="EA21" s="1"/>
+      <c r="EB21" s="1"/>
+      <c r="EC21" s="1"/>
+      <c r="ED21" s="1"/>
+      <c r="EE21" s="1"/>
+      <c r="EF21" s="1"/>
+      <c r="EG21" s="1"/>
+      <c r="EH21" s="1"/>
+      <c r="EI21" s="1"/>
+      <c r="EJ21" s="1"/>
+      <c r="EK21" s="1"/>
+      <c r="EL21" s="1"/>
+      <c r="EM21" s="1"/>
+      <c r="EN21" s="1"/>
+      <c r="EO21" s="1"/>
+      <c r="EP21" s="1"/>
+      <c r="EQ21" s="1"/>
+      <c r="ER21" s="1"/>
+      <c r="ES21" s="1"/>
+      <c r="ET21" s="1"/>
+      <c r="EU21" s="1"/>
+      <c r="EV21" s="1"/>
+      <c r="EW21" s="1"/>
+      <c r="EX21" s="1"/>
+      <c r="EY21" s="1"/>
+      <c r="EZ21" s="1"/>
+      <c r="FA21" s="1"/>
+      <c r="FB21" s="1"/>
     </row>
-    <row r="22" spans="1:123" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:158" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>96</v>
       </c>
@@ -4297,15 +5257,53 @@
       <c r="DQ22" s="1"/>
       <c r="DR22" s="1"/>
       <c r="DS22" s="1"/>
+      <c r="DT22" s="1"/>
+      <c r="DU22" s="1"/>
+      <c r="DV22" s="1"/>
+      <c r="DW22" s="1"/>
+      <c r="DX22" s="1"/>
+      <c r="DY22" s="1"/>
+      <c r="DZ22" s="1"/>
+      <c r="EA22" s="1"/>
+      <c r="EB22" s="1"/>
+      <c r="EC22" s="1"/>
+      <c r="ED22" s="1"/>
+      <c r="EE22" s="1"/>
+      <c r="EF22" s="1"/>
+      <c r="EG22" s="1"/>
+      <c r="EH22" s="1"/>
+      <c r="EI22" s="1"/>
+      <c r="EJ22" s="1"/>
+      <c r="EK22" s="1"/>
+      <c r="EL22" s="1"/>
+      <c r="EM22" s="1"/>
+      <c r="EN22" s="1"/>
+      <c r="EO22" s="1"/>
+      <c r="EP22" s="1"/>
+      <c r="EQ22" s="1"/>
+      <c r="ER22" s="1"/>
+      <c r="ES22" s="1"/>
+      <c r="ET22" s="1"/>
+      <c r="EU22" s="1"/>
+      <c r="EV22" s="1"/>
+      <c r="EW22" s="1"/>
+      <c r="EX22" s="1"/>
+      <c r="EY22" s="1"/>
+      <c r="EZ22" s="1"/>
+      <c r="FA22" s="1"/>
+      <c r="FB22" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="59">
-    <mergeCell ref="CH17:CM17"/>
-    <mergeCell ref="CO10:CT10"/>
-    <mergeCell ref="CQ19:CS19"/>
+  <mergeCells count="70">
+    <mergeCell ref="DN5:DO5"/>
+    <mergeCell ref="DM11:DO11"/>
+    <mergeCell ref="DJ17:DO17"/>
     <mergeCell ref="CY7:DA7"/>
     <mergeCell ref="CY5:DA5"/>
     <mergeCell ref="CV17:DA17"/>
+    <mergeCell ref="DD11:DG11"/>
+    <mergeCell ref="DE17:DG17"/>
+    <mergeCell ref="DC17:DD17"/>
     <mergeCell ref="BI7:BJ7"/>
     <mergeCell ref="CH11:CJ11"/>
     <mergeCell ref="Y5:AB5"/>
@@ -4313,6 +5311,8 @@
     <mergeCell ref="AV6:AW6"/>
     <mergeCell ref="AV7:AW7"/>
     <mergeCell ref="CH10:CM10"/>
+    <mergeCell ref="AD9:AJ9"/>
+    <mergeCell ref="AT9:AU9"/>
     <mergeCell ref="AZ2:BB2"/>
     <mergeCell ref="U19:Y19"/>
     <mergeCell ref="W17:AA17"/>
@@ -4340,12 +5340,12 @@
     <mergeCell ref="AD10:AL10"/>
     <mergeCell ref="AS19:AW19"/>
     <mergeCell ref="AY13:AZ13"/>
-    <mergeCell ref="AD9:AJ9"/>
     <mergeCell ref="AP16:AQ16"/>
     <mergeCell ref="AJ16:AO16"/>
     <mergeCell ref="AL11:AM11"/>
-    <mergeCell ref="AT9:AU9"/>
     <mergeCell ref="AY16:BA16"/>
+    <mergeCell ref="CH17:CM17"/>
+    <mergeCell ref="CO10:CT10"/>
     <mergeCell ref="BI21:BJ21"/>
     <mergeCell ref="BH19:BJ19"/>
     <mergeCell ref="BF19:BG19"/>
@@ -4359,6 +5359,12 @@
     <mergeCell ref="BN12:BP12"/>
     <mergeCell ref="BF13:BG13"/>
     <mergeCell ref="BF16:BG16"/>
+    <mergeCell ref="CQ19:CS19"/>
+    <mergeCell ref="DQ19:DT19"/>
+    <mergeCell ref="DR8:DS8"/>
+    <mergeCell ref="DQ11:DR11"/>
+    <mergeCell ref="DT7:DU7"/>
+    <mergeCell ref="DQ17:DT17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/项目进度表.xlsx
+++ b/项目进度表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="161">
   <si>
     <t>顺丰项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -615,6 +615,73 @@
   </si>
   <si>
     <t>V1.2.0测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW_CA_V410R004B002测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW_CA_SU_V100R001B102提测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW_CA_SU_V100R001B102测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW_CA_SU_V200R001B110SP02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW_CA_SW_V100R001B106SP09</t>
+  </si>
+  <si>
+    <r>
+      <t>RW_CA_V410R004B002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提测</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW_CA_SUT_V410R004B001SP01第三轮测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW_CA_SUT_V410R004B001SP01第三轮提测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.2.0第二轮测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.2.0第三轮测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW_CA_SU_V200R003B103第一轮测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW_CA_SU_V200R003B103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW_CA_V100R001B111第一轮提测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW_CA_V100R001B111第一轮测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -622,7 +689,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -645,6 +712,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="7">
@@ -749,7 +823,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -820,14 +894,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -837,6 +908,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1127,10 +1207,10 @@
   <dimension ref="A1:FB22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="CS8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="DX5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="DG20" sqref="DG20"/>
+      <selection pane="bottomRight" activeCell="EJ12" sqref="EJ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1621,32 +1701,32 @@
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="31" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="30" t="s">
+      <c r="L2" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
@@ -1672,22 +1752,22 @@
       <c r="AR2" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="AS2" s="31" t="s">
+      <c r="AS2" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="AT2" s="31"/>
-      <c r="AU2" s="31"/>
+      <c r="AT2" s="33"/>
+      <c r="AU2" s="33"/>
       <c r="AV2" s="1"/>
       <c r="AW2" s="1"/>
       <c r="AX2" s="1"/>
       <c r="AY2" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="AZ2" s="31" t="s">
+      <c r="AZ2" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="BA2" s="31"/>
-      <c r="BB2" s="31"/>
+      <c r="BA2" s="33"/>
+      <c r="BB2" s="33"/>
       <c r="BC2" s="1"/>
       <c r="BD2" s="1"/>
       <c r="BE2" s="1"/>
@@ -1808,33 +1888,33 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="30" t="s">
+      <c r="K3" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
       <c r="R3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="S3" s="31" t="s">
+      <c r="S3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="31"/>
+      <c r="T3" s="33"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
-      <c r="AA3" s="31" t="s">
+      <c r="AA3" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
@@ -2026,10 +2106,10 @@
       </c>
       <c r="AW4" s="1"/>
       <c r="AX4" s="1"/>
-      <c r="AY4" s="31" t="s">
+      <c r="AY4" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="AZ4" s="31"/>
+      <c r="AZ4" s="33"/>
       <c r="BA4" s="14"/>
       <c r="BB4" s="1"/>
       <c r="BC4" s="14"/>
@@ -2168,12 +2248,12 @@
         <v>13</v>
       </c>
       <c r="X5" s="1"/>
-      <c r="Y5" s="31" t="s">
+      <c r="Y5" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="Z5" s="31"/>
-      <c r="AA5" s="31"/>
-      <c r="AB5" s="31"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
@@ -2186,11 +2266,11 @@
       <c r="AL5" s="1"/>
       <c r="AM5" s="1"/>
       <c r="AN5" s="1"/>
-      <c r="AO5" s="31" t="s">
+      <c r="AO5" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="AP5" s="31"/>
-      <c r="AQ5" s="31"/>
+      <c r="AP5" s="33"/>
+      <c r="AQ5" s="33"/>
       <c r="AR5" s="1"/>
       <c r="AS5" s="11" t="s">
         <v>52</v>
@@ -2254,11 +2334,11 @@
       </c>
       <c r="CW5" s="1"/>
       <c r="CX5" s="1"/>
-      <c r="CY5" s="24" t="s">
+      <c r="CY5" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="CZ5" s="25"/>
-      <c r="DA5" s="26"/>
+      <c r="CZ5" s="30"/>
+      <c r="DA5" s="31"/>
       <c r="DB5" s="1"/>
       <c r="DC5" s="18" t="s">
         <v>123</v>
@@ -2275,10 +2355,10 @@
       <c r="DM5" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="DN5" s="27" t="s">
+      <c r="DN5" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="DO5" s="28"/>
+      <c r="DO5" s="27"/>
       <c r="DP5" s="1"/>
       <c r="DQ5" s="22" t="s">
         <v>140</v>
@@ -2303,7 +2383,9 @@
       <c r="EE5" s="1"/>
       <c r="EF5" s="1"/>
       <c r="EG5" s="1"/>
-      <c r="EH5" s="1"/>
+      <c r="EH5" s="25" t="s">
+        <v>150</v>
+      </c>
       <c r="EI5" s="1"/>
       <c r="EJ5" s="1"/>
       <c r="EK5" s="1"/>
@@ -2379,10 +2461,10 @@
         <v>82</v>
       </c>
       <c r="AU6" s="1"/>
-      <c r="AV6" s="31" t="s">
+      <c r="AV6" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="AW6" s="31"/>
+      <c r="AW6" s="33"/>
       <c r="AX6" s="1"/>
       <c r="AY6" s="1"/>
       <c r="AZ6" s="1"/>
@@ -2473,16 +2555,24 @@
       <c r="DW6" s="1"/>
       <c r="DX6" s="1"/>
       <c r="DY6" s="1"/>
-      <c r="DZ6" s="1"/>
-      <c r="EA6" s="1"/>
-      <c r="EB6" s="1"/>
+      <c r="DZ6" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="EA6" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="EB6" s="27"/>
       <c r="EC6" s="1"/>
       <c r="ED6" s="1"/>
-      <c r="EE6" s="1"/>
+      <c r="EE6" s="24" t="s">
+        <v>149</v>
+      </c>
       <c r="EF6" s="1"/>
       <c r="EG6" s="1"/>
       <c r="EH6" s="1"/>
-      <c r="EI6" s="1"/>
+      <c r="EI6" s="25" t="s">
+        <v>151</v>
+      </c>
       <c r="EJ6" s="1"/>
       <c r="EK6" s="1"/>
       <c r="EL6" s="1"/>
@@ -2557,10 +2647,10 @@
       </c>
       <c r="AT7" s="4"/>
       <c r="AU7" s="1"/>
-      <c r="AV7" s="31" t="s">
+      <c r="AV7" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="AW7" s="31"/>
+      <c r="AW7" s="33"/>
       <c r="AX7" s="1"/>
       <c r="AY7" s="1"/>
       <c r="AZ7" s="1"/>
@@ -2568,10 +2658,10 @@
       <c r="BB7" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="BC7" s="30" t="s">
+      <c r="BC7" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="BD7" s="30"/>
+      <c r="BD7" s="32"/>
       <c r="BE7" s="1"/>
       <c r="BF7" s="13" t="s">
         <v>86</v>
@@ -2580,10 +2670,10 @@
       <c r="BH7" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="BI7" s="30" t="s">
+      <c r="BI7" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="BJ7" s="30"/>
+      <c r="BJ7" s="32"/>
       <c r="BK7" s="1"/>
       <c r="BL7" s="1"/>
       <c r="BM7" s="1"/>
@@ -2628,11 +2718,11 @@
       <c r="CX7" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="CY7" s="27" t="s">
+      <c r="CY7" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="CZ7" s="29"/>
-      <c r="DA7" s="28"/>
+      <c r="CZ7" s="28"/>
+      <c r="DA7" s="27"/>
       <c r="DB7" s="1"/>
       <c r="DC7" s="1"/>
       <c r="DD7" s="1"/>
@@ -2659,10 +2749,10 @@
       <c r="DS7" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="DT7" s="27" t="s">
+      <c r="DT7" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="DU7" s="29"/>
+      <c r="DU7" s="28"/>
       <c r="DV7" s="23"/>
       <c r="DW7" s="1"/>
       <c r="DX7" s="1"/>
@@ -2823,10 +2913,10 @@
       <c r="DO8" s="1"/>
       <c r="DP8" s="1"/>
       <c r="DQ8" s="1"/>
-      <c r="DR8" s="27" t="s">
+      <c r="DR8" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="DS8" s="28"/>
+      <c r="DS8" s="27"/>
       <c r="DT8" s="1"/>
       <c r="DU8" s="1"/>
       <c r="DV8" s="1"/>
@@ -2897,15 +2987,15 @@
       <c r="AA9" s="3"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
-      <c r="AD9" s="31" t="s">
+      <c r="AD9" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="AE9" s="31"/>
-      <c r="AF9" s="31"/>
-      <c r="AG9" s="31"/>
-      <c r="AH9" s="31"/>
-      <c r="AI9" s="31"/>
-      <c r="AJ9" s="31"/>
+      <c r="AE9" s="33"/>
+      <c r="AF9" s="33"/>
+      <c r="AG9" s="33"/>
+      <c r="AH9" s="33"/>
+      <c r="AI9" s="33"/>
+      <c r="AJ9" s="33"/>
       <c r="AK9" s="1"/>
       <c r="AL9" s="1"/>
       <c r="AM9" s="1"/>
@@ -2917,10 +3007,10 @@
         <v>48</v>
       </c>
       <c r="AS9" s="1"/>
-      <c r="AT9" s="30" t="s">
+      <c r="AT9" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="AU9" s="31"/>
+      <c r="AU9" s="33"/>
       <c r="AV9" s="11" t="s">
         <v>76</v>
       </c>
@@ -3014,11 +3104,15 @@
       <c r="EF9" s="1"/>
       <c r="EG9" s="1"/>
       <c r="EH9" s="1"/>
-      <c r="EI9" s="1"/>
+      <c r="EI9" s="10" t="s">
+        <v>158</v>
+      </c>
       <c r="EJ9" s="1"/>
       <c r="EK9" s="1"/>
-      <c r="EL9" s="1"/>
-      <c r="EM9" s="1"/>
+      <c r="EL9" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="EM9" s="27"/>
       <c r="EN9" s="1"/>
       <c r="EO9" s="1"/>
       <c r="EP9" s="1"/>
@@ -3058,34 +3152,34 @@
         <v>28</v>
       </c>
       <c r="P10" s="1"/>
-      <c r="Q10" s="31" t="s">
+      <c r="Q10" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="31"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
       <c r="V10" s="1"/>
-      <c r="W10" s="31" t="s">
+      <c r="W10" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="X10" s="31"/>
+      <c r="X10" s="33"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
-      <c r="AD10" s="31" t="s">
+      <c r="AD10" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="AE10" s="31"/>
-      <c r="AF10" s="31"/>
-      <c r="AG10" s="31"/>
-      <c r="AH10" s="31"/>
-      <c r="AI10" s="31"/>
-      <c r="AJ10" s="31"/>
-      <c r="AK10" s="31"/>
-      <c r="AL10" s="31"/>
+      <c r="AE10" s="33"/>
+      <c r="AF10" s="33"/>
+      <c r="AG10" s="33"/>
+      <c r="AH10" s="33"/>
+      <c r="AI10" s="33"/>
+      <c r="AJ10" s="33"/>
+      <c r="AK10" s="33"/>
+      <c r="AL10" s="33"/>
       <c r="AM10" s="1"/>
       <c r="AN10" s="1"/>
       <c r="AO10" s="1"/>
@@ -3125,41 +3219,41 @@
       <c r="BQ10" s="1"/>
       <c r="BR10" s="1"/>
       <c r="BS10" s="1"/>
-      <c r="BT10" s="31" t="s">
+      <c r="BT10" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="BU10" s="31"/>
-      <c r="BV10" s="31"/>
-      <c r="BW10" s="31"/>
-      <c r="BX10" s="31"/>
+      <c r="BU10" s="33"/>
+      <c r="BV10" s="33"/>
+      <c r="BW10" s="33"/>
+      <c r="BX10" s="33"/>
       <c r="BY10" s="1"/>
       <c r="BZ10" s="1"/>
-      <c r="CA10" s="31" t="s">
+      <c r="CA10" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="CB10" s="31"/>
-      <c r="CC10" s="31"/>
-      <c r="CD10" s="31"/>
-      <c r="CE10" s="31"/>
+      <c r="CB10" s="33"/>
+      <c r="CC10" s="33"/>
+      <c r="CD10" s="33"/>
+      <c r="CE10" s="33"/>
       <c r="CF10" s="1"/>
       <c r="CG10" s="1"/>
-      <c r="CH10" s="24" t="s">
+      <c r="CH10" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="CI10" s="25"/>
-      <c r="CJ10" s="25"/>
-      <c r="CK10" s="25"/>
-      <c r="CL10" s="25"/>
-      <c r="CM10" s="26"/>
+      <c r="CI10" s="30"/>
+      <c r="CJ10" s="30"/>
+      <c r="CK10" s="30"/>
+      <c r="CL10" s="30"/>
+      <c r="CM10" s="31"/>
       <c r="CN10" s="1"/>
-      <c r="CO10" s="24" t="s">
+      <c r="CO10" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="CP10" s="25"/>
-      <c r="CQ10" s="25"/>
-      <c r="CR10" s="25"/>
-      <c r="CS10" s="25"/>
-      <c r="CT10" s="26"/>
+      <c r="CP10" s="30"/>
+      <c r="CQ10" s="30"/>
+      <c r="CR10" s="30"/>
+      <c r="CS10" s="30"/>
+      <c r="CT10" s="31"/>
       <c r="CU10" s="1"/>
       <c r="CV10" s="1"/>
       <c r="CW10" s="1"/>
@@ -3261,10 +3355,10 @@
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
-      <c r="AL11" s="30" t="s">
+      <c r="AL11" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="AM11" s="30"/>
+      <c r="AM11" s="32"/>
       <c r="AN11" s="1"/>
       <c r="AO11" s="1"/>
       <c r="AP11" s="1"/>
@@ -3302,26 +3396,26 @@
       <c r="BV11" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="BW11" s="31" t="s">
+      <c r="BW11" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="BX11" s="31"/>
+      <c r="BX11" s="33"/>
       <c r="BY11" s="1"/>
       <c r="BZ11" s="1"/>
-      <c r="CA11" s="24" t="s">
+      <c r="CA11" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="CB11" s="25"/>
-      <c r="CC11" s="25"/>
-      <c r="CD11" s="25"/>
-      <c r="CE11" s="26"/>
+      <c r="CB11" s="30"/>
+      <c r="CC11" s="30"/>
+      <c r="CD11" s="30"/>
+      <c r="CE11" s="31"/>
       <c r="CF11" s="1"/>
       <c r="CG11" s="1"/>
-      <c r="CH11" s="24" t="s">
+      <c r="CH11" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="CI11" s="25"/>
-      <c r="CJ11" s="26"/>
+      <c r="CI11" s="30"/>
+      <c r="CJ11" s="31"/>
       <c r="CK11" s="1"/>
       <c r="CL11" s="1"/>
       <c r="CM11" s="1"/>
@@ -3343,12 +3437,12 @@
       <c r="DC11" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="DD11" s="27" t="s">
+      <c r="DD11" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="DE11" s="29"/>
-      <c r="DF11" s="29"/>
-      <c r="DG11" s="28"/>
+      <c r="DE11" s="28"/>
+      <c r="DF11" s="28"/>
+      <c r="DG11" s="27"/>
       <c r="DH11" s="1"/>
       <c r="DI11" s="1"/>
       <c r="DJ11" s="1"/>
@@ -3356,33 +3450,41 @@
       <c r="DL11" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="DM11" s="27" t="s">
+      <c r="DM11" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="DN11" s="29"/>
-      <c r="DO11" s="28"/>
+      <c r="DN11" s="28"/>
+      <c r="DO11" s="27"/>
       <c r="DP11" s="1"/>
-      <c r="DQ11" s="27" t="s">
+      <c r="DQ11" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="DR11" s="29"/>
+      <c r="DR11" s="28"/>
       <c r="DS11" s="23"/>
-      <c r="DT11" s="1"/>
+      <c r="DT11" s="10" t="s">
+        <v>152</v>
+      </c>
       <c r="DU11" s="1"/>
       <c r="DV11" s="1"/>
       <c r="DW11" s="1"/>
       <c r="DX11" s="1"/>
       <c r="DY11" s="1"/>
-      <c r="DZ11" s="1"/>
-      <c r="EA11" s="1"/>
-      <c r="EB11" s="1"/>
-      <c r="EC11" s="1"/>
+      <c r="DZ11" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="EA11" s="30"/>
+      <c r="EB11" s="30"/>
+      <c r="EC11" s="31"/>
       <c r="ED11" s="1"/>
       <c r="EE11" s="1"/>
-      <c r="EF11" s="1"/>
-      <c r="EG11" s="1"/>
-      <c r="EH11" s="1"/>
-      <c r="EI11" s="1"/>
+      <c r="EF11" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="EG11" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="EH11" s="28"/>
+      <c r="EI11" s="27"/>
       <c r="EJ11" s="1"/>
       <c r="EK11" s="1"/>
       <c r="EL11" s="1"/>
@@ -3475,11 +3577,11 @@
       <c r="BM12" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="BN12" s="24" t="s">
+      <c r="BN12" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="BO12" s="25"/>
-      <c r="BP12" s="26"/>
+      <c r="BO12" s="30"/>
+      <c r="BP12" s="31"/>
       <c r="BQ12" s="1"/>
       <c r="BR12" s="1"/>
       <c r="BS12" s="1"/>
@@ -3550,8 +3652,12 @@
       <c r="EF12" s="1"/>
       <c r="EG12" s="1"/>
       <c r="EH12" s="1"/>
-      <c r="EI12" s="1"/>
-      <c r="EJ12" s="1"/>
+      <c r="EI12" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="EJ12" s="25" t="s">
+        <v>160</v>
+      </c>
       <c r="EK12" s="1"/>
       <c r="EL12" s="1"/>
       <c r="EM12" s="1"/>
@@ -3626,10 +3732,10 @@
       <c r="AV13" s="1"/>
       <c r="AW13" s="1"/>
       <c r="AX13" s="1"/>
-      <c r="AY13" s="31" t="s">
+      <c r="AY13" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="AZ13" s="31"/>
+      <c r="AZ13" s="33"/>
       <c r="BA13" s="12" t="s">
         <v>63</v>
       </c>
@@ -3639,10 +3745,10 @@
         <v>80</v>
       </c>
       <c r="BE13" s="1"/>
-      <c r="BF13" s="31" t="s">
+      <c r="BF13" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="BG13" s="31"/>
+      <c r="BG13" s="33"/>
       <c r="BH13" s="11" t="s">
         <v>92</v>
       </c>
@@ -4111,44 +4217,44 @@
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
-      <c r="AJ16" s="31" t="s">
+      <c r="AJ16" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="AK16" s="31"/>
-      <c r="AL16" s="31"/>
-      <c r="AM16" s="31"/>
-      <c r="AN16" s="31"/>
-      <c r="AO16" s="31"/>
-      <c r="AP16" s="30" t="s">
+      <c r="AK16" s="33"/>
+      <c r="AL16" s="33"/>
+      <c r="AM16" s="33"/>
+      <c r="AN16" s="33"/>
+      <c r="AO16" s="33"/>
+      <c r="AP16" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="AQ16" s="30"/>
+      <c r="AQ16" s="32"/>
       <c r="AR16" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="AS16" s="30" t="s">
+      <c r="AS16" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="AT16" s="30"/>
+      <c r="AT16" s="32"/>
       <c r="AU16" s="1"/>
       <c r="AV16" s="1"/>
       <c r="AW16" s="1"/>
       <c r="AX16" s="1"/>
-      <c r="AY16" s="30" t="s">
+      <c r="AY16" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="AZ16" s="30"/>
-      <c r="BA16" s="30"/>
+      <c r="AZ16" s="32"/>
+      <c r="BA16" s="32"/>
       <c r="BB16" s="1"/>
-      <c r="BC16" s="31" t="s">
+      <c r="BC16" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="BD16" s="31"/>
+      <c r="BD16" s="33"/>
       <c r="BE16" s="1"/>
-      <c r="BF16" s="31" t="s">
+      <c r="BF16" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="BG16" s="31"/>
+      <c r="BG16" s="33"/>
       <c r="BH16" s="1"/>
       <c r="BI16" s="1"/>
       <c r="BJ16" s="1"/>
@@ -4274,18 +4380,18 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
-      <c r="W17" s="31" t="s">
+      <c r="W17" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="X17" s="31"/>
-      <c r="Y17" s="31"/>
-      <c r="Z17" s="31"/>
-      <c r="AA17" s="31"/>
-      <c r="AB17" s="31" t="s">
+      <c r="X17" s="33"/>
+      <c r="Y17" s="33"/>
+      <c r="Z17" s="33"/>
+      <c r="AA17" s="33"/>
+      <c r="AB17" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="AC17" s="31"/>
-      <c r="AD17" s="31"/>
+      <c r="AC17" s="33"/>
+      <c r="AD17" s="33"/>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
@@ -4327,32 +4433,32 @@
       <c r="BQ17" s="1"/>
       <c r="BR17" s="1"/>
       <c r="BS17" s="1"/>
-      <c r="BT17" s="31" t="s">
+      <c r="BT17" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="BU17" s="31"/>
-      <c r="BV17" s="31"/>
-      <c r="BW17" s="31"/>
-      <c r="BX17" s="31"/>
+      <c r="BU17" s="33"/>
+      <c r="BV17" s="33"/>
+      <c r="BW17" s="33"/>
+      <c r="BX17" s="33"/>
       <c r="BY17" s="1"/>
       <c r="BZ17" s="1"/>
-      <c r="CA17" s="31" t="s">
+      <c r="CA17" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="CB17" s="31"/>
-      <c r="CC17" s="31"/>
-      <c r="CD17" s="31"/>
-      <c r="CE17" s="31"/>
+      <c r="CB17" s="33"/>
+      <c r="CC17" s="33"/>
+      <c r="CD17" s="33"/>
+      <c r="CE17" s="33"/>
       <c r="CF17" s="1"/>
       <c r="CG17" s="1"/>
-      <c r="CH17" s="24" t="s">
+      <c r="CH17" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="CI17" s="25"/>
-      <c r="CJ17" s="25"/>
-      <c r="CK17" s="25"/>
-      <c r="CL17" s="25"/>
-      <c r="CM17" s="26"/>
+      <c r="CI17" s="30"/>
+      <c r="CJ17" s="30"/>
+      <c r="CK17" s="30"/>
+      <c r="CL17" s="30"/>
+      <c r="CM17" s="31"/>
       <c r="CN17" s="1"/>
       <c r="CO17" s="1"/>
       <c r="CP17" s="1"/>
@@ -4361,41 +4467,41 @@
       <c r="CS17" s="1"/>
       <c r="CT17" s="1"/>
       <c r="CU17" s="1"/>
-      <c r="CV17" s="24" t="s">
+      <c r="CV17" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="CW17" s="25"/>
-      <c r="CX17" s="25"/>
-      <c r="CY17" s="25"/>
-      <c r="CZ17" s="25"/>
-      <c r="DA17" s="26"/>
+      <c r="CW17" s="30"/>
+      <c r="CX17" s="30"/>
+      <c r="CY17" s="30"/>
+      <c r="CZ17" s="30"/>
+      <c r="DA17" s="31"/>
       <c r="DB17" s="1"/>
-      <c r="DC17" s="27" t="s">
+      <c r="DC17" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="DD17" s="28"/>
-      <c r="DE17" s="24" t="s">
+      <c r="DD17" s="27"/>
+      <c r="DE17" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="DF17" s="25"/>
-      <c r="DG17" s="26"/>
+      <c r="DF17" s="30"/>
+      <c r="DG17" s="31"/>
       <c r="DH17" s="1"/>
       <c r="DI17" s="1"/>
-      <c r="DJ17" s="27" t="s">
+      <c r="DJ17" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="DK17" s="29"/>
-      <c r="DL17" s="29"/>
-      <c r="DM17" s="29"/>
-      <c r="DN17" s="29"/>
-      <c r="DO17" s="28"/>
+      <c r="DK17" s="28"/>
+      <c r="DL17" s="28"/>
+      <c r="DM17" s="28"/>
+      <c r="DN17" s="28"/>
+      <c r="DO17" s="27"/>
       <c r="DP17" s="1"/>
-      <c r="DQ17" s="24" t="s">
+      <c r="DQ17" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="DR17" s="25"/>
-      <c r="DS17" s="25"/>
-      <c r="DT17" s="26"/>
+      <c r="DR17" s="30"/>
+      <c r="DS17" s="30"/>
+      <c r="DT17" s="31"/>
       <c r="DU17" s="1"/>
       <c r="DV17" s="1"/>
       <c r="DW17" s="1"/>
@@ -4435,10 +4541,10 @@
       <c r="A18" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="31"/>
+      <c r="C18" s="33"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -4461,16 +4567,16 @@
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
-      <c r="Z18" s="31" t="s">
+      <c r="Z18" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="AA18" s="31"/>
-      <c r="AB18" s="31"/>
-      <c r="AC18" s="31"/>
-      <c r="AD18" s="31" t="s">
+      <c r="AA18" s="33"/>
+      <c r="AB18" s="33"/>
+      <c r="AC18" s="33"/>
+      <c r="AD18" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="AE18" s="31"/>
+      <c r="AE18" s="33"/>
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
       <c r="AH18" s="1"/>
@@ -4603,34 +4709,34 @@
       <c r="A19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="31" t="s">
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="V19" s="31"/>
-      <c r="W19" s="31"/>
-      <c r="X19" s="31"/>
-      <c r="Y19" s="31"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="33"/>
+      <c r="X19" s="33"/>
+      <c r="Y19" s="33"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
@@ -4641,45 +4747,45 @@
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
-      <c r="AJ19" s="31" t="s">
+      <c r="AJ19" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="AK19" s="31"/>
-      <c r="AL19" s="31"/>
-      <c r="AM19" s="31"/>
-      <c r="AN19" s="31"/>
-      <c r="AO19" s="31"/>
+      <c r="AK19" s="33"/>
+      <c r="AL19" s="33"/>
+      <c r="AM19" s="33"/>
+      <c r="AN19" s="33"/>
+      <c r="AO19" s="33"/>
       <c r="AP19" s="1"/>
       <c r="AQ19" s="1"/>
       <c r="AR19" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="AS19" s="31" t="s">
+      <c r="AS19" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="AT19" s="31"/>
-      <c r="AU19" s="31"/>
-      <c r="AV19" s="31"/>
-      <c r="AW19" s="31"/>
+      <c r="AT19" s="33"/>
+      <c r="AU19" s="33"/>
+      <c r="AV19" s="33"/>
+      <c r="AW19" s="33"/>
       <c r="AX19" s="1"/>
-      <c r="AY19" s="30" t="s">
+      <c r="AY19" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="AZ19" s="30"/>
-      <c r="BA19" s="30"/>
-      <c r="BB19" s="30"/>
-      <c r="BC19" s="30"/>
+      <c r="AZ19" s="32"/>
+      <c r="BA19" s="32"/>
+      <c r="BB19" s="32"/>
+      <c r="BC19" s="32"/>
       <c r="BD19" s="1"/>
       <c r="BE19" s="1"/>
-      <c r="BF19" s="31" t="s">
+      <c r="BF19" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="BG19" s="31"/>
-      <c r="BH19" s="24" t="s">
+      <c r="BG19" s="33"/>
+      <c r="BH19" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="BI19" s="25"/>
-      <c r="BJ19" s="26"/>
+      <c r="BI19" s="30"/>
+      <c r="BJ19" s="31"/>
       <c r="BK19" s="1"/>
       <c r="BL19" s="1"/>
       <c r="BM19" s="1"/>
@@ -4696,11 +4802,11 @@
       <c r="BX19" s="1"/>
       <c r="BY19" s="1"/>
       <c r="BZ19" s="1"/>
-      <c r="CA19" s="24" t="s">
+      <c r="CA19" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="CB19" s="25"/>
-      <c r="CC19" s="26"/>
+      <c r="CB19" s="30"/>
+      <c r="CC19" s="31"/>
       <c r="CD19" s="1"/>
       <c r="CE19" s="1"/>
       <c r="CF19" s="1"/>
@@ -4714,11 +4820,11 @@
       <c r="CN19" s="1"/>
       <c r="CO19" s="1"/>
       <c r="CP19" s="1"/>
-      <c r="CQ19" s="24" t="s">
+      <c r="CQ19" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="CR19" s="25"/>
-      <c r="CS19" s="26"/>
+      <c r="CR19" s="30"/>
+      <c r="CS19" s="31"/>
       <c r="CT19" s="1"/>
       <c r="CU19" s="1"/>
       <c r="CV19" s="1"/>
@@ -4748,27 +4854,31 @@
       <c r="DN19" s="1"/>
       <c r="DO19" s="1"/>
       <c r="DP19" s="1"/>
-      <c r="DQ19" s="24" t="s">
+      <c r="DQ19" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="DR19" s="25"/>
-      <c r="DS19" s="25"/>
-      <c r="DT19" s="26"/>
+      <c r="DR19" s="30"/>
+      <c r="DS19" s="30"/>
+      <c r="DT19" s="31"/>
       <c r="DU19" s="1"/>
       <c r="DV19" s="1"/>
       <c r="DW19" s="1"/>
-      <c r="DX19" s="1"/>
-      <c r="DY19" s="1"/>
-      <c r="DZ19" s="1"/>
-      <c r="EA19" s="1"/>
+      <c r="DX19" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="DY19" s="30"/>
+      <c r="DZ19" s="30"/>
+      <c r="EA19" s="31"/>
       <c r="EB19" s="1"/>
       <c r="EC19" s="1"/>
       <c r="ED19" s="1"/>
       <c r="EE19" s="1"/>
-      <c r="EF19" s="1"/>
-      <c r="EG19" s="1"/>
-      <c r="EH19" s="1"/>
-      <c r="EI19" s="1"/>
+      <c r="EF19" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="EG19" s="30"/>
+      <c r="EH19" s="30"/>
+      <c r="EI19" s="31"/>
       <c r="EJ19" s="1"/>
       <c r="EK19" s="1"/>
       <c r="EL19" s="1"/>
@@ -4844,10 +4954,10 @@
       <c r="AV20" s="1"/>
       <c r="AW20" s="1"/>
       <c r="AX20" s="1"/>
-      <c r="AY20" s="31" t="s">
+      <c r="AY20" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="AZ20" s="31"/>
+      <c r="AZ20" s="33"/>
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
       <c r="BC20" s="1"/>
@@ -5022,10 +5132,10 @@
       <c r="BH21" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BI21" s="30" t="s">
+      <c r="BI21" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="BJ21" s="30"/>
+      <c r="BJ21" s="32"/>
       <c r="BK21" s="1"/>
       <c r="BL21" s="1"/>
       <c r="BM21" s="1"/>
@@ -5294,25 +5404,49 @@
       <c r="FB22" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="70">
-    <mergeCell ref="DN5:DO5"/>
-    <mergeCell ref="DM11:DO11"/>
-    <mergeCell ref="DJ17:DO17"/>
-    <mergeCell ref="CY7:DA7"/>
-    <mergeCell ref="CY5:DA5"/>
-    <mergeCell ref="CV17:DA17"/>
-    <mergeCell ref="DD11:DG11"/>
-    <mergeCell ref="DE17:DG17"/>
-    <mergeCell ref="DC17:DD17"/>
-    <mergeCell ref="BI7:BJ7"/>
-    <mergeCell ref="CH11:CJ11"/>
-    <mergeCell ref="Y5:AB5"/>
-    <mergeCell ref="AO5:AQ5"/>
-    <mergeCell ref="AV6:AW6"/>
-    <mergeCell ref="AV7:AW7"/>
-    <mergeCell ref="CH10:CM10"/>
-    <mergeCell ref="AD9:AJ9"/>
-    <mergeCell ref="AT9:AU9"/>
+  <mergeCells count="76">
+    <mergeCell ref="EG11:EI11"/>
+    <mergeCell ref="EF19:EI19"/>
+    <mergeCell ref="EL9:EM9"/>
+    <mergeCell ref="DZ11:EC11"/>
+    <mergeCell ref="EA6:EB6"/>
+    <mergeCell ref="DX19:EA19"/>
+    <mergeCell ref="DQ19:DT19"/>
+    <mergeCell ref="DR8:DS8"/>
+    <mergeCell ref="DQ11:DR11"/>
+    <mergeCell ref="DT7:DU7"/>
+    <mergeCell ref="DQ17:DT17"/>
+    <mergeCell ref="CH17:CM17"/>
+    <mergeCell ref="CO10:CT10"/>
+    <mergeCell ref="BI21:BJ21"/>
+    <mergeCell ref="BH19:BJ19"/>
+    <mergeCell ref="BF19:BG19"/>
+    <mergeCell ref="CA10:CE10"/>
+    <mergeCell ref="CA11:CE11"/>
+    <mergeCell ref="BT17:BX17"/>
+    <mergeCell ref="CA17:CE17"/>
+    <mergeCell ref="CA19:CC19"/>
+    <mergeCell ref="BT10:BX10"/>
+    <mergeCell ref="BW11:BX11"/>
+    <mergeCell ref="BN12:BP12"/>
+    <mergeCell ref="BF13:BG13"/>
+    <mergeCell ref="BF16:BG16"/>
+    <mergeCell ref="CQ19:CS19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="AY20:AZ20"/>
+    <mergeCell ref="AD10:AL10"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="AY13:AZ13"/>
+    <mergeCell ref="AP16:AQ16"/>
+    <mergeCell ref="AJ16:AO16"/>
+    <mergeCell ref="AL11:AM11"/>
+    <mergeCell ref="AY16:BA16"/>
+    <mergeCell ref="L2:U2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="K3:Q3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AZ2:BB2"/>
     <mergeCell ref="U19:Y19"/>
     <mergeCell ref="W17:AA17"/>
@@ -5329,42 +5463,24 @@
     <mergeCell ref="BC16:BD16"/>
     <mergeCell ref="B19:T19"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="L2:U2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="K3:Q3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="AY20:AZ20"/>
-    <mergeCell ref="AD10:AL10"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="AY13:AZ13"/>
-    <mergeCell ref="AP16:AQ16"/>
-    <mergeCell ref="AJ16:AO16"/>
-    <mergeCell ref="AL11:AM11"/>
-    <mergeCell ref="AY16:BA16"/>
-    <mergeCell ref="CH17:CM17"/>
-    <mergeCell ref="CO10:CT10"/>
-    <mergeCell ref="BI21:BJ21"/>
-    <mergeCell ref="BH19:BJ19"/>
-    <mergeCell ref="BF19:BG19"/>
-    <mergeCell ref="CA10:CE10"/>
-    <mergeCell ref="CA11:CE11"/>
-    <mergeCell ref="BT17:BX17"/>
-    <mergeCell ref="CA17:CE17"/>
-    <mergeCell ref="CA19:CC19"/>
-    <mergeCell ref="BT10:BX10"/>
-    <mergeCell ref="BW11:BX11"/>
-    <mergeCell ref="BN12:BP12"/>
-    <mergeCell ref="BF13:BG13"/>
-    <mergeCell ref="BF16:BG16"/>
-    <mergeCell ref="CQ19:CS19"/>
-    <mergeCell ref="DQ19:DT19"/>
-    <mergeCell ref="DR8:DS8"/>
-    <mergeCell ref="DQ11:DR11"/>
-    <mergeCell ref="DT7:DU7"/>
-    <mergeCell ref="DQ17:DT17"/>
+    <mergeCell ref="BI7:BJ7"/>
+    <mergeCell ref="CH11:CJ11"/>
+    <mergeCell ref="Y5:AB5"/>
+    <mergeCell ref="AO5:AQ5"/>
+    <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="AV7:AW7"/>
+    <mergeCell ref="CH10:CM10"/>
+    <mergeCell ref="AD9:AJ9"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="DN5:DO5"/>
+    <mergeCell ref="DM11:DO11"/>
+    <mergeCell ref="DJ17:DO17"/>
+    <mergeCell ref="CY7:DA7"/>
+    <mergeCell ref="CY5:DA5"/>
+    <mergeCell ref="CV17:DA17"/>
+    <mergeCell ref="DD11:DG11"/>
+    <mergeCell ref="DE17:DG17"/>
+    <mergeCell ref="DC17:DD17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
